--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9CB6BC-6CD0-4581-BF63-433F501198C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6EC861-76D6-4ED2-949C-A0FBDBFCE7B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4285,6 +4285,73 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>36629</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>51287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7321</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>102576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB19AE5-24FD-4EC1-A61E-18F67A6667BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5048244" y="3751383"/>
+          <a:ext cx="249115" cy="344366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -7740,8 +7807,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>105834</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142479</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>80755</xdr:rowOff>
     </xdr:from>
@@ -7764,10 +7831,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="382059" y="3986005"/>
-          <a:ext cx="8592608" cy="2743200"/>
-          <a:chOff x="380378" y="4042034"/>
-          <a:chExt cx="8540501" cy="2796428"/>
+          <a:off x="694929" y="3986005"/>
+          <a:ext cx="8279738" cy="2743200"/>
+          <a:chOff x="691066" y="4042034"/>
+          <a:chExt cx="8229813" cy="2796428"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -7783,10 +7850,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="392206" y="5130924"/>
-            <a:ext cx="8528673" cy="1707538"/>
-            <a:chOff x="409680" y="836083"/>
-            <a:chExt cx="8548053" cy="1734931"/>
+            <a:off x="717364" y="5130924"/>
+            <a:ext cx="8203515" cy="1707538"/>
+            <a:chOff x="735564" y="836083"/>
+            <a:chExt cx="8222169" cy="1734931"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -7851,10 +7918,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="409680" y="836083"/>
-              <a:ext cx="7996063" cy="1322670"/>
-              <a:chOff x="409680" y="836083"/>
-              <a:chExt cx="7996063" cy="1322670"/>
+              <a:off x="735564" y="836083"/>
+              <a:ext cx="7670179" cy="1322670"/>
+              <a:chOff x="735564" y="836083"/>
+              <a:chExt cx="7670179" cy="1322670"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -8276,13 +8343,12 @@
               </xdr:cNvPr>
               <xdr:cNvCxnSpPr>
                 <a:cxnSpLocks noChangeShapeType="1"/>
-                <a:endCxn id="60" idx="1"/>
               </xdr:cNvCxnSpPr>
             </xdr:nvCxnSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="409680" y="1739164"/>
-                <a:ext cx="1604282" cy="1"/>
+                <a:off x="735564" y="1739164"/>
+                <a:ext cx="1245331" cy="1"/>
               </a:xfrm>
               <a:prstGeom prst="straightConnector1">
                 <a:avLst/>
@@ -8701,34 +8767,6 @@
                   <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                    <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>更新</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                    <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>失敗</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                    <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                  </a:rPr>
-                  <a:t>/</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
@@ -8754,12 +8792,11 @@
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks/>
-            <a:stCxn id="51" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm rot="5400000">
-            <a:off x="2340877" y="2081535"/>
+            <a:off x="2651565" y="2081535"/>
             <a:ext cx="899136" cy="4820133"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
@@ -8804,7 +8841,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="386890" y="4938825"/>
+            <a:off x="697577" y="4938825"/>
             <a:ext cx="0" cy="1084337"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -8985,6 +9022,253 @@
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
             <a:t>更新</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>124558</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161187</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29309</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F767F88-0A64-46D5-B395-B3B4F5DC9770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="32" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="2458180" y="2040551"/>
+          <a:ext cx="659424" cy="4769821"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127815</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>29467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80457</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>29468</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="AutoShape 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF23349-D588-4FC8-AF79-59921D525E75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="406238" y="6220717"/>
+          <a:ext cx="1623181" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>135151</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>135151</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>32755</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463235E1-2FE4-4EB9-B697-8D58914D0DA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="413574" y="4748005"/>
+          <a:ext cx="0" cy="1476000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>262907</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134039</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>145699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F47F74F-8845-4266-BA27-DC481E82A426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="819753" y="6255042"/>
+          <a:ext cx="706401" cy="228445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -16380,7 +16664,7 @@
   <dimension ref="A1:AX33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ48" sqref="AQ48"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -17534,23 +17818,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9CB6BC-6CD0-4581-BF63-433F501198C2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DDC0F7-D4B8-467E-B947-6F39C7B63E98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,18 +11,18 @@
     <sheet name="表紙" sheetId="34" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="35" r:id="rId2"/>
     <sheet name="目次" sheetId="36" r:id="rId3"/>
-    <sheet name="1. ログイン(A101)" sheetId="37" r:id="rId4"/>
+    <sheet name="1. 認証(A101)" sheetId="37" r:id="rId4"/>
     <sheet name="2. プロジェクト管理(A102)" sheetId="38" r:id="rId5"/>
     <sheet name="3. 共通(A103)" sheetId="39" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. ログイン(A101)'!$A$1:$AI$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 認証(A101)'!$A$1:$AI$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3. 共通(A103)'!$A$1:$AI$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$37</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. ログイン(A101)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. 認証(A101)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. プロジェクト管理(A102)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'3. 共通(A103)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>PJ名</t>
   </si>
@@ -192,14 +192,6 @@
     <phoneticPr fontId="28"/>
   </si>
   <si>
-    <t>1. ログイン(A101)</t>
-    <phoneticPr fontId="28"/>
-  </si>
-  <si>
-    <t>1. ログイン(A101)</t>
-    <phoneticPr fontId="28"/>
-  </si>
-  <si>
     <t>2. プロジェクト管理(A102)</t>
     <phoneticPr fontId="28"/>
   </si>
@@ -315,6 +307,13 @@
     <t>プロジェクト管理システム</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>1. 認証(A101)</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
     </rPh>
     <phoneticPr fontId="28"/>
   </si>
@@ -2080,8 +2079,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2098,8 +2097,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2838450" y="1181100"/>
-          <a:ext cx="2486025" cy="1457325"/>
+          <a:off x="904875" y="1038225"/>
+          <a:ext cx="2486025" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2125,10 +2124,13 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
-          </a:endParaRPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ｓ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2227,7 +2229,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>ログイン</a:t>
+            <a:t>認証</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2262,7 +2264,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3267075" y="1552575"/>
+          <a:off x="1333500" y="1409700"/>
           <a:ext cx="1104900" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3787,15 +3789,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>241789</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>86204</xdr:rowOff>
+      <xdr:colOff>241788</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>197824</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>89642</xdr:rowOff>
+      <xdr:colOff>197823</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3812,9 +3814,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000">
-          <a:off x="3304443" y="2320916"/>
-          <a:ext cx="1626573" cy="3438"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3254069" y="2406389"/>
+          <a:ext cx="1599098" cy="67"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3845,8 +3847,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>241788</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3863,8 +3865,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2294793" y="2143350"/>
-          <a:ext cx="1009649" cy="355131"/>
+          <a:off x="2258158" y="2114958"/>
+          <a:ext cx="995911" cy="582998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3896,11 +3898,60 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
             <a:t>ログアウト処理</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WA1010201</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3915,9 +3966,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>67408</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>86205</xdr:rowOff>
+      <xdr:colOff>67409</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3935,8 +3986,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="10800000">
-          <a:off x="1899139" y="2017836"/>
-          <a:ext cx="395654" cy="303081"/>
+          <a:off x="1871664" y="1993107"/>
+          <a:ext cx="386495" cy="413351"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3957,16 +4008,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>203562</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119906</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251187</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>153864</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63364</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>201489</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69317</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3983,8 +4034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1317254" y="2354618"/>
-          <a:ext cx="1063995" cy="236534"/>
+          <a:off x="1072718" y="2471390"/>
+          <a:ext cx="1045677" cy="229208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4097,14 +4148,14 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>197823</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>93779</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>120669</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4121,8 +4172,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4931015" y="2146788"/>
-          <a:ext cx="1009649" cy="355131"/>
+          <a:off x="4853167" y="2214562"/>
+          <a:ext cx="991331" cy="383656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4285,6 +4336,73 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>36629</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>51287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7321</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>102576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB19AE5-24FD-4EC1-A61E-18F67A6667BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5048244" y="3751383"/>
+          <a:ext cx="249115" cy="344366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -7740,8 +7858,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>105834</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>142479</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>80755</xdr:rowOff>
     </xdr:from>
@@ -7764,10 +7882,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="382059" y="3986005"/>
-          <a:ext cx="8592608" cy="2743200"/>
-          <a:chOff x="380378" y="4042034"/>
-          <a:chExt cx="8540501" cy="2796428"/>
+          <a:off x="694929" y="3986005"/>
+          <a:ext cx="8279738" cy="2743200"/>
+          <a:chOff x="691066" y="4042034"/>
+          <a:chExt cx="8229813" cy="2796428"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:grpSp>
@@ -7783,10 +7901,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="392206" y="5130924"/>
-            <a:ext cx="8528673" cy="1707538"/>
-            <a:chOff x="409680" y="836083"/>
-            <a:chExt cx="8548053" cy="1734931"/>
+            <a:off x="717364" y="5130924"/>
+            <a:ext cx="8203515" cy="1707538"/>
+            <a:chOff x="735564" y="836083"/>
+            <a:chExt cx="8222169" cy="1734931"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:sp macro="" textlink="">
@@ -7851,10 +7969,10 @@
           </xdr:nvGrpSpPr>
           <xdr:grpSpPr>
             <a:xfrm>
-              <a:off x="409680" y="836083"/>
-              <a:ext cx="7996063" cy="1322670"/>
-              <a:chOff x="409680" y="836083"/>
-              <a:chExt cx="7996063" cy="1322670"/>
+              <a:off x="735564" y="836083"/>
+              <a:ext cx="7670179" cy="1322670"/>
+              <a:chOff x="735564" y="836083"/>
+              <a:chExt cx="7670179" cy="1322670"/>
             </a:xfrm>
           </xdr:grpSpPr>
           <xdr:sp macro="" textlink="">
@@ -8276,13 +8394,12 @@
               </xdr:cNvPr>
               <xdr:cNvCxnSpPr>
                 <a:cxnSpLocks noChangeShapeType="1"/>
-                <a:endCxn id="60" idx="1"/>
               </xdr:cNvCxnSpPr>
             </xdr:nvCxnSpPr>
             <xdr:spPr bwMode="auto">
               <a:xfrm>
-                <a:off x="409680" y="1739164"/>
-                <a:ext cx="1604282" cy="1"/>
+                <a:off x="735564" y="1739164"/>
+                <a:ext cx="1245331" cy="1"/>
               </a:xfrm>
               <a:prstGeom prst="straightConnector1">
                 <a:avLst/>
@@ -8701,34 +8818,6 @@
                   <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                    <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>更新</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
-                    <a:effectLst/>
-                    <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                    <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:rPr>
-                  <a:t>失敗</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                    <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
-                  </a:rPr>
-                  <a:t>/</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="000000"/>
@@ -8754,12 +8843,11 @@
           </xdr:cNvPr>
           <xdr:cNvCxnSpPr>
             <a:cxnSpLocks/>
-            <a:stCxn id="51" idx="2"/>
           </xdr:cNvCxnSpPr>
         </xdr:nvCxnSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm rot="5400000">
-            <a:off x="2340877" y="2081535"/>
+            <a:off x="2651565" y="2081535"/>
             <a:ext cx="899136" cy="4820133"/>
           </a:xfrm>
           <a:prstGeom prst="bentConnector2">
@@ -8804,7 +8892,7 @@
         </xdr:nvCxnSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="386890" y="4938825"/>
+            <a:off x="697577" y="4938825"/>
             <a:ext cx="0" cy="1084337"/>
           </a:xfrm>
           <a:prstGeom prst="line">
@@ -8985,6 +9073,253 @@
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
             <a:t>更新</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>124558</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161187</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>29309</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="直線コネクタ 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F767F88-0A64-46D5-B395-B3B4F5DC9770}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks/>
+          <a:stCxn id="32" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="2458180" y="2040551"/>
+          <a:ext cx="659424" cy="4769821"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="dk1">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:headEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127815</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>29467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>80457</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>29468</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="81" name="AutoShape 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CF23349-D588-4FC8-AF79-59921D525E75}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:cxnSpLocks noChangeShapeType="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="406238" y="6220717"/>
+          <a:ext cx="1623181" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd type="none"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>135151</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>22140</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>135151</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>32755</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="91" name="直線コネクタ 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{463235E1-2FE4-4EB9-B697-8D58914D0DA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="413574" y="4748005"/>
+          <a:ext cx="0" cy="1476000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>262907</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>63792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134039</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>145699</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F47F74F-8845-4266-BA27-DC481E82A426}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="819753" y="6255042"/>
+          <a:ext cx="706401" cy="228445"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>戻る</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
@@ -10821,7 +11156,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>ログインのログアウト処理へ</a:t>
+            <a:t>認証のログアウト処理へ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11841,7 +12176,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="J23" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12576,7 +12911,7 @@
       <c r="C3" s="128"/>
       <c r="D3" s="129"/>
       <c r="E3" s="157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="131"/>
       <c r="G3" s="131"/>
@@ -12756,12 +13091,12 @@
       <c r="E9" s="89"/>
       <c r="F9" s="90"/>
       <c r="G9" s="106" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="92"/>
       <c r="I9" s="93"/>
       <c r="J9" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9" s="95"/>
       <c r="L9" s="95"/>
@@ -12770,7 +13105,7 @@
       <c r="O9" s="95"/>
       <c r="P9" s="96"/>
       <c r="Q9" s="103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="98"/>
@@ -12787,7 +13122,7 @@
       <c r="AD9" s="98"/>
       <c r="AE9" s="99"/>
       <c r="AF9" s="102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG9" s="95"/>
       <c r="AH9" s="95"/>
@@ -12798,7 +13133,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="87"/>
       <c r="D10" s="88">
@@ -12812,7 +13147,7 @@
       <c r="H10" s="92"/>
       <c r="I10" s="93"/>
       <c r="J10" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K10" s="95"/>
       <c r="L10" s="95"/>
@@ -12821,7 +13156,7 @@
       <c r="O10" s="95"/>
       <c r="P10" s="96"/>
       <c r="Q10" s="103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R10" s="98"/>
       <c r="S10" s="98"/>
@@ -12849,7 +13184,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="87"/>
       <c r="D11" s="88">
@@ -12863,7 +13198,7 @@
       <c r="H11" s="92"/>
       <c r="I11" s="93"/>
       <c r="J11" s="103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11" s="95"/>
       <c r="L11" s="95"/>
@@ -12872,7 +13207,7 @@
       <c r="O11" s="95"/>
       <c r="P11" s="96"/>
       <c r="Q11" s="103" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R11" s="98"/>
       <c r="S11" s="98"/>
@@ -13907,7 +14242,7 @@
   <dimension ref="A1:AL53"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14323,7 +14658,7 @@
     <row r="7" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="67"/>
       <c r="B7" s="65" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C7" s="70"/>
       <c r="D7" s="70"/>
@@ -14474,7 +14809,7 @@
     <row r="11" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="67"/>
       <c r="B11" s="65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="70"/>
       <c r="D11" s="67"/>
@@ -15738,7 +16073,7 @@
   <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -16001,7 +16336,7 @@
     </row>
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="65" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
@@ -16380,7 +16715,7 @@
   <dimension ref="A1:AX33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AQ48" sqref="AQ48"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -16643,7 +16978,7 @@
     </row>
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
@@ -16929,7 +17264,7 @@
   <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -17192,7 +17527,7 @@
     </row>
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
@@ -17534,23 +17869,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
     <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DDC0F7-D4B8-467E-B947-6F39C7B63E98}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C77D3B-1EFB-42F1-915F-82E8E4F363B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1347,236 +1347,236 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2124,13 +2124,10 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900">
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>ｓ</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900">
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3919,7 +3916,7 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -3928,16 +3925,16 @@
             <a:t>【</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>WA1010201</a:t>
+            <a:t>WA1010102</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1000" b="0" i="0" baseline="0">
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
               <a:effectLst/>
               <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
               <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
@@ -12130,9 +12127,7 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12792,57 +12787,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="s">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="127" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="121">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="86">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="123"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -12850,53 +12845,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="127" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="133" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="98" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="121">
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="86">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="123"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -12904,45 +12899,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="123"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12979,1073 +12974,1229 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="124" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="124" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="124" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="124" t="s">
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="124" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="125"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="90"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="107">
+      <c r="B8" s="137">
         <v>1</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109">
+      <c r="C8" s="138"/>
+      <c r="D8" s="139">
         <v>43595</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112" t="s">
+      <c r="E8" s="140"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115" t="s">
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="118" t="s">
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="119"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="115" t="s">
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="117"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="146"/>
+      <c r="AI8" s="147"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="123">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="88">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125">
         <v>43803</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="106" t="s">
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="102" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="103" t="s">
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="102" t="s">
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="136"/>
+      <c r="AF9" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="96"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="133"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88">
+      <c r="C10" s="152"/>
+      <c r="D10" s="125">
         <v>43895</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="101" t="s">
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="102" t="s">
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="103" t="s">
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="102" t="s">
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="96"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="133"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>4</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88">
+      <c r="C11" s="152"/>
+      <c r="D11" s="125">
         <v>44796</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="101" t="s">
+      <c r="E11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="103" t="s">
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="103" t="s">
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="102" t="s">
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="96"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="133"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="96"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="133"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="98"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="96"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="156"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="133"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="96"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="156"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="133"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="98"/>
-      <c r="AB15" s="98"/>
-      <c r="AC15" s="98"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="96"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="156"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="133"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="98"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="96"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="156"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="133"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="98"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="96"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="156"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="133"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="98"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="96"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="156"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="133"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="98"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="96"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="156"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="133"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="96"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="156"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="133"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="96"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="156"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="133"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="96"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="156"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="133"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="96"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="156"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="133"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="96"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="156"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="133"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="98"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="94"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="96"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
+      <c r="AF25" s="156"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="133"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="98"/>
-      <c r="AD26" s="98"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="96"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="156"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="133"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="98"/>
-      <c r="AC27" s="98"/>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="94"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="96"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="156"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="133"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="98"/>
-      <c r="AD28" s="98"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="96"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="133"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="98"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
-      <c r="AB29" s="98"/>
-      <c r="AC29" s="98"/>
-      <c r="AD29" s="98"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="96"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="156"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="133"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="94"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="96"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="135"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="156"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="133"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="98"/>
-      <c r="U31" s="98"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="98"/>
-      <c r="AB31" s="98"/>
-      <c r="AC31" s="98"/>
-      <c r="AD31" s="98"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="96"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="156"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="98"/>
-      <c r="AB32" s="98"/>
-      <c r="AC32" s="98"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="96"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="156"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="133"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="98"/>
-      <c r="U33" s="98"/>
-      <c r="V33" s="98"/>
-      <c r="W33" s="98"/>
-      <c r="X33" s="98"/>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="98"/>
-      <c r="AB33" s="98"/>
-      <c r="AC33" s="98"/>
-      <c r="AD33" s="98"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="96"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="156"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -14069,162 +14220,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14381,163 +14376,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="str">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="158" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="158" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="154" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -16039,14 +16034,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -16056,6 +16043,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -16094,25 +16089,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -16130,23 +16125,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -16160,25 +16155,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -16191,23 +16186,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -16221,25 +16216,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -16252,21 +16247,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -16678,14 +16673,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -16695,6 +16682,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -16736,25 +16731,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -16772,23 +16767,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -16802,25 +16797,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -16833,23 +16828,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -16863,25 +16858,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -16894,21 +16889,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -17227,14 +17222,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17244,6 +17231,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -17285,25 +17280,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -17321,23 +17316,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -17351,25 +17346,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -17382,23 +17377,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -17412,25 +17407,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -17443,21 +17438,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -17869,6 +17864,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17878,14 +17881,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C77D3B-1EFB-42F1-915F-82E8E4F363B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6C393E-4DA4-4231-B085-85AF11E12AD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1347,6 +1347,111 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1458,110 +1563,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1571,12 +1577,6 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -6830,7 +6830,7 @@
                   <a:latin typeface="ＭＳ 明朝"/>
                   <a:ea typeface="ＭＳ 明朝"/>
                 </a:rPr>
-                <a:t>完了</a:t>
+                <a:t>次へ</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -11040,57 +11040,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>162659</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>175359</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>77157</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="カギ線コネクタ 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38230C97-674E-4CAE-BB69-9EA812E2C523}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="39" idx="3"/>
-          <a:endCxn id="40" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4617428" y="1717432"/>
-          <a:ext cx="12700" cy="2499437"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 9821740"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>23447</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -11158,138 +11107,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15739</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15610</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>237744</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99871</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Text Box 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75865201-4D90-4406-92AD-B3632DF21E76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4748931" y="1517629"/>
-          <a:ext cx="778851" cy="230800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>エラー発生</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>13996</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>67215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>13996</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>75499</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE388B7-DE5F-430B-9B01-71B4C5B1C1CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="38" idx="0"/>
-          <a:endCxn id="37" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="4468765" y="2008850"/>
-          <a:ext cx="0" cy="1913284"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -11505,180 +11322,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>162658</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>77157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>162659</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77156</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 274">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2EE386-0E03-44E3-821C-46CE8ECC9C3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3503735" y="3923792"/>
-          <a:ext cx="1113693" cy="586152"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>汎用エラー【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA1030201</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>236182</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>115001</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>174667</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>58458</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Text Box 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7014CAE7-AFDD-401A-82C7-F0655446B110}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4134105" y="3668559"/>
-          <a:ext cx="773754" cy="236534"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38102</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -11771,6 +11414,700 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>172184</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>257127</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52245</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633AEDCC-4296-4BBA-A032-3AF3996C6127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="3"/>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4591784" y="1685663"/>
+          <a:ext cx="3123418" cy="2414707"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -7319"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>253864</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>199644</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>46384</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7FB921-6AC3-4382-9243-D650517009F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7988164" y="1867123"/>
+          <a:ext cx="774455" cy="227136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>エラー発生</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>172183</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>52245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>172184</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>52244</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FB018D-80F3-445D-B900-078B96D2153D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3486883" y="3814620"/>
+          <a:ext cx="1104901" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>汎用エラー【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1030201</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>169507</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>99614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>107992</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>43071</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BCD127-6FE6-44DA-BCD1-CEA8C29C12E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2379307" y="4147739"/>
+          <a:ext cx="767160" cy="229207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>257127</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813BBF08-120E-428A-BBBB-759C33EB44EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6610350" y="1400175"/>
+          <a:ext cx="1104852" cy="570975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト管理へ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>115661</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219027</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>137013</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9A6A45-8EAB-4FAD-9A6C-201368B35581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1047750" y="3878036"/>
+          <a:ext cx="1104852" cy="449977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ログイン画面へ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>219027</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>172183</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>54900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C921F44-EAB7-4424-A454-2498481CD962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="1"/>
+          <a:endCxn id="48" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="2152602" y="4100370"/>
+          <a:ext cx="1334281" cy="2655"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>171453</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>257151</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>41763</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCE027B-A443-4786-845F-992C0BE66CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="47" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4591053" y="1971150"/>
+          <a:ext cx="2571723" cy="1975863"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>114523</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>60813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D17E38-F83F-4D20-A4C3-01C4583694FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5629275" y="3591148"/>
+          <a:ext cx="1495425" cy="232040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>メニューから各機能を選択</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6334CA51-0CDB-475B-ABC6-64A2D360A7BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="47" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4582259" y="1685663"/>
+          <a:ext cx="2028091" cy="2460"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12787,57 +13124,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="92" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="86">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="121">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -12845,53 +13182,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="92" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="98" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="133" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="86">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="121">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -12899,45 +13236,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="122" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -12974,1229 +13311,1073 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="89" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="126"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="89" t="s">
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="89" t="s">
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="125"/>
+      <c r="AF7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="90"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="125"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="137">
+      <c r="B8" s="107">
         <v>1</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="139">
+      <c r="C8" s="108"/>
+      <c r="D8" s="109">
         <v>43595</v>
       </c>
-      <c r="E8" s="140"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="142" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="145" t="s">
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="148" t="s">
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="149"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="145" t="s">
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="147"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="117"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="123">
+      <c r="B9" s="104">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125">
+      <c r="C9" s="105"/>
+      <c r="D9" s="88">
         <v>43803</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128" t="s">
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131" t="s">
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="134" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
-      <c r="AE9" s="136"/>
-      <c r="AF9" s="131" t="s">
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="AG9" s="132"/>
-      <c r="AH9" s="132"/>
-      <c r="AI9" s="133"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="96"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="125">
+      <c r="C10" s="87"/>
+      <c r="D10" s="88">
         <v>43895</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="153" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="131" t="s">
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="134" t="s">
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="136"/>
-      <c r="AF10" s="131" t="s">
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="132"/>
-      <c r="AI10" s="133"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="96"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>4</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="125">
+      <c r="C11" s="87"/>
+      <c r="D11" s="88">
         <v>44796</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="153" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="134" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="134" t="s">
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="136"/>
-      <c r="AF11" s="131" t="s">
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="133"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="96"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="135"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="136"/>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="133"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="96"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="136"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="132"/>
-      <c r="AH13" s="132"/>
-      <c r="AI13" s="133"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="96"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="135"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="156"/>
-      <c r="AG14" s="132"/>
-      <c r="AH14" s="132"/>
-      <c r="AI14" s="133"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="96"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="135"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="156"/>
-      <c r="AG15" s="132"/>
-      <c r="AH15" s="132"/>
-      <c r="AI15" s="133"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="96"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="135"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="156"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="133"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="96"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="136"/>
-      <c r="AF17" s="156"/>
-      <c r="AG17" s="132"/>
-      <c r="AH17" s="132"/>
-      <c r="AI17" s="133"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="96"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="136"/>
-      <c r="AF18" s="156"/>
-      <c r="AG18" s="132"/>
-      <c r="AH18" s="132"/>
-      <c r="AI18" s="133"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="96"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="135"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="156"/>
-      <c r="AG19" s="132"/>
-      <c r="AH19" s="132"/>
-      <c r="AI19" s="133"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="135"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="135"/>
-      <c r="AC20" s="135"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="136"/>
-      <c r="AF20" s="156"/>
-      <c r="AG20" s="132"/>
-      <c r="AH20" s="132"/>
-      <c r="AI20" s="133"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="135"/>
-      <c r="AE21" s="136"/>
-      <c r="AF21" s="156"/>
-      <c r="AG21" s="132"/>
-      <c r="AH21" s="132"/>
-      <c r="AI21" s="133"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="96"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="135"/>
-      <c r="AE22" s="136"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="132"/>
-      <c r="AH22" s="132"/>
-      <c r="AI22" s="133"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="135"/>
-      <c r="S23" s="135"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="135"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="135"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="135"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="135"/>
-      <c r="AD23" s="135"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="156"/>
-      <c r="AG23" s="132"/>
-      <c r="AH23" s="132"/>
-      <c r="AI23" s="133"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="135"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="135"/>
-      <c r="AA24" s="135"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="135"/>
-      <c r="AD24" s="135"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="156"/>
-      <c r="AG24" s="132"/>
-      <c r="AH24" s="132"/>
-      <c r="AI24" s="133"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="135"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="136"/>
-      <c r="AF25" s="156"/>
-      <c r="AG25" s="132"/>
-      <c r="AH25" s="132"/>
-      <c r="AI25" s="133"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="96"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="135"/>
-      <c r="AE26" s="136"/>
-      <c r="AF26" s="156"/>
-      <c r="AG26" s="132"/>
-      <c r="AH26" s="132"/>
-      <c r="AI26" s="133"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="96"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="135"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="136"/>
-      <c r="AF27" s="156"/>
-      <c r="AG27" s="132"/>
-      <c r="AH27" s="132"/>
-      <c r="AI27" s="133"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="96"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="132"/>
-      <c r="AI28" s="133"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="96"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="135"/>
-      <c r="AC29" s="135"/>
-      <c r="AD29" s="135"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="156"/>
-      <c r="AG29" s="132"/>
-      <c r="AH29" s="132"/>
-      <c r="AI29" s="133"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="96"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="133"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="135"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="135"/>
-      <c r="Y30" s="135"/>
-      <c r="Z30" s="135"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="135"/>
-      <c r="AC30" s="135"/>
-      <c r="AD30" s="135"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="156"/>
-      <c r="AG30" s="132"/>
-      <c r="AH30" s="132"/>
-      <c r="AI30" s="133"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="96"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="133"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="135"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="135"/>
-      <c r="AC31" s="135"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="156"/>
-      <c r="AG31" s="132"/>
-      <c r="AH31" s="132"/>
-      <c r="AI31" s="133"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="96"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="135"/>
-      <c r="AD32" s="135"/>
-      <c r="AE32" s="136"/>
-      <c r="AF32" s="156"/>
-      <c r="AG32" s="132"/>
-      <c r="AH32" s="132"/>
-      <c r="AI32" s="133"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="96"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="135"/>
-      <c r="AC33" s="135"/>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="136"/>
-      <c r="AF33" s="156"/>
-      <c r="AG33" s="132"/>
-      <c r="AH33" s="132"/>
-      <c r="AI33" s="133"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -14220,6 +14401,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14376,163 +14713,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="str">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="119" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -16034,6 +16371,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -16043,14 +16388,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -16089,25 +16426,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -16125,23 +16462,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -16155,25 +16492,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -16186,23 +16523,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -16216,25 +16553,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -16247,21 +16584,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -16673,6 +17010,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -16682,14 +17027,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -16710,7 +17047,7 @@
   <dimension ref="A1:AX33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -16731,25 +17068,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -16767,23 +17104,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -16797,25 +17134,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -16828,23 +17165,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -16858,25 +17195,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -16889,21 +17226,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -17222,6 +17559,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17231,14 +17576,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -17280,25 +17617,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -17316,23 +17653,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -17346,25 +17683,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -17377,23 +17714,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -17407,25 +17744,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -17438,21 +17775,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -17864,14 +18201,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17881,6 +18210,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6C393E-4DA4-4231-B085-85AF11E12AD2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB9019E-5A57-476D-AFFE-9C84854E6507}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 認証(A101)'!$A$1:$AI$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'3. 共通(A103)'!$A$1:$AI$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3. 共通(A103)'!$A$1:$AI$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$37</definedName>
@@ -1347,111 +1347,6 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1563,11 +1458,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1577,6 +1571,12 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -4081,61 +4081,6 @@
             </a:rPr>
             <a:t>ログイン画面へ</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190478</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>198761</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="正方形/長方形 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000099000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5657000" y="3925956"/>
-          <a:ext cx="281609" cy="240195"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="400000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -9339,14 +9284,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9361,7 +9306,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4419600" y="5191125"/>
+          <a:off x="4419600" y="7639050"/>
           <a:ext cx="4895850" cy="2143125"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
@@ -10557,8 +10502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3094892" y="1041888"/>
-          <a:ext cx="2505808" cy="1497623"/>
+          <a:off x="3070713" y="1030898"/>
+          <a:ext cx="2486025" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10744,16 +10689,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>32238</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>126023</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>49823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>32238</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>11723</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>78398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10770,8 +10715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3094892" y="3533042"/>
-          <a:ext cx="2505808" cy="1497623"/>
+          <a:off x="2917447" y="5379493"/>
+          <a:ext cx="2493818" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10808,16 +10753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>41763</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156063</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11723</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>260839</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>78398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10834,8 +10779,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3382840" y="3348404"/>
-          <a:ext cx="1496891" cy="216877"/>
+          <a:off x="3194538" y="5202848"/>
+          <a:ext cx="1485901" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11167,15 +11112,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>146517</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>75499</xdr:rowOff>
+      <xdr:colOff>1032</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>154800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>34085</xdr:rowOff>
+      <xdr:colOff>9315</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>100760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11190,17 +11135,15 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4322863" y="3922134"/>
-          <a:ext cx="286706" cy="251663"/>
+          <a:off x="4157396" y="5757594"/>
+          <a:ext cx="285374" cy="244336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="400000"/>
-          </a:solidFill>
+          <a:noFill/>
           <a:prstDash val="solid"/>
           <a:round/>
           <a:headEnd type="none" w="med" len="med"/>
@@ -11419,15 +11362,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>172184</xdr:colOff>
+      <xdr:colOff>10259</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>66413</xdr:rowOff>
+      <xdr:rowOff>63600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>257127</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>52245</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11439,18 +11382,18 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="47" idx="3"/>
+          <a:stCxn id="41" idx="3"/>
           <a:endCxn id="44" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="4591784" y="1685663"/>
-          <a:ext cx="3123418" cy="2414707"/>
+          <a:off x="4429859" y="1682850"/>
+          <a:ext cx="3647355" cy="4341570"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -7319"/>
+            <a:gd name="adj1" fmla="val -6268"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -11469,16 +11412,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>253864</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104998</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>130039</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95473</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>199644</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>46384</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>75819</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36859</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11495,7 +11438,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="7988164" y="1867123"/>
+          <a:off x="7035664" y="6143848"/>
           <a:ext cx="774455" cy="227136"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11553,15 +11496,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>172183</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>52245</xdr:rowOff>
+      <xdr:colOff>10258</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>172184</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>52244</xdr:rowOff>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>118919</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11578,7 +11521,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3486883" y="3814620"/>
+          <a:off x="3324958" y="5738670"/>
           <a:ext cx="1104901" cy="571499"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11644,15 +11587,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>169507</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>99614</xdr:rowOff>
+      <xdr:colOff>7582</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>23414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>107992</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>43071</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>222292</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109746</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11669,7 +11612,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2379307" y="4147739"/>
+          <a:off x="2217382" y="6071789"/>
           <a:ext cx="767160" cy="229207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11726,87 +11669,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>257127</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Rectangle 274">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{813BBF08-120E-428A-BBBB-759C33EB44EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="6610350" y="1400175"/>
-          <a:ext cx="1104852" cy="570975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>プロジェクト管理へ</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>115661</xdr:rowOff>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39461</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>219027</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>137013</xdr:rowOff>
+      <xdr:colOff>57102</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11823,7 +11695,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1047750" y="3878036"/>
+          <a:off x="885825" y="5802086"/>
           <a:ext cx="1104852" cy="449977"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11884,15 +11756,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>219027</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>52245</xdr:rowOff>
+      <xdr:colOff>57102</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>172183</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>54900</xdr:rowOff>
+      <xdr:colOff>10258</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121575</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11910,7 +11782,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="2152602" y="4100370"/>
+          <a:off x="1990677" y="6024420"/>
           <a:ext cx="1334281" cy="2655"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -11933,15 +11805,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>171453</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66150</xdr:rowOff>
+      <xdr:colOff>9315</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>257151</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>41763</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>192232</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121467</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -11953,13 +11825,14 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:endCxn id="47" idx="2"/>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="91" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="4591053" y="1971150"/>
-          <a:ext cx="2571723" cy="1975863"/>
+          <a:off x="4442770" y="1684179"/>
+          <a:ext cx="1568371" cy="4195583"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -11980,61 +11853,49 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114523</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>60813</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129105</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Text Box 13">
+        <xdr:cNvPr id="40" name="Rectangle 274">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78D17E38-F83F-4D20-A4C3-01C4583694FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134E37C2-091A-45E4-880F-05B17BCED5CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
+        <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5629275" y="3591148"/>
-          <a:ext cx="1495425" cy="232040"/>
+          <a:off x="6972337" y="2173605"/>
+          <a:ext cx="1104852" cy="432000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
@@ -12054,7 +11915,154 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>メニューから各機能を選択</a:t>
+            <a:t>プロジェクト登録</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1020101</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C688FCC-CE11-42CE-825B-A00CDEBFFFD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972313" y="1466850"/>
+          <a:ext cx="1104901" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト検索</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1020201</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -12066,35 +12074,37 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>162659</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>66413</xdr:rowOff>
+      <xdr:rowOff>63600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>68873</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+        <xdr:cNvPr id="53" name="カギ線コネクタ 122">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6334CA51-0CDB-475B-ABC6-64A2D360A7BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06106D1B-1100-462E-A340-E1D7041F0BD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="3"/>
-          <a:endCxn id="47" idx="1"/>
+          <a:endCxn id="41" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="4582259" y="1685663"/>
-          <a:ext cx="2028091" cy="2460"/>
+          <a:off x="4582259" y="1682850"/>
+          <a:ext cx="2390054" cy="5273"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="9525">
@@ -12108,6 +12118,989 @@
         <a:effectLst/>
       </xdr:spPr>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C40A60-B0AE-4F3C-A9A9-167657833378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390078" cy="701482"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76776"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7692EDE8-AA6A-4756-8C6D-96E084102724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972337" y="2880360"/>
+          <a:ext cx="1104852" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>顧客検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>113865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B5197A-88BF-481D-BF87-08E59C758B6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972313" y="3587115"/>
+          <a:ext cx="1104901" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>顧客登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BEA0F7-D867-404B-91DB-627160B8C252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972337" y="4293870"/>
+          <a:ext cx="1104852" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ユーザ別従事プロジェクト抽出指示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>98625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF16683-F6D8-456F-99C2-1CF4DBA9EC73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972313" y="5000625"/>
+          <a:ext cx="1104901" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト一括登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70437B3A-1D6C-4172-A3FB-BE41F0BE114E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390078" cy="1408237"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76663"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35C0245-4DEF-45C0-89C4-E26F35F6217F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="56" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390054" cy="2114992"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76558"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CBCCF2-04A0-4F2D-99AB-4300A4438419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="57" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390078" cy="2821747"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76701"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D65CC89-1076-43B2-A678-9117672C7103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+          <a:endCxn id="58" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390054" cy="3528502"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76701"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7689634-850D-4060-AE40-E8B18A8CDD48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="2389605"/>
+          <a:ext cx="3647330" cy="3634815"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8475C4C2-A315-449C-B3E3-F081DA3F92F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="3"/>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="3096360"/>
+          <a:ext cx="3647330" cy="2928060"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328017C9-6A9A-48F3-A52A-E8A5B655E717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="3"/>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="3803115"/>
+          <a:ext cx="3647355" cy="2221305"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1404C43B-EE63-4412-945F-F1537680FD8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="57" idx="3"/>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4443714" y="4505540"/>
+          <a:ext cx="3658586" cy="1514550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6248"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D0C665-1878-40FC-9EC0-417147237E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="58" idx="3"/>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="5216625"/>
+          <a:ext cx="3647355" cy="807795"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>182707</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>201757</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABFEC9D-168D-415E-8FB7-05DFAE1AA84A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5724525" y="1369854"/>
+          <a:ext cx="573232" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>109903</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>195628</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60814</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64C863E-687A-403D-A3C4-AE92BE2D5355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9854711" y="2476500"/>
+          <a:ext cx="1477840" cy="698256"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58899"/>
+            <a:gd name="adj2" fmla="val -2387"/>
+            <a:gd name="adj3" fmla="val 120000"/>
+            <a:gd name="adj4" fmla="val -57093"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>グレーアウト箇所は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>2022</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>月版では未実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13124,57 +14117,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="s">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="127" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="121">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="86">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="123"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -13182,53 +14175,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="127" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="133" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="98" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="121">
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="86">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="123"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -13236,45 +14229,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="123"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -13311,1073 +14304,1229 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="124" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="124" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="124" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="124" t="s">
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="124" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="125"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="90"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="107">
+      <c r="B8" s="137">
         <v>1</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109">
+      <c r="C8" s="138"/>
+      <c r="D8" s="139">
         <v>43595</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112" t="s">
+      <c r="E8" s="140"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115" t="s">
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="118" t="s">
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="119"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="115" t="s">
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="117"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="146"/>
+      <c r="AI8" s="147"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="123">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="88">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125">
         <v>43803</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="106" t="s">
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="102" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="103" t="s">
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="102" t="s">
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="136"/>
+      <c r="AF9" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="96"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="133"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88">
+      <c r="C10" s="152"/>
+      <c r="D10" s="125">
         <v>43895</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="101" t="s">
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="102" t="s">
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="103" t="s">
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="102" t="s">
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="96"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="133"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>4</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88">
+      <c r="C11" s="152"/>
+      <c r="D11" s="125">
         <v>44796</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="101" t="s">
+      <c r="E11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="103" t="s">
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="103" t="s">
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="102" t="s">
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="96"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="133"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="96"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="133"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="98"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="96"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="156"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="133"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="96"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="156"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="133"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="98"/>
-      <c r="AB15" s="98"/>
-      <c r="AC15" s="98"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="96"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="156"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="133"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="98"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="96"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="156"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="133"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="98"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="96"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="156"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="133"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="98"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="96"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="156"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="133"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="98"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="96"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="156"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="133"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="96"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="156"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="133"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="96"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="156"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="133"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="96"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="156"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="133"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="96"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="156"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="133"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="96"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="156"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="133"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="98"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="94"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="96"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
+      <c r="AF25" s="156"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="133"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="98"/>
-      <c r="AD26" s="98"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="96"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="156"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="133"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="98"/>
-      <c r="AC27" s="98"/>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="94"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="96"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="156"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="133"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="98"/>
-      <c r="AD28" s="98"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="96"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="133"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="98"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
-      <c r="AB29" s="98"/>
-      <c r="AC29" s="98"/>
-      <c r="AD29" s="98"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="96"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="156"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="133"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="94"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="96"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="135"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="156"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="133"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="98"/>
-      <c r="U31" s="98"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="98"/>
-      <c r="AB31" s="98"/>
-      <c r="AC31" s="98"/>
-      <c r="AD31" s="98"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="96"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="156"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="98"/>
-      <c r="AB32" s="98"/>
-      <c r="AC32" s="98"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="96"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="156"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="133"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="98"/>
-      <c r="U33" s="98"/>
-      <c r="V33" s="98"/>
-      <c r="W33" s="98"/>
-      <c r="X33" s="98"/>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="98"/>
-      <c r="AB33" s="98"/>
-      <c r="AC33" s="98"/>
-      <c r="AD33" s="98"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="96"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="156"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -14401,162 +15550,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -14713,163 +15706,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="str">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="158" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="158" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="154" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -16371,14 +17364,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -16388,6 +17373,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -16426,25 +17419,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -16462,23 +17455,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -16492,25 +17485,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -16523,23 +17516,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -16553,25 +17546,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -16584,21 +17577,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -17010,14 +18003,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17027,6 +18012,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -17068,25 +18061,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -17104,23 +18097,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -17134,25 +18127,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -17165,23 +18158,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -17195,25 +18188,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -17226,21 +18219,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -17559,14 +18552,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17576,6 +18561,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -17596,7 +18589,7 @@
   <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="AK28" sqref="AK28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -17617,25 +18610,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -17653,23 +18646,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -17683,25 +18676,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -17714,23 +18707,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -17744,25 +18737,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -17775,21 +18768,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -18201,6 +19194,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -18210,14 +19211,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -18226,6 +19219,9 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="52" max="34" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB9019E-5A57-476D-AFFE-9C84854E6507}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9644A2F2-465A-406F-A2C1-33D4C8640A24}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1347,6 +1347,111 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1458,110 +1563,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1571,12 +1577,6 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -11382,7 +11382,6 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="41" idx="3"/>
           <a:endCxn id="44" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -11844,7 +11843,7 @@
           </a:solidFill>
           <a:miter lim="800000"/>
           <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
       </xdr:spPr>
@@ -11882,7 +11881,7 @@
           <a:off x="6972337" y="2173605"/>
           <a:ext cx="1104852" cy="432000"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -11926,16 +11925,6 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -11943,18 +11932,15 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>WA1020101</a:t>
+            <a:t>/WA10201</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -11991,7 +11977,7 @@
           <a:off x="6972313" y="1466850"/>
           <a:ext cx="1104901" cy="432000"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -12035,16 +12021,6 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>【</a:t>
-          </a:r>
-          <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
@@ -12052,18 +12028,15 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>WA1020201</a:t>
+            <a:t>/WA10202</a:t>
           </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12093,7 +12066,6 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="3"/>
-          <a:endCxn id="41" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -12144,7 +12116,6 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="3"/>
-          <a:endCxn id="40" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -12202,7 +12173,7 @@
           <a:off x="6972337" y="2880360"/>
           <a:ext cx="1104852" cy="432000"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -12275,7 +12246,7 @@
           <a:off x="6972313" y="3587115"/>
           <a:ext cx="1104901" cy="432000"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -12348,7 +12319,7 @@
           <a:off x="6972337" y="4293870"/>
           <a:ext cx="1104852" cy="432000"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -12421,7 +12392,7 @@
           <a:off x="6972313" y="5000625"/>
           <a:ext cx="1104901" cy="432000"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
@@ -12487,7 +12458,6 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="3"/>
-          <a:endCxn id="55" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -12538,7 +12508,6 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="3"/>
-          <a:endCxn id="56" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -12589,7 +12558,6 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="3"/>
-          <a:endCxn id="57" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -12640,7 +12608,6 @@
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="39" idx="3"/>
-          <a:endCxn id="58" idx="1"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
@@ -12690,7 +12657,6 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="40" idx="3"/>
           <a:endCxn id="44" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -12741,7 +12707,6 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="55" idx="3"/>
           <a:endCxn id="44" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -12792,7 +12757,6 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="56" idx="3"/>
           <a:endCxn id="44" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -12843,7 +12807,6 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="57" idx="3"/>
           <a:endCxn id="44" idx="3"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -12855,57 +12818,6 @@
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
             <a:gd name="adj1" fmla="val -6248"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>10259</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>25500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>66689</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>118920</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="86" name="カギ線コネクタ 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D0C665-1878-40FC-9EC0-417147237E88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="58" idx="3"/>
-          <a:endCxn id="44" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipH="1">
-          <a:off x="4429859" y="5216625"/>
-          <a:ext cx="3647355" cy="807795"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -6268"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -12974,6 +12886,56 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D0C665-1878-40FC-9EC0-417147237E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="5216625"/>
+          <a:ext cx="3647355" cy="807795"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -14117,57 +14079,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="92" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="86">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="121">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -14175,53 +14137,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="92" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="98" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="133" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="86">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="121">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -14229,45 +14191,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="122" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -14304,1229 +14266,1073 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="89" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="126"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="89" t="s">
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="89" t="s">
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="125"/>
+      <c r="AF7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="90"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="125"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="137">
+      <c r="B8" s="107">
         <v>1</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="139">
+      <c r="C8" s="108"/>
+      <c r="D8" s="109">
         <v>43595</v>
       </c>
-      <c r="E8" s="140"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="142" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="145" t="s">
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="148" t="s">
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="149"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="145" t="s">
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="147"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="117"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="123">
+      <c r="B9" s="104">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125">
+      <c r="C9" s="105"/>
+      <c r="D9" s="88">
         <v>43803</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128" t="s">
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131" t="s">
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="134" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
-      <c r="AE9" s="136"/>
-      <c r="AF9" s="131" t="s">
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="AG9" s="132"/>
-      <c r="AH9" s="132"/>
-      <c r="AI9" s="133"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="96"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="125">
+      <c r="C10" s="87"/>
+      <c r="D10" s="88">
         <v>43895</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="153" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="131" t="s">
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="134" t="s">
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="136"/>
-      <c r="AF10" s="131" t="s">
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="132"/>
-      <c r="AI10" s="133"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="96"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>4</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="125">
+      <c r="C11" s="87"/>
+      <c r="D11" s="88">
         <v>44796</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="153" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="134" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="134" t="s">
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="136"/>
-      <c r="AF11" s="131" t="s">
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="133"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="96"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="135"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="136"/>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="133"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="96"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="136"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="132"/>
-      <c r="AH13" s="132"/>
-      <c r="AI13" s="133"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="96"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="135"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="156"/>
-      <c r="AG14" s="132"/>
-      <c r="AH14" s="132"/>
-      <c r="AI14" s="133"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="96"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="135"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="156"/>
-      <c r="AG15" s="132"/>
-      <c r="AH15" s="132"/>
-      <c r="AI15" s="133"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="96"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="135"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="156"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="133"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="96"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="136"/>
-      <c r="AF17" s="156"/>
-      <c r="AG17" s="132"/>
-      <c r="AH17" s="132"/>
-      <c r="AI17" s="133"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="96"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="136"/>
-      <c r="AF18" s="156"/>
-      <c r="AG18" s="132"/>
-      <c r="AH18" s="132"/>
-      <c r="AI18" s="133"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="96"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="135"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="156"/>
-      <c r="AG19" s="132"/>
-      <c r="AH19" s="132"/>
-      <c r="AI19" s="133"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="135"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="135"/>
-      <c r="AC20" s="135"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="136"/>
-      <c r="AF20" s="156"/>
-      <c r="AG20" s="132"/>
-      <c r="AH20" s="132"/>
-      <c r="AI20" s="133"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="135"/>
-      <c r="AE21" s="136"/>
-      <c r="AF21" s="156"/>
-      <c r="AG21" s="132"/>
-      <c r="AH21" s="132"/>
-      <c r="AI21" s="133"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="96"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="135"/>
-      <c r="AE22" s="136"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="132"/>
-      <c r="AH22" s="132"/>
-      <c r="AI22" s="133"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="135"/>
-      <c r="S23" s="135"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="135"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="135"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="135"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="135"/>
-      <c r="AD23" s="135"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="156"/>
-      <c r="AG23" s="132"/>
-      <c r="AH23" s="132"/>
-      <c r="AI23" s="133"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="135"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="135"/>
-      <c r="AA24" s="135"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="135"/>
-      <c r="AD24" s="135"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="156"/>
-      <c r="AG24" s="132"/>
-      <c r="AH24" s="132"/>
-      <c r="AI24" s="133"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="135"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="136"/>
-      <c r="AF25" s="156"/>
-      <c r="AG25" s="132"/>
-      <c r="AH25" s="132"/>
-      <c r="AI25" s="133"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="96"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="135"/>
-      <c r="AE26" s="136"/>
-      <c r="AF26" s="156"/>
-      <c r="AG26" s="132"/>
-      <c r="AH26" s="132"/>
-      <c r="AI26" s="133"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="96"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="135"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="136"/>
-      <c r="AF27" s="156"/>
-      <c r="AG27" s="132"/>
-      <c r="AH27" s="132"/>
-      <c r="AI27" s="133"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="96"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="132"/>
-      <c r="AI28" s="133"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="96"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="135"/>
-      <c r="AC29" s="135"/>
-      <c r="AD29" s="135"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="156"/>
-      <c r="AG29" s="132"/>
-      <c r="AH29" s="132"/>
-      <c r="AI29" s="133"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="96"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="133"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="135"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="135"/>
-      <c r="Y30" s="135"/>
-      <c r="Z30" s="135"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="135"/>
-      <c r="AC30" s="135"/>
-      <c r="AD30" s="135"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="156"/>
-      <c r="AG30" s="132"/>
-      <c r="AH30" s="132"/>
-      <c r="AI30" s="133"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="96"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="133"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="135"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="135"/>
-      <c r="AC31" s="135"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="156"/>
-      <c r="AG31" s="132"/>
-      <c r="AH31" s="132"/>
-      <c r="AI31" s="133"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="96"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="135"/>
-      <c r="AD32" s="135"/>
-      <c r="AE32" s="136"/>
-      <c r="AF32" s="156"/>
-      <c r="AG32" s="132"/>
-      <c r="AH32" s="132"/>
-      <c r="AI32" s="133"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="96"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="135"/>
-      <c r="AC33" s="135"/>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="136"/>
-      <c r="AF33" s="156"/>
-      <c r="AG33" s="132"/>
-      <c r="AH33" s="132"/>
-      <c r="AI33" s="133"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15550,6 +15356,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -15706,163 +15668,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="str">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="119" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -17364,6 +17326,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17373,14 +17343,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -17419,25 +17381,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -17455,23 +17417,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -17485,25 +17447,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -17516,23 +17478,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -17546,25 +17508,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -17577,21 +17539,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -18003,6 +17965,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -18012,14 +17982,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -18061,25 +18023,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -18097,23 +18059,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -18127,25 +18089,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -18158,23 +18120,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -18188,25 +18150,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -18219,21 +18181,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -18552,6 +18514,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -18561,14 +18531,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -18589,7 +18551,7 @@
   <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AK28" sqref="AK28"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -18610,25 +18572,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -18646,23 +18608,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -18676,25 +18638,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -18707,23 +18669,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -18737,25 +18699,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -18768,21 +18730,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -19194,14 +19156,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -19211,6 +19165,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9644A2F2-465A-406F-A2C1-33D4C8640A24}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039B2DF3-1D8D-42DE-92A8-A105894EE412}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1347,111 +1347,6 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1563,11 +1458,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1577,6 +1571,12 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -11907,15 +11907,36 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>プロジェクト登録</a:t>
+            <a:t>プロジェクト検索</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/WA10202</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l" rtl="0">
@@ -11924,22 +11945,12 @@
             </a:lnSpc>
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>/WA10201</a:t>
-          </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -11996,46 +12007,38 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
+          <a:pPr rtl="0"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>プロジェクト検索</a:t>
+            <a:t>プロジェクト登録</a:t>
           </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>/WA10202</a:t>
+            <a:t>/WA10201</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="ＭＳ 明朝"/>
-            <a:ea typeface="ＭＳ 明朝"/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -14079,57 +14082,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="s">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="127" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="121">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="86">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="123"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -14137,53 +14140,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="127" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="133" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="98" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="121">
+      <c r="AD2" s="99"/>
+      <c r="AE2" s="99"/>
+      <c r="AF2" s="100"/>
+      <c r="AG2" s="86">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="123"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -14191,45 +14194,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="122" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="123"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119"/>
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="86"/>
+      <c r="AH3" s="87"/>
+      <c r="AI3" s="88"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -14266,1073 +14269,1229 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="124" t="s">
+      <c r="C7" s="90"/>
+      <c r="D7" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="124" t="s">
+      <c r="E7" s="91"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="124" t="s">
+      <c r="H7" s="91"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="124" t="s">
+      <c r="K7" s="91"/>
+      <c r="L7" s="91"/>
+      <c r="M7" s="91"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="124" t="s">
+      <c r="R7" s="91"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="91"/>
+      <c r="U7" s="91"/>
+      <c r="V7" s="91"/>
+      <c r="W7" s="91"/>
+      <c r="X7" s="91"/>
+      <c r="Y7" s="91"/>
+      <c r="Z7" s="91"/>
+      <c r="AA7" s="91"/>
+      <c r="AB7" s="91"/>
+      <c r="AC7" s="91"/>
+      <c r="AD7" s="91"/>
+      <c r="AE7" s="90"/>
+      <c r="AF7" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="125"/>
+      <c r="AG7" s="91"/>
+      <c r="AH7" s="91"/>
+      <c r="AI7" s="90"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="107">
+      <c r="B8" s="137">
         <v>1</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109">
+      <c r="C8" s="138"/>
+      <c r="D8" s="139">
         <v>43595</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112" t="s">
+      <c r="E8" s="140"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="142" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115" t="s">
+      <c r="H8" s="143"/>
+      <c r="I8" s="144"/>
+      <c r="J8" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="118" t="s">
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="119"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="115" t="s">
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="117"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="146"/>
+      <c r="AI8" s="147"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="123">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="88">
+      <c r="C9" s="124"/>
+      <c r="D9" s="125">
         <v>43803</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="106" t="s">
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="102" t="s">
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="103" t="s">
+      <c r="K9" s="132"/>
+      <c r="L9" s="132"/>
+      <c r="M9" s="132"/>
+      <c r="N9" s="132"/>
+      <c r="O9" s="132"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="134" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="102" t="s">
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="136"/>
+      <c r="AF9" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="96"/>
+      <c r="AG9" s="132"/>
+      <c r="AH9" s="132"/>
+      <c r="AI9" s="133"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="151" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88">
+      <c r="C10" s="152"/>
+      <c r="D10" s="125">
         <v>43895</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="101" t="s">
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="102" t="s">
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="103" t="s">
+      <c r="K10" s="132"/>
+      <c r="L10" s="132"/>
+      <c r="M10" s="132"/>
+      <c r="N10" s="132"/>
+      <c r="O10" s="132"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="102" t="s">
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="96"/>
+      <c r="AG10" s="132"/>
+      <c r="AH10" s="132"/>
+      <c r="AI10" s="133"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>4</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="151" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88">
+      <c r="C11" s="152"/>
+      <c r="D11" s="125">
         <v>44796</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="101" t="s">
+      <c r="E11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="153" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="103" t="s">
+      <c r="H11" s="129"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="103" t="s">
+      <c r="K11" s="132"/>
+      <c r="L11" s="132"/>
+      <c r="M11" s="132"/>
+      <c r="N11" s="132"/>
+      <c r="O11" s="132"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="134" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="102" t="s">
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="96"/>
+      <c r="AG11" s="132"/>
+      <c r="AH11" s="132"/>
+      <c r="AI11" s="133"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="96"/>
+      <c r="B12" s="151"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="153"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
+      <c r="K12" s="132"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="132"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="131"/>
+      <c r="AG12" s="132"/>
+      <c r="AH12" s="132"/>
+      <c r="AI12" s="133"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="98"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="96"/>
+      <c r="B13" s="154"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="155"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="132"/>
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="157"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="156"/>
+      <c r="AG13" s="132"/>
+      <c r="AH13" s="132"/>
+      <c r="AI13" s="133"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="96"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="127"/>
+      <c r="G14" s="155"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="156"/>
+      <c r="K14" s="132"/>
+      <c r="L14" s="132"/>
+      <c r="M14" s="132"/>
+      <c r="N14" s="132"/>
+      <c r="O14" s="132"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="157"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="156"/>
+      <c r="AG14" s="132"/>
+      <c r="AH14" s="132"/>
+      <c r="AI14" s="133"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="98"/>
-      <c r="AB15" s="98"/>
-      <c r="AC15" s="98"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="96"/>
+      <c r="B15" s="154"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="155"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="156"/>
+      <c r="K15" s="132"/>
+      <c r="L15" s="132"/>
+      <c r="M15" s="132"/>
+      <c r="N15" s="132"/>
+      <c r="O15" s="132"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="157"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="156"/>
+      <c r="AG15" s="132"/>
+      <c r="AH15" s="132"/>
+      <c r="AI15" s="133"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="98"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="96"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="127"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="156"/>
+      <c r="K16" s="132"/>
+      <c r="L16" s="132"/>
+      <c r="M16" s="132"/>
+      <c r="N16" s="132"/>
+      <c r="O16" s="132"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="157"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="156"/>
+      <c r="AG16" s="132"/>
+      <c r="AH16" s="132"/>
+      <c r="AI16" s="133"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="98"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="96"/>
+      <c r="B17" s="154"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="127"/>
+      <c r="G17" s="155"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="156"/>
+      <c r="K17" s="132"/>
+      <c r="L17" s="132"/>
+      <c r="M17" s="132"/>
+      <c r="N17" s="132"/>
+      <c r="O17" s="132"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="157"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="156"/>
+      <c r="AG17" s="132"/>
+      <c r="AH17" s="132"/>
+      <c r="AI17" s="133"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="98"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="96"/>
+      <c r="B18" s="154"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="156"/>
+      <c r="K18" s="132"/>
+      <c r="L18" s="132"/>
+      <c r="M18" s="132"/>
+      <c r="N18" s="132"/>
+      <c r="O18" s="132"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="157"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="156"/>
+      <c r="AG18" s="132"/>
+      <c r="AH18" s="132"/>
+      <c r="AI18" s="133"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="98"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="96"/>
+      <c r="B19" s="154"/>
+      <c r="C19" s="152"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="127"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="129"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="156"/>
+      <c r="K19" s="132"/>
+      <c r="L19" s="132"/>
+      <c r="M19" s="132"/>
+      <c r="N19" s="132"/>
+      <c r="O19" s="132"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="157"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="156"/>
+      <c r="AG19" s="132"/>
+      <c r="AH19" s="132"/>
+      <c r="AI19" s="133"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="96"/>
+      <c r="B20" s="154"/>
+      <c r="C20" s="152"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="127"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="129"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="156"/>
+      <c r="K20" s="132"/>
+      <c r="L20" s="132"/>
+      <c r="M20" s="132"/>
+      <c r="N20" s="132"/>
+      <c r="O20" s="132"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="157"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="156"/>
+      <c r="AG20" s="132"/>
+      <c r="AH20" s="132"/>
+      <c r="AI20" s="133"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="96"/>
+      <c r="B21" s="154"/>
+      <c r="C21" s="152"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="127"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="129"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="156"/>
+      <c r="K21" s="132"/>
+      <c r="L21" s="132"/>
+      <c r="M21" s="132"/>
+      <c r="N21" s="132"/>
+      <c r="O21" s="132"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="157"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="156"/>
+      <c r="AG21" s="132"/>
+      <c r="AH21" s="132"/>
+      <c r="AI21" s="133"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="96"/>
+      <c r="B22" s="154"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="156"/>
+      <c r="K22" s="132"/>
+      <c r="L22" s="132"/>
+      <c r="M22" s="132"/>
+      <c r="N22" s="132"/>
+      <c r="O22" s="132"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="157"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="156"/>
+      <c r="AG22" s="132"/>
+      <c r="AH22" s="132"/>
+      <c r="AI22" s="133"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="96"/>
+      <c r="B23" s="154"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="155"/>
+      <c r="H23" s="129"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="156"/>
+      <c r="K23" s="132"/>
+      <c r="L23" s="132"/>
+      <c r="M23" s="132"/>
+      <c r="N23" s="132"/>
+      <c r="O23" s="132"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="157"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="156"/>
+      <c r="AG23" s="132"/>
+      <c r="AH23" s="132"/>
+      <c r="AI23" s="133"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="96"/>
+      <c r="B24" s="154"/>
+      <c r="C24" s="152"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="127"/>
+      <c r="G24" s="155"/>
+      <c r="H24" s="129"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="156"/>
+      <c r="K24" s="132"/>
+      <c r="L24" s="132"/>
+      <c r="M24" s="132"/>
+      <c r="N24" s="132"/>
+      <c r="O24" s="132"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="157"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="156"/>
+      <c r="AG24" s="132"/>
+      <c r="AH24" s="132"/>
+      <c r="AI24" s="133"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="98"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="94"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="96"/>
+      <c r="B25" s="154"/>
+      <c r="C25" s="152"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="127"/>
+      <c r="G25" s="155"/>
+      <c r="H25" s="129"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="156"/>
+      <c r="K25" s="132"/>
+      <c r="L25" s="132"/>
+      <c r="M25" s="132"/>
+      <c r="N25" s="132"/>
+      <c r="O25" s="132"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="157"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
+      <c r="AF25" s="156"/>
+      <c r="AG25" s="132"/>
+      <c r="AH25" s="132"/>
+      <c r="AI25" s="133"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="98"/>
-      <c r="AD26" s="98"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="96"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="127"/>
+      <c r="G26" s="155"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
+      <c r="N26" s="132"/>
+      <c r="O26" s="132"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="157"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="156"/>
+      <c r="AG26" s="132"/>
+      <c r="AH26" s="132"/>
+      <c r="AI26" s="133"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="98"/>
-      <c r="AC27" s="98"/>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="94"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="96"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="152"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="127"/>
+      <c r="G27" s="155"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="132"/>
+      <c r="L27" s="132"/>
+      <c r="M27" s="132"/>
+      <c r="N27" s="132"/>
+      <c r="O27" s="132"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="157"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="156"/>
+      <c r="AG27" s="132"/>
+      <c r="AH27" s="132"/>
+      <c r="AI27" s="133"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="98"/>
-      <c r="AD28" s="98"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="96"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="152"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="127"/>
+      <c r="G28" s="155"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="132"/>
+      <c r="L28" s="132"/>
+      <c r="M28" s="132"/>
+      <c r="N28" s="132"/>
+      <c r="O28" s="132"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="157"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="132"/>
+      <c r="AH28" s="132"/>
+      <c r="AI28" s="133"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="98"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
-      <c r="AB29" s="98"/>
-      <c r="AC29" s="98"/>
-      <c r="AD29" s="98"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="96"/>
+      <c r="B29" s="154"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="127"/>
+      <c r="G29" s="155"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="132"/>
+      <c r="L29" s="132"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="157"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="156"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="133"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="94"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="96"/>
+      <c r="B30" s="154"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="127"/>
+      <c r="G30" s="155"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="156"/>
+      <c r="K30" s="132"/>
+      <c r="L30" s="132"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="157"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="135"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="156"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="133"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="98"/>
-      <c r="U31" s="98"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="98"/>
-      <c r="AB31" s="98"/>
-      <c r="AC31" s="98"/>
-      <c r="AD31" s="98"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="96"/>
+      <c r="B31" s="154"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="127"/>
+      <c r="G31" s="155"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="132"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="133"/>
+      <c r="Q31" s="157"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="156"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="133"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="98"/>
-      <c r="AB32" s="98"/>
-      <c r="AC32" s="98"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="96"/>
+      <c r="B32" s="154"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="127"/>
+      <c r="G32" s="155"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="132"/>
+      <c r="L32" s="132"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="133"/>
+      <c r="Q32" s="157"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="156"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="133"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="98"/>
-      <c r="U33" s="98"/>
-      <c r="V33" s="98"/>
-      <c r="W33" s="98"/>
-      <c r="X33" s="98"/>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="98"/>
-      <c r="AB33" s="98"/>
-      <c r="AC33" s="98"/>
-      <c r="AD33" s="98"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="96"/>
+      <c r="B33" s="154"/>
+      <c r="C33" s="152"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="127"/>
+      <c r="G33" s="155"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="156"/>
+      <c r="K33" s="132"/>
+      <c r="L33" s="132"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="133"/>
+      <c r="Q33" s="157"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="156"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15356,162 +15515,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -15668,163 +15671,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="str">
+      <c r="P1" s="102"/>
+      <c r="Q1" s="102"/>
+      <c r="R1" s="103"/>
+      <c r="S1" s="110" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="158" t="s">
+      <c r="T1" s="111"/>
+      <c r="U1" s="111"/>
+      <c r="V1" s="111"/>
+      <c r="W1" s="111"/>
+      <c r="X1" s="111"/>
+      <c r="Y1" s="111"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="161" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="162"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="158" t="s">
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="104"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="105"/>
+      <c r="R2" s="106"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="161" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="162"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="154" t="str">
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="107"/>
+      <c r="P3" s="108"/>
+      <c r="Q3" s="108"/>
+      <c r="R3" s="109"/>
+      <c r="S3" s="116"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="118"/>
+      <c r="AA3" s="161"/>
+      <c r="AB3" s="162"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -17326,14 +17329,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17343,6 +17338,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -17381,25 +17384,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -17417,23 +17420,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -17447,25 +17450,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -17478,23 +17481,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -17508,25 +17511,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -17539,21 +17542,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -17965,14 +17968,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17982,6 +17977,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -18023,25 +18026,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -18059,23 +18062,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -18089,25 +18092,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -18120,23 +18123,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -18150,25 +18153,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -18181,21 +18184,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -18514,14 +18517,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -18531,6 +18526,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -18572,25 +18575,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+      <c r="L1" s="96"/>
+      <c r="M1" s="96"/>
+      <c r="N1" s="97"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -18608,23 +18611,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="AA1" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="94"/>
+      <c r="AC1" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="120"/>
+      <c r="AE1" s="120"/>
+      <c r="AF1" s="121"/>
+      <c r="AG1" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="159"/>
+      <c r="AI1" s="160"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -18638,25 +18641,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="92" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
+      <c r="J2" s="96"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="97"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -18669,23 +18672,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="AA2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="120"/>
+      <c r="AE2" s="120"/>
+      <c r="AF2" s="121"/>
+      <c r="AG2" s="158">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="159"/>
+      <c r="AI2" s="160"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -18699,25 +18702,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="95" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="K3" s="96"/>
+      <c r="L3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="N3" s="97"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -18730,21 +18733,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="AA3" s="92"/>
+      <c r="AB3" s="94"/>
+      <c r="AC3" s="119" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="120"/>
+      <c r="AE3" s="120"/>
+      <c r="AF3" s="121"/>
+      <c r="AG3" s="158" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="159"/>
+      <c r="AI3" s="160"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -19156,6 +19159,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -19165,14 +19176,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C77D3B-1EFB-42F1-915F-82E8E4F363B7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039B2DF3-1D8D-42DE-92A8-A105894EE412}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 認証(A101)'!$A$1:$AI$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'3. 共通(A103)'!$A$1:$AI$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3. 共通(A103)'!$A$1:$AI$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$37</definedName>
@@ -4088,61 +4088,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190478</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>198761</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="正方形/長方形 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000099000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5657000" y="3925956"/>
-          <a:ext cx="281609" cy="240195"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="400000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>197823</xdr:colOff>
       <xdr:row>15</xdr:row>
@@ -6830,7 +6775,7 @@
                   <a:latin typeface="ＭＳ 明朝"/>
                   <a:ea typeface="ＭＳ 明朝"/>
                 </a:rPr>
-                <a:t>完了</a:t>
+                <a:t>次へ</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9339,14 +9284,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9361,7 +9306,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4419600" y="5191125"/>
+          <a:off x="4419600" y="7639050"/>
           <a:ext cx="4895850" cy="2143125"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
@@ -10557,8 +10502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3094892" y="1041888"/>
-          <a:ext cx="2505808" cy="1497623"/>
+          <a:off x="3070713" y="1030898"/>
+          <a:ext cx="2486025" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10744,16 +10689,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>32238</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>126023</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>49823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>32238</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>11723</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>78398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10770,8 +10715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3094892" y="3533042"/>
-          <a:ext cx="2505808" cy="1497623"/>
+          <a:off x="2917447" y="5379493"/>
+          <a:ext cx="2493818" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10808,16 +10753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>41763</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156063</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11723</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>260839</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>78398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10834,8 +10779,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3382840" y="3348404"/>
-          <a:ext cx="1496891" cy="216877"/>
+          <a:off x="3194538" y="5202848"/>
+          <a:ext cx="1485901" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11040,57 +10985,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>162659</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>175359</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>77157</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="カギ線コネクタ 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38230C97-674E-4CAE-BB69-9EA812E2C523}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="39" idx="3"/>
-          <a:endCxn id="40" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4617428" y="1717432"/>
-          <a:ext cx="12700" cy="2499437"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 9821740"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>23447</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -11162,138 +11056,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15739</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15610</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>237744</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99871</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Text Box 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75865201-4D90-4406-92AD-B3632DF21E76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4748931" y="1517629"/>
-          <a:ext cx="778851" cy="230800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>エラー発生</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>13996</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>67215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>13996</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>75499</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE388B7-DE5F-430B-9B01-71B4C5B1C1CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="38" idx="0"/>
-          <a:endCxn id="37" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="4468765" y="2008850"/>
-          <a:ext cx="0" cy="1913284"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>146517</xdr:colOff>
       <xdr:row>11</xdr:row>
@@ -11350,15 +11112,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>146517</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>75499</xdr:rowOff>
+      <xdr:colOff>1032</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>154800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>34085</xdr:rowOff>
+      <xdr:colOff>9315</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>100760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11373,17 +11135,15 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4322863" y="3922134"/>
-          <a:ext cx="286706" cy="251663"/>
+          <a:off x="4157396" y="5757594"/>
+          <a:ext cx="285374" cy="244336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="400000"/>
-          </a:solidFill>
+          <a:noFill/>
           <a:prstDash val="solid"/>
           <a:round/>
           <a:headEnd type="none" w="med" len="med"/>
@@ -11505,180 +11265,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>162658</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>77157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>162659</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77156</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 274">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2EE386-0E03-44E3-821C-46CE8ECC9C3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3503735" y="3923792"/>
-          <a:ext cx="1113693" cy="586152"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>汎用エラー【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA1030201</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>236182</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>115001</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>174667</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>58458</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Text Box 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7014CAE7-AFDD-401A-82C7-F0655446B110}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4134105" y="3668559"/>
-          <a:ext cx="773754" cy="236534"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38102</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -11767,6 +11353,1715 @@
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
             <a:t>正常時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633AEDCC-4296-4BBA-A032-3AF3996C6127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="1682850"/>
+          <a:ext cx="3647355" cy="4341570"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>130039</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>75819</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7FB921-6AC3-4382-9243-D650517009F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7035664" y="6143848"/>
+          <a:ext cx="774455" cy="227136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>エラー発生</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10258</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>118919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FB018D-80F3-445D-B900-078B96D2153D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3324958" y="5738670"/>
+          <a:ext cx="1104901" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>汎用エラー【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1030201</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7582</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>23414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>222292</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109746</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BCD127-6FE6-44DA-BCD1-CEA8C29C12E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2217382" y="6071789"/>
+          <a:ext cx="767160" cy="229207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57102</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9A6A45-8EAB-4FAD-9A6C-201368B35581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="5802086"/>
+          <a:ext cx="1104852" cy="449977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ログイン画面へ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57102</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10258</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C921F44-EAB7-4424-A454-2498481CD962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="1"/>
+          <a:endCxn id="48" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1990677" y="6024420"/>
+          <a:ext cx="1334281" cy="2655"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9315</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>192232</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121467</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCE027B-A443-4786-845F-992C0BE66CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="91" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4442770" y="1684179"/>
+          <a:ext cx="1568371" cy="4195583"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134E37C2-091A-45E4-880F-05B17BCED5CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972337" y="2173605"/>
+          <a:ext cx="1104852" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>プロジェクト検索</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/WA10202</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C688FCC-CE11-42CE-825B-A00CDEBFFFD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972313" y="1466850"/>
+          <a:ext cx="1104901" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>プロジェクト登録</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/WA10201</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06106D1B-1100-462E-A340-E1D7041F0BD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4582259" y="1682850"/>
+          <a:ext cx="2390054" cy="5273"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C40A60-B0AE-4F3C-A9A9-167657833378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390078" cy="701482"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76776"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7692EDE8-AA6A-4756-8C6D-96E084102724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972337" y="2880360"/>
+          <a:ext cx="1104852" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>顧客検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>113865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B5197A-88BF-481D-BF87-08E59C758B6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972313" y="3587115"/>
+          <a:ext cx="1104901" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>顧客登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BEA0F7-D867-404B-91DB-627160B8C252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972337" y="4293870"/>
+          <a:ext cx="1104852" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ユーザ別従事プロジェクト抽出指示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>98625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF16683-F6D8-456F-99C2-1CF4DBA9EC73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972313" y="5000625"/>
+          <a:ext cx="1104901" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト一括登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70437B3A-1D6C-4172-A3FB-BE41F0BE114E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390078" cy="1408237"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76663"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35C0245-4DEF-45C0-89C4-E26F35F6217F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390054" cy="2114992"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76558"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CBCCF2-04A0-4F2D-99AB-4300A4438419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390078" cy="2821747"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76701"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D65CC89-1076-43B2-A678-9117672C7103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390054" cy="3528502"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76701"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7689634-850D-4060-AE40-E8B18A8CDD48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="2389605"/>
+          <a:ext cx="3647330" cy="3634815"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8475C4C2-A315-449C-B3E3-F081DA3F92F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="3096360"/>
+          <a:ext cx="3647330" cy="2928060"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328017C9-6A9A-48F3-A52A-E8A5B655E717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="3803115"/>
+          <a:ext cx="3647355" cy="2221305"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1404C43B-EE63-4412-945F-F1537680FD8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4443714" y="4505540"/>
+          <a:ext cx="3658586" cy="1514550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6248"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>182707</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>201757</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABFEC9D-168D-415E-8FB7-05DFAE1AA84A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5724525" y="1369854"/>
+          <a:ext cx="573232" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D0C665-1878-40FC-9EC0-417147237E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="5216625"/>
+          <a:ext cx="3647355" cy="807795"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>109903</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>195628</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60814</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64C863E-687A-403D-A3C4-AE92BE2D5355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9854711" y="2476500"/>
+          <a:ext cx="1477840" cy="698256"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58899"/>
+            <a:gd name="adj2" fmla="val -2387"/>
+            <a:gd name="adj3" fmla="val 120000"/>
+            <a:gd name="adj4" fmla="val -57093"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>グレーアウト箇所は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>2022</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>月版では未実装</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -16710,7 +18005,7 @@
   <dimension ref="A1:AX33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -17889,6 +19184,9 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="52" max="34" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039B2DF3-1D8D-42DE-92A8-A105894EE412}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C10E228-9576-41E5-9896-607BC95B168B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1347,6 +1347,111 @@
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1458,110 +1563,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1571,12 +1577,6 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -13068,6 +13068,64 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA04C6C-0D69-4E01-9994-CB60E924B0C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6286501" y="2724150"/>
+          <a:ext cx="2628900" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3742"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14082,57 +14140,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="s">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="92" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="127" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="86">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="121">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="88"/>
+      <c r="AH1" s="122"/>
+      <c r="AI1" s="123"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -14140,53 +14198,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="s">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="92" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="127" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="98" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="133" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="99"/>
-      <c r="AE2" s="99"/>
-      <c r="AF2" s="100"/>
-      <c r="AG2" s="86">
+      <c r="AD2" s="134"/>
+      <c r="AE2" s="134"/>
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="121">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="AH2" s="122"/>
+      <c r="AI2" s="123"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -14194,45 +14252,45 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="122" t="s">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="157" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="86"/>
-      <c r="AH3" s="87"/>
-      <c r="AI3" s="88"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154"/>
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="121"/>
+      <c r="AH3" s="122"/>
+      <c r="AI3" s="123"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -14269,1229 +14327,1073 @@
       <c r="A7" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="89" t="s">
+      <c r="B7" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="89" t="s">
+      <c r="C7" s="125"/>
+      <c r="D7" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="91"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="89" t="s">
+      <c r="E7" s="126"/>
+      <c r="F7" s="125"/>
+      <c r="G7" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="91"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="89" t="s">
+      <c r="H7" s="126"/>
+      <c r="I7" s="125"/>
+      <c r="J7" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="91"/>
-      <c r="L7" s="91"/>
-      <c r="M7" s="91"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="91"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="89" t="s">
+      <c r="K7" s="126"/>
+      <c r="L7" s="126"/>
+      <c r="M7" s="126"/>
+      <c r="N7" s="126"/>
+      <c r="O7" s="126"/>
+      <c r="P7" s="125"/>
+      <c r="Q7" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="91"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="91"/>
-      <c r="U7" s="91"/>
-      <c r="V7" s="91"/>
-      <c r="W7" s="91"/>
-      <c r="X7" s="91"/>
-      <c r="Y7" s="91"/>
-      <c r="Z7" s="91"/>
-      <c r="AA7" s="91"/>
-      <c r="AB7" s="91"/>
-      <c r="AC7" s="91"/>
-      <c r="AD7" s="91"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="89" t="s">
+      <c r="R7" s="126"/>
+      <c r="S7" s="126"/>
+      <c r="T7" s="126"/>
+      <c r="U7" s="126"/>
+      <c r="V7" s="126"/>
+      <c r="W7" s="126"/>
+      <c r="X7" s="126"/>
+      <c r="Y7" s="126"/>
+      <c r="Z7" s="126"/>
+      <c r="AA7" s="126"/>
+      <c r="AB7" s="126"/>
+      <c r="AC7" s="126"/>
+      <c r="AD7" s="126"/>
+      <c r="AE7" s="125"/>
+      <c r="AF7" s="124" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="91"/>
-      <c r="AH7" s="91"/>
-      <c r="AI7" s="90"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="125"/>
     </row>
     <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="137">
+      <c r="B8" s="107">
         <v>1</v>
       </c>
-      <c r="C8" s="138"/>
-      <c r="D8" s="139">
+      <c r="C8" s="108"/>
+      <c r="D8" s="109">
         <v>43595</v>
       </c>
-      <c r="E8" s="140"/>
-      <c r="F8" s="141"/>
-      <c r="G8" s="142" t="s">
+      <c r="E8" s="110"/>
+      <c r="F8" s="111"/>
+      <c r="G8" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="143"/>
-      <c r="I8" s="144"/>
-      <c r="J8" s="145" t="s">
+      <c r="H8" s="113"/>
+      <c r="I8" s="114"/>
+      <c r="J8" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="148" t="s">
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="149"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="145" t="s">
+      <c r="R8" s="119"/>
+      <c r="S8" s="119"/>
+      <c r="T8" s="119"/>
+      <c r="U8" s="119"/>
+      <c r="V8" s="119"/>
+      <c r="W8" s="119"/>
+      <c r="X8" s="119"/>
+      <c r="Y8" s="119"/>
+      <c r="Z8" s="119"/>
+      <c r="AA8" s="119"/>
+      <c r="AB8" s="119"/>
+      <c r="AC8" s="119"/>
+      <c r="AD8" s="119"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="147"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="117"/>
     </row>
     <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="123">
+      <c r="B9" s="104">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="124"/>
-      <c r="D9" s="125">
+      <c r="C9" s="105"/>
+      <c r="D9" s="88">
         <v>43803</v>
       </c>
-      <c r="E9" s="126"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="128" t="s">
+      <c r="E9" s="89"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131" t="s">
+      <c r="H9" s="92"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="132"/>
-      <c r="L9" s="132"/>
-      <c r="M9" s="132"/>
-      <c r="N9" s="132"/>
-      <c r="O9" s="132"/>
-      <c r="P9" s="133"/>
-      <c r="Q9" s="134" t="s">
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="103" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="135"/>
-      <c r="S9" s="135"/>
-      <c r="T9" s="135"/>
-      <c r="U9" s="135"/>
-      <c r="V9" s="135"/>
-      <c r="W9" s="135"/>
-      <c r="X9" s="135"/>
-      <c r="Y9" s="135"/>
-      <c r="Z9" s="135"/>
-      <c r="AA9" s="135"/>
-      <c r="AB9" s="135"/>
-      <c r="AC9" s="135"/>
-      <c r="AD9" s="135"/>
-      <c r="AE9" s="136"/>
-      <c r="AF9" s="131" t="s">
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="AG9" s="132"/>
-      <c r="AH9" s="132"/>
-      <c r="AI9" s="133"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="96"/>
     </row>
     <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="151" t="s">
+      <c r="B10" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="125">
+      <c r="C10" s="87"/>
+      <c r="D10" s="88">
         <v>43895</v>
       </c>
-      <c r="E10" s="126"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="153" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="129"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="131" t="s">
+      <c r="H10" s="92"/>
+      <c r="I10" s="93"/>
+      <c r="J10" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="132"/>
-      <c r="L10" s="132"/>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
-      <c r="P10" s="133"/>
-      <c r="Q10" s="134" t="s">
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="103" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="135"/>
-      <c r="S10" s="135"/>
-      <c r="T10" s="135"/>
-      <c r="U10" s="135"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="135"/>
-      <c r="X10" s="135"/>
-      <c r="Y10" s="135"/>
-      <c r="Z10" s="135"/>
-      <c r="AA10" s="135"/>
-      <c r="AB10" s="135"/>
-      <c r="AC10" s="135"/>
-      <c r="AD10" s="135"/>
-      <c r="AE10" s="136"/>
-      <c r="AF10" s="131" t="s">
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="132"/>
-      <c r="AH10" s="132"/>
-      <c r="AI10" s="133"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="96"/>
     </row>
     <row r="11" spans="1:40" s="18" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="22">
         <v>4</v>
       </c>
-      <c r="B11" s="151" t="s">
+      <c r="B11" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="125">
+      <c r="C11" s="87"/>
+      <c r="D11" s="88">
         <v>44796</v>
       </c>
-      <c r="E11" s="126"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="153" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="129"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="134" t="s">
+      <c r="H11" s="92"/>
+      <c r="I11" s="93"/>
+      <c r="J11" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="132"/>
-      <c r="L11" s="132"/>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
-      <c r="P11" s="133"/>
-      <c r="Q11" s="134" t="s">
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="103" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="135"/>
-      <c r="S11" s="135"/>
-      <c r="T11" s="135"/>
-      <c r="U11" s="135"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="135"/>
-      <c r="X11" s="135"/>
-      <c r="Y11" s="135"/>
-      <c r="Z11" s="135"/>
-      <c r="AA11" s="135"/>
-      <c r="AB11" s="135"/>
-      <c r="AC11" s="135"/>
-      <c r="AD11" s="135"/>
-      <c r="AE11" s="136"/>
-      <c r="AF11" s="131" t="s">
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="132"/>
-      <c r="AH11" s="132"/>
-      <c r="AI11" s="133"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="96"/>
     </row>
     <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="22"/>
-      <c r="B12" s="151"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="132"/>
-      <c r="L12" s="132"/>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
-      <c r="P12" s="133"/>
-      <c r="Q12" s="134"/>
-      <c r="R12" s="135"/>
-      <c r="S12" s="135"/>
-      <c r="T12" s="135"/>
-      <c r="U12" s="135"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="135"/>
-      <c r="AC12" s="135"/>
-      <c r="AD12" s="135"/>
-      <c r="AE12" s="136"/>
-      <c r="AF12" s="131"/>
-      <c r="AG12" s="132"/>
-      <c r="AH12" s="132"/>
-      <c r="AI12" s="133"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="101"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="102"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="96"/>
     </row>
     <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19"/>
-      <c r="B13" s="154"/>
-      <c r="C13" s="152"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="132"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="133"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="135"/>
-      <c r="S13" s="135"/>
-      <c r="T13" s="135"/>
-      <c r="U13" s="135"/>
-      <c r="V13" s="135"/>
-      <c r="W13" s="135"/>
-      <c r="X13" s="135"/>
-      <c r="Y13" s="135"/>
-      <c r="Z13" s="135"/>
-      <c r="AA13" s="135"/>
-      <c r="AB13" s="135"/>
-      <c r="AC13" s="135"/>
-      <c r="AD13" s="135"/>
-      <c r="AE13" s="136"/>
-      <c r="AF13" s="156"/>
-      <c r="AG13" s="132"/>
-      <c r="AH13" s="132"/>
-      <c r="AI13" s="133"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="96"/>
     </row>
     <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="19"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="152"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="155"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="156"/>
-      <c r="K14" s="132"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
-      <c r="P14" s="133"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="135"/>
-      <c r="S14" s="135"/>
-      <c r="T14" s="135"/>
-      <c r="U14" s="135"/>
-      <c r="V14" s="135"/>
-      <c r="W14" s="135"/>
-      <c r="X14" s="135"/>
-      <c r="Y14" s="135"/>
-      <c r="Z14" s="135"/>
-      <c r="AA14" s="135"/>
-      <c r="AB14" s="135"/>
-      <c r="AC14" s="135"/>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="136"/>
-      <c r="AF14" s="156"/>
-      <c r="AG14" s="132"/>
-      <c r="AH14" s="132"/>
-      <c r="AI14" s="133"/>
+      <c r="B14" s="86"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="93"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="96"/>
     </row>
     <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="19"/>
-      <c r="B15" s="154"/>
-      <c r="C15" s="152"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="127"/>
-      <c r="G15" s="155"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="156"/>
-      <c r="K15" s="132"/>
-      <c r="L15" s="132"/>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="135"/>
-      <c r="S15" s="135"/>
-      <c r="T15" s="135"/>
-      <c r="U15" s="135"/>
-      <c r="V15" s="135"/>
-      <c r="W15" s="135"/>
-      <c r="X15" s="135"/>
-      <c r="Y15" s="135"/>
-      <c r="Z15" s="135"/>
-      <c r="AA15" s="135"/>
-      <c r="AB15" s="135"/>
-      <c r="AC15" s="135"/>
-      <c r="AD15" s="135"/>
-      <c r="AE15" s="136"/>
-      <c r="AF15" s="156"/>
-      <c r="AG15" s="132"/>
-      <c r="AH15" s="132"/>
-      <c r="AI15" s="133"/>
+      <c r="B15" s="86"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="96"/>
     </row>
     <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="19"/>
-      <c r="B16" s="154"/>
-      <c r="C16" s="152"/>
-      <c r="D16" s="125"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="127"/>
-      <c r="G16" s="155"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="156"/>
-      <c r="K16" s="132"/>
-      <c r="L16" s="132"/>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
-      <c r="P16" s="133"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="135"/>
-      <c r="S16" s="135"/>
-      <c r="T16" s="135"/>
-      <c r="U16" s="135"/>
-      <c r="V16" s="135"/>
-      <c r="W16" s="135"/>
-      <c r="X16" s="135"/>
-      <c r="Y16" s="135"/>
-      <c r="Z16" s="135"/>
-      <c r="AA16" s="135"/>
-      <c r="AB16" s="135"/>
-      <c r="AC16" s="135"/>
-      <c r="AD16" s="135"/>
-      <c r="AE16" s="136"/>
-      <c r="AF16" s="156"/>
-      <c r="AG16" s="132"/>
-      <c r="AH16" s="132"/>
-      <c r="AI16" s="133"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="93"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="96"/>
     </row>
     <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="19"/>
-      <c r="B17" s="154"/>
-      <c r="C17" s="152"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="156"/>
-      <c r="K17" s="132"/>
-      <c r="L17" s="132"/>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
-      <c r="P17" s="133"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="135"/>
-      <c r="S17" s="135"/>
-      <c r="T17" s="135"/>
-      <c r="U17" s="135"/>
-      <c r="V17" s="135"/>
-      <c r="W17" s="135"/>
-      <c r="X17" s="135"/>
-      <c r="Y17" s="135"/>
-      <c r="Z17" s="135"/>
-      <c r="AA17" s="135"/>
-      <c r="AB17" s="135"/>
-      <c r="AC17" s="135"/>
-      <c r="AD17" s="135"/>
-      <c r="AE17" s="136"/>
-      <c r="AF17" s="156"/>
-      <c r="AG17" s="132"/>
-      <c r="AH17" s="132"/>
-      <c r="AI17" s="133"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="93"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="96"/>
     </row>
     <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="19"/>
-      <c r="B18" s="154"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="127"/>
-      <c r="G18" s="155"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="156"/>
-      <c r="K18" s="132"/>
-      <c r="L18" s="132"/>
-      <c r="M18" s="132"/>
-      <c r="N18" s="132"/>
-      <c r="O18" s="132"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="135"/>
-      <c r="S18" s="135"/>
-      <c r="T18" s="135"/>
-      <c r="U18" s="135"/>
-      <c r="V18" s="135"/>
-      <c r="W18" s="135"/>
-      <c r="X18" s="135"/>
-      <c r="Y18" s="135"/>
-      <c r="Z18" s="135"/>
-      <c r="AA18" s="135"/>
-      <c r="AB18" s="135"/>
-      <c r="AC18" s="135"/>
-      <c r="AD18" s="135"/>
-      <c r="AE18" s="136"/>
-      <c r="AF18" s="156"/>
-      <c r="AG18" s="132"/>
-      <c r="AH18" s="132"/>
-      <c r="AI18" s="133"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="93"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="96"/>
     </row>
     <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="19"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="152"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="127"/>
-      <c r="G19" s="155"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="156"/>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="133"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="135"/>
-      <c r="S19" s="135"/>
-      <c r="T19" s="135"/>
-      <c r="U19" s="135"/>
-      <c r="V19" s="135"/>
-      <c r="W19" s="135"/>
-      <c r="X19" s="135"/>
-      <c r="Y19" s="135"/>
-      <c r="Z19" s="135"/>
-      <c r="AA19" s="135"/>
-      <c r="AB19" s="135"/>
-      <c r="AC19" s="135"/>
-      <c r="AD19" s="135"/>
-      <c r="AE19" s="136"/>
-      <c r="AF19" s="156"/>
-      <c r="AG19" s="132"/>
-      <c r="AH19" s="132"/>
-      <c r="AI19" s="133"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="93"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
     </row>
     <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="19"/>
-      <c r="B20" s="154"/>
-      <c r="C20" s="152"/>
-      <c r="D20" s="125"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="127"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="156"/>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="133"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="135"/>
-      <c r="S20" s="135"/>
-      <c r="T20" s="135"/>
-      <c r="U20" s="135"/>
-      <c r="V20" s="135"/>
-      <c r="W20" s="135"/>
-      <c r="X20" s="135"/>
-      <c r="Y20" s="135"/>
-      <c r="Z20" s="135"/>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="135"/>
-      <c r="AC20" s="135"/>
-      <c r="AD20" s="135"/>
-      <c r="AE20" s="136"/>
-      <c r="AF20" s="156"/>
-      <c r="AG20" s="132"/>
-      <c r="AH20" s="132"/>
-      <c r="AI20" s="133"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="89"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
     </row>
     <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="154"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="156"/>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="133"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="135"/>
-      <c r="S21" s="135"/>
-      <c r="T21" s="135"/>
-      <c r="U21" s="135"/>
-      <c r="V21" s="135"/>
-      <c r="W21" s="135"/>
-      <c r="X21" s="135"/>
-      <c r="Y21" s="135"/>
-      <c r="Z21" s="135"/>
-      <c r="AA21" s="135"/>
-      <c r="AB21" s="135"/>
-      <c r="AC21" s="135"/>
-      <c r="AD21" s="135"/>
-      <c r="AE21" s="136"/>
-      <c r="AF21" s="156"/>
-      <c r="AG21" s="132"/>
-      <c r="AH21" s="132"/>
-      <c r="AI21" s="133"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="96"/>
     </row>
     <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="19"/>
-      <c r="B22" s="154"/>
-      <c r="C22" s="152"/>
-      <c r="D22" s="125"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="155"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="156"/>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="133"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="135"/>
-      <c r="S22" s="135"/>
-      <c r="T22" s="135"/>
-      <c r="U22" s="135"/>
-      <c r="V22" s="135"/>
-      <c r="W22" s="135"/>
-      <c r="X22" s="135"/>
-      <c r="Y22" s="135"/>
-      <c r="Z22" s="135"/>
-      <c r="AA22" s="135"/>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="135"/>
-      <c r="AE22" s="136"/>
-      <c r="AF22" s="156"/>
-      <c r="AG22" s="132"/>
-      <c r="AH22" s="132"/>
-      <c r="AI22" s="133"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="89"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="93"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
     </row>
     <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="19"/>
-      <c r="B23" s="154"/>
-      <c r="C23" s="152"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="127"/>
-      <c r="G23" s="155"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="156"/>
-      <c r="K23" s="132"/>
-      <c r="L23" s="132"/>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="132"/>
-      <c r="P23" s="133"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="135"/>
-      <c r="S23" s="135"/>
-      <c r="T23" s="135"/>
-      <c r="U23" s="135"/>
-      <c r="V23" s="135"/>
-      <c r="W23" s="135"/>
-      <c r="X23" s="135"/>
-      <c r="Y23" s="135"/>
-      <c r="Z23" s="135"/>
-      <c r="AA23" s="135"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="135"/>
-      <c r="AD23" s="135"/>
-      <c r="AE23" s="136"/>
-      <c r="AF23" s="156"/>
-      <c r="AG23" s="132"/>
-      <c r="AH23" s="132"/>
-      <c r="AI23" s="133"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="89"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="93"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
     </row>
     <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="19"/>
-      <c r="B24" s="154"/>
-      <c r="C24" s="152"/>
-      <c r="D24" s="125"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="127"/>
-      <c r="G24" s="155"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="156"/>
-      <c r="K24" s="132"/>
-      <c r="L24" s="132"/>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="132"/>
-      <c r="P24" s="133"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="135"/>
-      <c r="S24" s="135"/>
-      <c r="T24" s="135"/>
-      <c r="U24" s="135"/>
-      <c r="V24" s="135"/>
-      <c r="W24" s="135"/>
-      <c r="X24" s="135"/>
-      <c r="Y24" s="135"/>
-      <c r="Z24" s="135"/>
-      <c r="AA24" s="135"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="135"/>
-      <c r="AD24" s="135"/>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="156"/>
-      <c r="AG24" s="132"/>
-      <c r="AH24" s="132"/>
-      <c r="AI24" s="133"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="93"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
     </row>
     <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="19"/>
-      <c r="B25" s="154"/>
-      <c r="C25" s="152"/>
-      <c r="D25" s="125"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="155"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="156"/>
-      <c r="K25" s="132"/>
-      <c r="L25" s="132"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="132"/>
-      <c r="P25" s="133"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="W25" s="135"/>
-      <c r="X25" s="135"/>
-      <c r="Y25" s="135"/>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="135"/>
-      <c r="AD25" s="135"/>
-      <c r="AE25" s="136"/>
-      <c r="AF25" s="156"/>
-      <c r="AG25" s="132"/>
-      <c r="AH25" s="132"/>
-      <c r="AI25" s="133"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="93"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="96"/>
     </row>
     <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19"/>
-      <c r="B26" s="154"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="125"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="127"/>
-      <c r="G26" s="155"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="156"/>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="132"/>
-      <c r="P26" s="133"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="135"/>
-      <c r="S26" s="135"/>
-      <c r="T26" s="135"/>
-      <c r="U26" s="135"/>
-      <c r="V26" s="135"/>
-      <c r="W26" s="135"/>
-      <c r="X26" s="135"/>
-      <c r="Y26" s="135"/>
-      <c r="Z26" s="135"/>
-      <c r="AA26" s="135"/>
-      <c r="AB26" s="135"/>
-      <c r="AC26" s="135"/>
-      <c r="AD26" s="135"/>
-      <c r="AE26" s="136"/>
-      <c r="AF26" s="156"/>
-      <c r="AG26" s="132"/>
-      <c r="AH26" s="132"/>
-      <c r="AI26" s="133"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="91"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="93"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="96"/>
     </row>
     <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="19"/>
-      <c r="B27" s="154"/>
-      <c r="C27" s="152"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="127"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="156"/>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="132"/>
-      <c r="P27" s="133"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="135"/>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
-      <c r="V27" s="135"/>
-      <c r="W27" s="135"/>
-      <c r="X27" s="135"/>
-      <c r="Y27" s="135"/>
-      <c r="Z27" s="135"/>
-      <c r="AA27" s="135"/>
-      <c r="AB27" s="135"/>
-      <c r="AC27" s="135"/>
-      <c r="AD27" s="135"/>
-      <c r="AE27" s="136"/>
-      <c r="AF27" s="156"/>
-      <c r="AG27" s="132"/>
-      <c r="AH27" s="132"/>
-      <c r="AI27" s="133"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="91"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="93"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="96"/>
     </row>
     <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="19"/>
-      <c r="B28" s="154"/>
-      <c r="C28" s="152"/>
-      <c r="D28" s="125"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="127"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
-      <c r="N28" s="132"/>
-      <c r="O28" s="132"/>
-      <c r="P28" s="133"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="135"/>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
-      <c r="V28" s="135"/>
-      <c r="W28" s="135"/>
-      <c r="X28" s="135"/>
-      <c r="Y28" s="135"/>
-      <c r="Z28" s="135"/>
-      <c r="AA28" s="135"/>
-      <c r="AB28" s="135"/>
-      <c r="AC28" s="135"/>
-      <c r="AD28" s="135"/>
-      <c r="AE28" s="136"/>
-      <c r="AF28" s="156"/>
-      <c r="AG28" s="132"/>
-      <c r="AH28" s="132"/>
-      <c r="AI28" s="133"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="93"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="96"/>
     </row>
     <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="19"/>
-      <c r="B29" s="154"/>
-      <c r="C29" s="152"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="155"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="156"/>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
-      <c r="N29" s="132"/>
-      <c r="O29" s="132"/>
-      <c r="P29" s="133"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="135"/>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
-      <c r="V29" s="135"/>
-      <c r="W29" s="135"/>
-      <c r="X29" s="135"/>
-      <c r="Y29" s="135"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="135"/>
-      <c r="AB29" s="135"/>
-      <c r="AC29" s="135"/>
-      <c r="AD29" s="135"/>
-      <c r="AE29" s="136"/>
-      <c r="AF29" s="156"/>
-      <c r="AG29" s="132"/>
-      <c r="AH29" s="132"/>
-      <c r="AI29" s="133"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="93"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="96"/>
     </row>
     <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19"/>
-      <c r="B30" s="154"/>
-      <c r="C30" s="152"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="127"/>
-      <c r="G30" s="155"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="156"/>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
-      <c r="N30" s="132"/>
-      <c r="O30" s="132"/>
-      <c r="P30" s="133"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="135"/>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
-      <c r="V30" s="135"/>
-      <c r="W30" s="135"/>
-      <c r="X30" s="135"/>
-      <c r="Y30" s="135"/>
-      <c r="Z30" s="135"/>
-      <c r="AA30" s="135"/>
-      <c r="AB30" s="135"/>
-      <c r="AC30" s="135"/>
-      <c r="AD30" s="135"/>
-      <c r="AE30" s="136"/>
-      <c r="AF30" s="156"/>
-      <c r="AG30" s="132"/>
-      <c r="AH30" s="132"/>
-      <c r="AI30" s="133"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="89"/>
+      <c r="F30" s="90"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="92"/>
+      <c r="I30" s="93"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="96"/>
     </row>
     <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="19"/>
-      <c r="B31" s="154"/>
-      <c r="C31" s="152"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="127"/>
-      <c r="G31" s="155"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="156"/>
-      <c r="K31" s="132"/>
-      <c r="L31" s="132"/>
-      <c r="M31" s="132"/>
-      <c r="N31" s="132"/>
-      <c r="O31" s="132"/>
-      <c r="P31" s="133"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="135"/>
-      <c r="S31" s="135"/>
-      <c r="T31" s="135"/>
-      <c r="U31" s="135"/>
-      <c r="V31" s="135"/>
-      <c r="W31" s="135"/>
-      <c r="X31" s="135"/>
-      <c r="Y31" s="135"/>
-      <c r="Z31" s="135"/>
-      <c r="AA31" s="135"/>
-      <c r="AB31" s="135"/>
-      <c r="AC31" s="135"/>
-      <c r="AD31" s="135"/>
-      <c r="AE31" s="136"/>
-      <c r="AF31" s="156"/>
-      <c r="AG31" s="132"/>
-      <c r="AH31" s="132"/>
-      <c r="AI31" s="133"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="90"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="92"/>
+      <c r="I31" s="93"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="96"/>
     </row>
     <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="19"/>
-      <c r="B32" s="154"/>
-      <c r="C32" s="152"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="127"/>
-      <c r="G32" s="155"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="156"/>
-      <c r="K32" s="132"/>
-      <c r="L32" s="132"/>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="132"/>
-      <c r="P32" s="133"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="135"/>
-      <c r="S32" s="135"/>
-      <c r="T32" s="135"/>
-      <c r="U32" s="135"/>
-      <c r="V32" s="135"/>
-      <c r="W32" s="135"/>
-      <c r="X32" s="135"/>
-      <c r="Y32" s="135"/>
-      <c r="Z32" s="135"/>
-      <c r="AA32" s="135"/>
-      <c r="AB32" s="135"/>
-      <c r="AC32" s="135"/>
-      <c r="AD32" s="135"/>
-      <c r="AE32" s="136"/>
-      <c r="AF32" s="156"/>
-      <c r="AG32" s="132"/>
-      <c r="AH32" s="132"/>
-      <c r="AI32" s="133"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="89"/>
+      <c r="F32" s="90"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="92"/>
+      <c r="I32" s="93"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="96"/>
     </row>
     <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="19"/>
-      <c r="B33" s="154"/>
-      <c r="C33" s="152"/>
-      <c r="D33" s="125"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="155"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="156"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="133"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="135"/>
-      <c r="S33" s="135"/>
-      <c r="T33" s="135"/>
-      <c r="U33" s="135"/>
-      <c r="V33" s="135"/>
-      <c r="W33" s="135"/>
-      <c r="X33" s="135"/>
-      <c r="Y33" s="135"/>
-      <c r="Z33" s="135"/>
-      <c r="AA33" s="135"/>
-      <c r="AB33" s="135"/>
-      <c r="AC33" s="135"/>
-      <c r="AD33" s="135"/>
-      <c r="AE33" s="136"/>
-      <c r="AF33" s="156"/>
-      <c r="AG33" s="132"/>
-      <c r="AH33" s="132"/>
-      <c r="AI33" s="133"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="88"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15515,6 +15417,162 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -15671,163 +15729,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="101" t="s">
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
+      <c r="O1" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="102"/>
-      <c r="Q1" s="102"/>
-      <c r="R1" s="103"/>
-      <c r="S1" s="110" t="str">
+      <c r="P1" s="137"/>
+      <c r="Q1" s="137"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="145" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="111"/>
-      <c r="U1" s="111"/>
-      <c r="V1" s="111"/>
-      <c r="W1" s="111"/>
-      <c r="X1" s="111"/>
-      <c r="Y1" s="111"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="161" t="s">
+      <c r="T1" s="146"/>
+      <c r="U1" s="146"/>
+      <c r="V1" s="146"/>
+      <c r="W1" s="146"/>
+      <c r="X1" s="146"/>
+      <c r="Y1" s="146"/>
+      <c r="Z1" s="147"/>
+      <c r="AA1" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="162"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="159"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
-      <c r="O2" s="104"/>
-      <c r="P2" s="105"/>
-      <c r="Q2" s="105"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="113"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="115"/>
-      <c r="AA2" s="161" t="s">
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
+      <c r="O2" s="139"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="141"/>
+      <c r="S2" s="148"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="150"/>
+      <c r="AA2" s="158" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="162"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="159"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="107"/>
-      <c r="P3" s="108"/>
-      <c r="Q3" s="108"/>
-      <c r="R3" s="109"/>
-      <c r="S3" s="116"/>
-      <c r="T3" s="117"/>
-      <c r="U3" s="117"/>
-      <c r="V3" s="117"/>
-      <c r="W3" s="117"/>
-      <c r="X3" s="117"/>
-      <c r="Y3" s="117"/>
-      <c r="Z3" s="118"/>
-      <c r="AA3" s="161"/>
-      <c r="AB3" s="162"/>
-      <c r="AC3" s="119" t="str">
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="143"/>
+      <c r="Q3" s="143"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="151"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="153"/>
+      <c r="AA3" s="158"/>
+      <c r="AB3" s="159"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
@@ -17329,6 +17387,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17338,14 +17404,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -17384,25 +17442,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -17420,23 +17478,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -17450,25 +17508,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -17481,23 +17539,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -17511,25 +17569,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -17542,21 +17600,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -17968,6 +18026,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17977,14 +18043,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -18026,25 +18084,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -18062,23 +18120,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -18092,25 +18150,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -18123,23 +18181,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -18153,25 +18211,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -18184,21 +18242,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -18517,6 +18575,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -18526,14 +18592,6 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -18575,25 +18633,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95" t="str">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="96"/>
-      <c r="L1" s="96"/>
-      <c r="M1" s="96"/>
-      <c r="N1" s="97"/>
+      <c r="F1" s="131"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="132"/>
       <c r="O1" s="163" t="s">
         <v>14</v>
       </c>
@@ -18611,23 +18669,23 @@
       <c r="X1" s="173"/>
       <c r="Y1" s="173"/>
       <c r="Z1" s="174"/>
-      <c r="AA1" s="92" t="s">
+      <c r="AA1" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="94"/>
-      <c r="AC1" s="119" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="120"/>
-      <c r="AE1" s="120"/>
-      <c r="AF1" s="121"/>
-      <c r="AG1" s="158">
+      <c r="AD1" s="155"/>
+      <c r="AE1" s="155"/>
+      <c r="AF1" s="156"/>
+      <c r="AG1" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="159"/>
-      <c r="AI1" s="160"/>
+      <c r="AH1" s="161"/>
+      <c r="AI1" s="162"/>
       <c r="AJ1" s="15"/>
       <c r="AN1" s="9"/>
       <c r="AO1" s="15"/>
@@ -18641,25 +18699,25 @@
       <c r="AW1" s="15"/>
     </row>
     <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="95" t="str">
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="96"/>
-      <c r="G2" s="96"/>
-      <c r="H2" s="96"/>
-      <c r="I2" s="96"/>
-      <c r="J2" s="96"/>
-      <c r="K2" s="96"/>
-      <c r="L2" s="96"/>
-      <c r="M2" s="96"/>
-      <c r="N2" s="97"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="132"/>
       <c r="O2" s="166"/>
       <c r="P2" s="167"/>
       <c r="Q2" s="167"/>
@@ -18672,23 +18730,23 @@
       <c r="X2" s="176"/>
       <c r="Y2" s="176"/>
       <c r="Z2" s="177"/>
-      <c r="AA2" s="92" t="s">
+      <c r="AA2" s="127" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="94"/>
-      <c r="AC2" s="119" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="158">
+      <c r="AD2" s="155"/>
+      <c r="AE2" s="155"/>
+      <c r="AF2" s="156"/>
+      <c r="AG2" s="160">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="160"/>
+      <c r="AH2" s="161"/>
+      <c r="AI2" s="162"/>
       <c r="AJ2" s="15"/>
       <c r="AN2" s="9"/>
       <c r="AO2" s="15"/>
@@ -18702,25 +18760,25 @@
       <c r="AW2" s="15"/>
     </row>
     <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95" t="str">
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="129"/>
+      <c r="E3" s="130" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
-      <c r="K3" s="96"/>
-      <c r="L3" s="96"/>
-      <c r="M3" s="96"/>
-      <c r="N3" s="97"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="132"/>
       <c r="O3" s="169"/>
       <c r="P3" s="170"/>
       <c r="Q3" s="170"/>
@@ -18733,21 +18791,21 @@
       <c r="X3" s="179"/>
       <c r="Y3" s="179"/>
       <c r="Z3" s="180"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="94"/>
-      <c r="AC3" s="119" t="str">
+      <c r="AA3" s="127"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="158" t="str">
+      <c r="AD3" s="155"/>
+      <c r="AE3" s="155"/>
+      <c r="AF3" s="156"/>
+      <c r="AG3" s="160" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="159"/>
-      <c r="AI3" s="160"/>
+      <c r="AH3" s="161"/>
+      <c r="AI3" s="162"/>
       <c r="AJ3" s="11"/>
       <c r="AK3" s="12"/>
       <c r="AL3" s="12"/>
@@ -19159,14 +19217,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -19176,6 +19226,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>

--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6EC861-76D6-4ED2-949C-A0FBDBFCE7B9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C10E228-9576-41E5-9896-607BC95B168B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,18 +11,18 @@
     <sheet name="表紙" sheetId="34" r:id="rId1"/>
     <sheet name="変更履歴" sheetId="35" r:id="rId2"/>
     <sheet name="目次" sheetId="36" r:id="rId3"/>
-    <sheet name="1. ログイン(A101)" sheetId="37" r:id="rId4"/>
+    <sheet name="1. 認証(A101)" sheetId="37" r:id="rId4"/>
     <sheet name="2. プロジェクト管理(A102)" sheetId="38" r:id="rId5"/>
     <sheet name="3. 共通(A103)" sheetId="39" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. ログイン(A101)'!$A$1:$AI$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 認証(A101)'!$A$1:$AI$52</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$70</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'3. 共通(A103)'!$A$1:$AI$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3. 共通(A103)'!$A$1:$AI$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$AI$34</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$37</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. ログイン(A101)'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'1. 認証(A101)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="4">'2. プロジェクト管理(A102)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="5">'3. 共通(A103)'!$1:$4</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">変更履歴!$1:$4</definedName>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="42">
   <si>
     <t>PJ名</t>
   </si>
@@ -192,14 +192,6 @@
     <phoneticPr fontId="28"/>
   </si>
   <si>
-    <t>1. ログイン(A101)</t>
-    <phoneticPr fontId="28"/>
-  </si>
-  <si>
-    <t>1. ログイン(A101)</t>
-    <phoneticPr fontId="28"/>
-  </si>
-  <si>
     <t>2. プロジェクト管理(A102)</t>
     <phoneticPr fontId="28"/>
   </si>
@@ -315,6 +307,13 @@
     <t>プロジェクト管理システム</t>
     <rPh sb="6" eb="8">
       <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="28"/>
+  </si>
+  <si>
+    <t>1. 認証(A101)</t>
+    <rPh sb="3" eb="5">
+      <t>ニンショウ</t>
     </rPh>
     <phoneticPr fontId="28"/>
   </si>
@@ -2080,8 +2079,8 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2098,8 +2097,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2838450" y="1181100"/>
-          <a:ext cx="2486025" cy="1457325"/>
+          <a:off x="904875" y="1038225"/>
+          <a:ext cx="2486025" cy="2066925"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2227,7 +2226,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>ログイン</a:t>
+            <a:t>認証</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2262,7 +2261,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3267075" y="1552575"/>
+          <a:off x="1333500" y="1409700"/>
           <a:ext cx="1104900" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3787,15 +3786,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>241789</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>86204</xdr:rowOff>
+      <xdr:colOff>241788</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>197824</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>89642</xdr:rowOff>
+      <xdr:colOff>197823</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60925</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3812,9 +3811,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm rot="10800000">
-          <a:off x="3304443" y="2320916"/>
-          <a:ext cx="1626573" cy="3438"/>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3254069" y="2406389"/>
+          <a:ext cx="1599098" cy="67"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst>
@@ -3845,8 +3844,8 @@
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>241788</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>117231</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3863,8 +3862,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2294793" y="2143350"/>
-          <a:ext cx="1009649" cy="355131"/>
+          <a:off x="2258158" y="2114958"/>
+          <a:ext cx="995911" cy="582998"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3896,11 +3895,60 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
             </a:rPr>
             <a:t>ログアウト処理</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>WA1010102</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3915,9 +3963,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>67408</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>86205</xdr:rowOff>
+      <xdr:colOff>67409</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>60927</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -3935,8 +3983,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm rot="10800000">
-          <a:off x="1899139" y="2017836"/>
-          <a:ext cx="395654" cy="303081"/>
+          <a:off x="1871664" y="1993107"/>
+          <a:ext cx="386495" cy="413351"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -3957,16 +4005,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>203562</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119906</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>251187</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125859</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>153864</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>63364</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>201489</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>69317</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3983,8 +4031,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1317254" y="2354618"/>
-          <a:ext cx="1063995" cy="236534"/>
+          <a:off x="1072718" y="2471390"/>
+          <a:ext cx="1045677" cy="229208"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4040,71 +4088,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>190478</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>82826</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>198761</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>41412</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="153" name="正方形/長方形 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000099000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5657000" y="3925956"/>
-          <a:ext cx="281609" cy="240195"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="400000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>197823</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>58615</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>93779</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>120669</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4121,8 +4114,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4931015" y="2146788"/>
-          <a:ext cx="1009649" cy="355131"/>
+          <a:off x="4853167" y="2214562"/>
+          <a:ext cx="991331" cy="383656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6782,7 +6775,7 @@
                   <a:latin typeface="ＭＳ 明朝"/>
                   <a:ea typeface="ＭＳ 明朝"/>
                 </a:rPr>
-                <a:t>完了</a:t>
+                <a:t>次へ</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -9291,14 +9284,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9313,7 +9306,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="4419600" y="5191125"/>
+          <a:off x="4419600" y="7639050"/>
           <a:ext cx="4895850" cy="2143125"/>
           <a:chOff x="4143375" y="7905750"/>
           <a:chExt cx="4895850" cy="2152649"/>
@@ -10509,8 +10502,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3094892" y="1041888"/>
-          <a:ext cx="2505808" cy="1497623"/>
+          <a:off x="3070713" y="1030898"/>
+          <a:ext cx="2486025" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10696,16 +10689,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>32238</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>126023</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>49823</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>32238</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>11723</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>146538</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>78398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10722,8 +10715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3094892" y="3533042"/>
-          <a:ext cx="2505808" cy="1497623"/>
+          <a:off x="2917447" y="5379493"/>
+          <a:ext cx="2493818" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -10760,16 +10753,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>41763</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156063</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>11723</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>146539</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>11723</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>260839</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>78398</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10786,8 +10779,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3382840" y="3348404"/>
-          <a:ext cx="1496891" cy="216877"/>
+          <a:off x="3194538" y="5202848"/>
+          <a:ext cx="1485901" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10992,57 +10985,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>162659</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>68874</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>175359</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>77157</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="カギ線コネクタ 122">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38230C97-674E-4CAE-BB69-9EA812E2C523}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="39" idx="3"/>
-          <a:endCxn id="40" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4617428" y="1717432"/>
-          <a:ext cx="12700" cy="2499437"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector3">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 9821740"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>23447</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -11105,143 +11047,11 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>ログインのログアウト処理へ</a:t>
+            <a:t>認証のログアウト処理へ</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15739</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>15610</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>237744</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>99871</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Text Box 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75865201-4D90-4406-92AD-B3632DF21E76}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4748931" y="1517629"/>
-          <a:ext cx="778851" cy="230800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>エラー発生</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>13996</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>67215</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>13996</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>75499</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AE388B7-DE5F-430B-9B01-71B4C5B1C1CE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="38" idx="0"/>
-          <a:endCxn id="37" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="4468765" y="2008850"/>
-          <a:ext cx="0" cy="1913284"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="triangle" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -11302,15 +11112,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>146517</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>75499</xdr:rowOff>
+      <xdr:colOff>1032</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142174</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>154800</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>34085</xdr:rowOff>
+      <xdr:colOff>9315</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>100760</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11325,17 +11135,15 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="4322863" y="3922134"/>
-          <a:ext cx="286706" cy="251663"/>
+          <a:off x="4157396" y="5757594"/>
+          <a:ext cx="285374" cy="244336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:srgbClr val="400000"/>
-          </a:solidFill>
+          <a:noFill/>
           <a:prstDash val="solid"/>
           <a:round/>
           <a:headEnd type="none" w="med" len="med"/>
@@ -11457,180 +11265,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>162658</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>77157</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>162659</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>77156</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="Rectangle 274">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2EE386-0E03-44E3-821C-46CE8ECC9C3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3503735" y="3923792"/>
-          <a:ext cx="1113693" cy="586152"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>汎用エラー【</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>WA1030201</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>】</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>236182</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>115001</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>174667</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>58458</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Text Box 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7014CAE7-AFDD-401A-82C7-F0655446B110}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4134105" y="3668559"/>
-          <a:ext cx="773754" cy="236534"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="ＭＳ 明朝"/>
-              <a:ea typeface="ＭＳ 明朝"/>
-            </a:rPr>
-            <a:t>戻る</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>38102</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -11720,6 +11354,1773 @@
             </a:rPr>
             <a:t>正常時</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633AEDCC-4296-4BBA-A032-3AF3996C6127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="1682850"/>
+          <a:ext cx="3647355" cy="4341570"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>130039</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95473</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>75819</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>36859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E7FB921-6AC3-4382-9243-D650517009F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7035664" y="6143848"/>
+          <a:ext cx="774455" cy="227136"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>エラー発生</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10258</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>118919</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21FB018D-80F3-445D-B900-078B96D2153D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3324958" y="5738670"/>
+          <a:ext cx="1104901" cy="571499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>汎用エラー【</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>WA1030201</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>】</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>7582</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>23414</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>222292</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>109746</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Text Box 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BCD127-6FE6-44DA-BCD1-CEA8C29C12E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2217382" y="6071789"/>
+          <a:ext cx="767160" cy="229207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ログアウト</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39461</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57102</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>60813</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC9A6A45-8EAB-4FAD-9A6C-201368B35581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="5802086"/>
+          <a:ext cx="1104852" cy="449977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ログイン画面へ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝"/>
+            <a:ea typeface="ＭＳ 明朝"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57102</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>10258</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>121575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C921F44-EAB7-4424-A454-2498481CD962}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="1"/>
+          <a:endCxn id="48" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="1990677" y="6024420"/>
+          <a:ext cx="1334281" cy="2655"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9315</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>192232</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>121467</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="50" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FCE027B-A443-4786-845F-992C0BE66CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="38" idx="3"/>
+          <a:endCxn id="91" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4442770" y="1684179"/>
+          <a:ext cx="1568371" cy="4195583"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>129105</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134E37C2-091A-45E4-880F-05B17BCED5CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972337" y="2173605"/>
+          <a:ext cx="1104852" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>プロジェクト検索</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/WA10202</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>136725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C688FCC-CE11-42CE-825B-A00CDEBFFFD3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972313" y="1466850"/>
+          <a:ext cx="1104901" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>プロジェクト登録</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="900">
+            <a:effectLst/>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>/WA10201</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+            <a:ea typeface="ＭＳ 明朝" panose="02020609040205080304" pitchFamily="17" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06106D1B-1100-462E-A340-E1D7041F0BD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="4582259" y="1682850"/>
+          <a:ext cx="2390054" cy="5273"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55980</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="54" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61C40A60-B0AE-4F3C-A9A9-167657833378}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390078" cy="701482"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76776"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>121485</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7692EDE8-AA6A-4756-8C6D-96E084102724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972337" y="2880360"/>
+          <a:ext cx="1104852" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>顧客検索</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>113865</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61B5197A-88BF-481D-BF87-08E59C758B6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972313" y="3587115"/>
+          <a:ext cx="1104901" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>顧客登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>106245</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BEA0F7-D867-404B-91DB-627160B8C252}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972337" y="4293870"/>
+          <a:ext cx="1104852" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>ユーザ別従事プロジェクト抽出指示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>98625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="Rectangle 274">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CF16683-F6D8-456F-99C2-1CF4DBA9EC73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6972313" y="5000625"/>
+          <a:ext cx="1104901" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1100"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>プロジェクト一括登録</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48360</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70437B3A-1D6C-4172-A3FB-BE41F0BE114E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390078" cy="1408237"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76663"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40740</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A35C0245-4DEF-45C0-89C4-E26F35F6217F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390054" cy="2114992"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76558"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66712</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47CBCCF2-04A0-4F2D-99AB-4300A4438419}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390078" cy="2821747"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76701"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>162659</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>68873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66688</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="63" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D65CC89-1076-43B2-A678-9117672C7103}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="39" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4582259" y="1688123"/>
+          <a:ext cx="2390054" cy="3528502"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76701"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>55980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7689634-850D-4060-AE40-E8B18A8CDD48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="2389605"/>
+          <a:ext cx="3647330" cy="3634815"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>48360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="77" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8475C4C2-A315-449C-B3E3-F081DA3F92F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="3096360"/>
+          <a:ext cx="3647330" cy="2928060"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>40740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{328017C9-6A9A-48F3-A52A-E8A5B655E717}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="3803115"/>
+          <a:ext cx="3647355" cy="2221305"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>33120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66664</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1404C43B-EE63-4412-945F-F1537680FD8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4443714" y="4505540"/>
+          <a:ext cx="3658586" cy="1514550"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6248"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>182707</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>40684</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>201757</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>69259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="正方形/長方形 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2ABFEC9D-168D-415E-8FB7-05DFAE1AA84A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5724525" y="1369854"/>
+          <a:ext cx="573232" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>10259</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>25500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>66689</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118920</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="カギ線コネクタ 122">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94D0C665-1878-40FC-9EC0-417147237E88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="44" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="4429859" y="5216625"/>
+          <a:ext cx="3647355" cy="807795"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -6268"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>109903</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>195628</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>60814</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="108" name="AutoShape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D64C863E-687A-403D-A3C4-AE92BE2D5355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9854711" y="2476500"/>
+          <a:ext cx="1477840" cy="698256"/>
+        </a:xfrm>
+        <a:prstGeom prst="borderCallout1">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 58899"/>
+            <a:gd name="adj2" fmla="val -2387"/>
+            <a:gd name="adj3" fmla="val 120000"/>
+            <a:gd name="adj4" fmla="val -57093"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>グレーアウト箇所は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>2022</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>年</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ 明朝"/>
+              <a:ea typeface="ＭＳ 明朝"/>
+            </a:rPr>
+            <a:t>月版では未実装</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DA04C6C-0D69-4E01-9994-CB60E924B0C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6286501" y="2724150"/>
+          <a:ext cx="2628900" cy="2828925"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 3742"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="25400" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="0000FF"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12079,9 +13480,7 @@
   </sheetPr>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12125,7 +13524,7 @@
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
       <c r="J23" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -12860,7 +14259,7 @@
       <c r="C3" s="128"/>
       <c r="D3" s="129"/>
       <c r="E3" s="157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F3" s="131"/>
       <c r="G3" s="131"/>
@@ -13040,12 +14439,12 @@
       <c r="E9" s="89"/>
       <c r="F9" s="90"/>
       <c r="G9" s="106" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="92"/>
       <c r="I9" s="93"/>
       <c r="J9" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K9" s="95"/>
       <c r="L9" s="95"/>
@@ -13054,7 +14453,7 @@
       <c r="O9" s="95"/>
       <c r="P9" s="96"/>
       <c r="Q9" s="103" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="R9" s="98"/>
       <c r="S9" s="98"/>
@@ -13071,7 +14470,7 @@
       <c r="AD9" s="98"/>
       <c r="AE9" s="99"/>
       <c r="AF9" s="102" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AG9" s="95"/>
       <c r="AH9" s="95"/>
@@ -13082,7 +14481,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="100" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="87"/>
       <c r="D10" s="88">
@@ -13096,7 +14495,7 @@
       <c r="H10" s="92"/>
       <c r="I10" s="93"/>
       <c r="J10" s="102" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K10" s="95"/>
       <c r="L10" s="95"/>
@@ -13105,7 +14504,7 @@
       <c r="O10" s="95"/>
       <c r="P10" s="96"/>
       <c r="Q10" s="103" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R10" s="98"/>
       <c r="S10" s="98"/>
@@ -13133,7 +14532,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C11" s="87"/>
       <c r="D11" s="88">
@@ -13147,7 +14546,7 @@
       <c r="H11" s="92"/>
       <c r="I11" s="93"/>
       <c r="J11" s="103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K11" s="95"/>
       <c r="L11" s="95"/>
@@ -13156,7 +14555,7 @@
       <c r="O11" s="95"/>
       <c r="P11" s="96"/>
       <c r="Q11" s="103" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="R11" s="98"/>
       <c r="S11" s="98"/>
@@ -14191,7 +15590,7 @@
   <dimension ref="A1:AL53"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14607,7 +16006,7 @@
     <row r="7" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="67"/>
       <c r="B7" s="65" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="C7" s="70"/>
       <c r="D7" s="70"/>
@@ -14758,7 +16157,7 @@
     <row r="11" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="67"/>
       <c r="B11" s="65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C11" s="70"/>
       <c r="D11" s="67"/>
@@ -16022,7 +17421,7 @@
   <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y14" sqref="Y14"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -16285,7 +17684,7 @@
     </row>
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="65" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
@@ -16664,7 +18063,7 @@
   <dimension ref="A1:AX33"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="AO29" sqref="AO29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -16927,7 +18326,7 @@
     </row>
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="65" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
@@ -17213,7 +18612,7 @@
   <dimension ref="A1:AX35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -17476,7 +18875,7 @@
     </row>
     <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.15">
@@ -17827,14 +19226,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -17843,6 +19242,9 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="52" max="34" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
+++ b/サンプルプロジェクト/設計書/A1_プロジェクト管理システム/010_要件定義/040_画面設計/画面遷移図_A1_プロジェクト管理システム.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C10E228-9576-41E5-9896-607BC95B168B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66EE204-041F-481B-B223-C0C26595CCA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="34" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="3. 共通(A103)" sheetId="39" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 認証(A101)'!$A$1:$AI$52</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1. 認証(A101)'!$A$1:$AI$51</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'2. プロジェクト管理(A102)'!$A$1:$AI$70</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3. 共通(A103)'!$A$1:$AI$73</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$S$39</definedName>
@@ -33,7 +33,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1156,16 +1161,13 @@
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="41" applyFont="1"/>
@@ -1173,46 +1175,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="41" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1224,133 +1221,191 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="41" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1"/>
     <xf numFmtId="31" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1362,7 +1417,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1371,7 +1426,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1380,7 +1435,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1389,28 +1444,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="179" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1452,122 +1486,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="11" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="45" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="11" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="10" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="11" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="12" xfId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1577,6 +1515,12 @@
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="10" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="12" xfId="41" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1590,7 +1534,7 @@
     <xf numFmtId="0" fontId="30" fillId="24" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" xfId="41" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="24" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1605,31 +1549,31 @@
     <xf numFmtId="0" fontId="30" fillId="24" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="41" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4318,7 +4262,6 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -12878,7 +12821,6 @@
           <a:tailEnd type="triangle" w="med" len="med"/>
         </a:ln>
         <a:effectLst/>
-        <a:extLst/>
       </xdr:spPr>
       <xdr:txBody>
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="18000" tIns="7200" rIns="18000" bIns="7200" rtlCol="0" anchor="ctr" upright="1"/>
@@ -13484,17 +13426,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="9" width="8.83203125" style="24"/>
-    <col min="10" max="10" width="16.33203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="24"/>
+    <col min="1" max="9" width="8.83203125" style="18"/>
+    <col min="10" max="10" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
+      <c r="A2" s="21"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13516,125 +13458,125 @@
     <row r="20" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="21" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="F22" s="22"/>
+      <c r="H22" s="22"/>
     </row>
     <row r="23" spans="6:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="J23" s="6" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="J23" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
     </row>
     <row r="25" spans="6:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="85">
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="52">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v>44796</v>
       </c>
-      <c r="J25" s="85"/>
-      <c r="K25" s="85"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
     </row>
     <row r="26" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
     </row>
     <row r="27" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
     </row>
     <row r="28" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F28" s="29"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
     </row>
     <row r="29" spans="6:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F29" s="28"/>
-      <c r="H29" s="28"/>
+      <c r="F29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="6:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F30" s="28"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="28"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="22"/>
     </row>
     <row r="31" spans="6:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F31" s="28"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="28"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="22"/>
     </row>
     <row r="32" spans="6:11" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="F32" s="28"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="28"/>
-      <c r="J32" s="31"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="22"/>
+      <c r="J32" s="25"/>
     </row>
     <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="F33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="J33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
+      <c r="F33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="J33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
     </row>
     <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="F34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="J34" s="31"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="34"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
+      <c r="F34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="J34" s="25"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="27"/>
+      <c r="R34" s="28"/>
+      <c r="S34" s="28"/>
     </row>
     <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="28"/>
+      <c r="R35" s="28"/>
+      <c r="S35" s="28"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O36" s="36"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="36"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="36"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="28"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="28"/>
+      <c r="S36" s="29"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O37" s="37"/>
-      <c r="P37" s="37"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="38"/>
-      <c r="S37" s="37"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="30"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O38" s="37"/>
-      <c r="P38" s="37"/>
-      <c r="Q38" s="38"/>
-      <c r="R38" s="38"/>
-      <c r="S38" s="38"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="31"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O39" s="37"/>
-      <c r="P39" s="37"/>
-      <c r="Q39" s="38"/>
-      <c r="R39" s="38"/>
-      <c r="S39" s="38"/>
+      <c r="O39" s="30"/>
+      <c r="P39" s="30"/>
+      <c r="Q39" s="31"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14117,7 +14059,7 @@
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="98" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -14136,61 +14078,61 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="4.83203125" style="7"/>
+    <col min="1" max="16384" width="4.83203125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="s">
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="127" t="s">
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="86" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="121">
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="53">
         <f>IF(D8="","",D8)</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="122"/>
-      <c r="AI1" s="123"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="55"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
@@ -14198,53 +14140,53 @@
       <c r="AN1" s="2"/>
     </row>
     <row r="2" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="127" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="133" t="str">
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="65" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="134"/>
-      <c r="AE2" s="134"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="121">
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="53">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="122"/>
-      <c r="AI2" s="123"/>
+      <c r="AH2" s="54"/>
+      <c r="AI2" s="55"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
@@ -14252,1148 +14194,1304 @@
       <c r="AN2" s="1"/>
     </row>
     <row r="3" spans="1:40" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="157" t="s">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="89" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154"/>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="122"/>
-      <c r="AI3" s="123"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="86"/>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="55"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
       <c r="AN3" s="1"/>
     </row>
-    <row r="5" spans="1:40" s="4" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="N5" s="5" t="s">
+    <row r="5" spans="1:40" s="3" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="21"/>
-      <c r="AG5" s="23"/>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="14"/>
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="17"/>
+      <c r="AH5" s="17"/>
+      <c r="AI5" s="17"/>
     </row>
-    <row r="6" spans="1:40" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="N6" s="84"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="20"/>
-      <c r="AD6" s="21"/>
-      <c r="AE6" s="21"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="23"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="23"/>
+    <row r="6" spans="1:40" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N6" s="1"/>
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="17"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="17"/>
+      <c r="AH6" s="17"/>
+      <c r="AI6" s="17"/>
     </row>
-    <row r="7" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="124" t="s">
+      <c r="C7" s="57"/>
+      <c r="D7" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="126"/>
-      <c r="F7" s="125"/>
-      <c r="G7" s="124" t="s">
+      <c r="E7" s="58"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="126"/>
-      <c r="I7" s="125"/>
-      <c r="J7" s="124" t="s">
+      <c r="H7" s="58"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="126"/>
-      <c r="L7" s="126"/>
-      <c r="M7" s="126"/>
-      <c r="N7" s="126"/>
-      <c r="O7" s="126"/>
-      <c r="P7" s="125"/>
-      <c r="Q7" s="124" t="s">
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="R7" s="126"/>
-      <c r="S7" s="126"/>
-      <c r="T7" s="126"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="126"/>
-      <c r="W7" s="126"/>
-      <c r="X7" s="126"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="126"/>
-      <c r="AC7" s="126"/>
-      <c r="AD7" s="126"/>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="124" t="s">
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="58"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="58"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="58"/>
+      <c r="AE7" s="57"/>
+      <c r="AF7" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="125"/>
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="57"/>
     </row>
-    <row r="8" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="22">
+    <row r="8" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="107">
+      <c r="B8" s="104">
         <v>1</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="109">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106">
         <v>43595</v>
       </c>
-      <c r="E8" s="110"/>
-      <c r="F8" s="111"/>
-      <c r="G8" s="112" t="s">
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="113"/>
-      <c r="I8" s="114"/>
-      <c r="J8" s="115" t="s">
+      <c r="H8" s="110"/>
+      <c r="I8" s="111"/>
+      <c r="J8" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="116"/>
-      <c r="L8" s="116"/>
-      <c r="M8" s="116"/>
-      <c r="N8" s="116"/>
-      <c r="O8" s="116"/>
-      <c r="P8" s="117"/>
-      <c r="Q8" s="118" t="s">
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="114"/>
+      <c r="Q8" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="R8" s="119"/>
-      <c r="S8" s="119"/>
-      <c r="T8" s="119"/>
-      <c r="U8" s="119"/>
-      <c r="V8" s="119"/>
-      <c r="W8" s="119"/>
-      <c r="X8" s="119"/>
-      <c r="Y8" s="119"/>
-      <c r="Z8" s="119"/>
-      <c r="AA8" s="119"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="119"/>
-      <c r="AD8" s="119"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="115" t="s">
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="117"/>
+      <c r="AF8" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="116"/>
-      <c r="AI8" s="117"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="114"/>
     </row>
-    <row r="9" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="19">
+    <row r="9" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" s="104">
+      <c r="B9" s="90">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="88">
+      <c r="C9" s="91"/>
+      <c r="D9" s="92">
         <v>43803</v>
       </c>
-      <c r="E9" s="89"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="106" t="s">
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="92"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="102" t="s">
+      <c r="H9" s="96"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="95"/>
-      <c r="L9" s="95"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="95"/>
-      <c r="P9" s="96"/>
-      <c r="Q9" s="103" t="s">
+      <c r="K9" s="99"/>
+      <c r="L9" s="99"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="101" t="s">
         <v>31</v>
       </c>
-      <c r="R9" s="98"/>
-      <c r="S9" s="98"/>
-      <c r="T9" s="98"/>
-      <c r="U9" s="98"/>
-      <c r="V9" s="98"/>
-      <c r="W9" s="98"/>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="98"/>
-      <c r="Z9" s="98"/>
-      <c r="AA9" s="98"/>
-      <c r="AB9" s="98"/>
-      <c r="AC9" s="98"/>
-      <c r="AD9" s="98"/>
-      <c r="AE9" s="99"/>
-      <c r="AF9" s="102" t="s">
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="102"/>
+      <c r="W9" s="102"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="102"/>
+      <c r="AD9" s="102"/>
+      <c r="AE9" s="103"/>
+      <c r="AF9" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="AG9" s="95"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="96"/>
+      <c r="AG9" s="99"/>
+      <c r="AH9" s="99"/>
+      <c r="AI9" s="100"/>
     </row>
-    <row r="10" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="22">
+    <row r="10" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="16">
         <v>3</v>
       </c>
-      <c r="B10" s="100" t="s">
+      <c r="B10" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="88">
+      <c r="C10" s="119"/>
+      <c r="D10" s="92">
         <v>43895</v>
       </c>
-      <c r="E10" s="89"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="101" t="s">
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="92"/>
-      <c r="I10" s="93"/>
-      <c r="J10" s="102" t="s">
+      <c r="H10" s="96"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="95"/>
-      <c r="L10" s="95"/>
-      <c r="M10" s="95"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="103" t="s">
+      <c r="K10" s="99"/>
+      <c r="L10" s="99"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="100"/>
+      <c r="Q10" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="99"/>
-      <c r="AF10" s="102" t="s">
+      <c r="R10" s="102"/>
+      <c r="S10" s="102"/>
+      <c r="T10" s="102"/>
+      <c r="U10" s="102"/>
+      <c r="V10" s="102"/>
+      <c r="W10" s="102"/>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="102"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="102"/>
+      <c r="AC10" s="102"/>
+      <c r="AD10" s="102"/>
+      <c r="AE10" s="103"/>
+      <c r="AF10" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="96"/>
+      <c r="AG10" s="99"/>
+      <c r="AH10" s="99"/>
+      <c r="AI10" s="100"/>
     </row>
-    <row r="11" spans="1:40" s="18" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="22">
+    <row r="11" spans="1:40" s="12" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="16">
         <v>4</v>
       </c>
-      <c r="B11" s="100" t="s">
+      <c r="B11" s="118" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="87"/>
-      <c r="D11" s="88">
+      <c r="C11" s="119"/>
+      <c r="D11" s="92">
         <v>44796</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="101" t="s">
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="92"/>
-      <c r="I11" s="93"/>
-      <c r="J11" s="103" t="s">
+      <c r="H11" s="96"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="K11" s="95"/>
-      <c r="L11" s="95"/>
-      <c r="M11" s="95"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="95"/>
-      <c r="P11" s="96"/>
-      <c r="Q11" s="103" t="s">
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="R11" s="98"/>
-      <c r="S11" s="98"/>
-      <c r="T11" s="98"/>
-      <c r="U11" s="98"/>
-      <c r="V11" s="98"/>
-      <c r="W11" s="98"/>
-      <c r="X11" s="98"/>
-      <c r="Y11" s="98"/>
-      <c r="Z11" s="98"/>
-      <c r="AA11" s="98"/>
-      <c r="AB11" s="98"/>
-      <c r="AC11" s="98"/>
-      <c r="AD11" s="98"/>
-      <c r="AE11" s="99"/>
-      <c r="AF11" s="102" t="s">
+      <c r="R11" s="102"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="102"/>
+      <c r="U11" s="102"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="102"/>
+      <c r="X11" s="102"/>
+      <c r="Y11" s="102"/>
+      <c r="Z11" s="102"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="102"/>
+      <c r="AC11" s="102"/>
+      <c r="AD11" s="102"/>
+      <c r="AE11" s="103"/>
+      <c r="AF11" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="AG11" s="95"/>
-      <c r="AH11" s="95"/>
-      <c r="AI11" s="96"/>
+      <c r="AG11" s="99"/>
+      <c r="AH11" s="99"/>
+      <c r="AI11" s="100"/>
     </row>
-    <row r="12" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="22"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="87"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="95"/>
-      <c r="L12" s="95"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="96"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="98"/>
-      <c r="S12" s="98"/>
-      <c r="T12" s="98"/>
-      <c r="U12" s="98"/>
-      <c r="V12" s="98"/>
-      <c r="W12" s="98"/>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="98"/>
-      <c r="Z12" s="98"/>
-      <c r="AA12" s="98"/>
-      <c r="AB12" s="98"/>
-      <c r="AC12" s="98"/>
-      <c r="AD12" s="98"/>
-      <c r="AE12" s="99"/>
-      <c r="AF12" s="102"/>
-      <c r="AG12" s="95"/>
-      <c r="AH12" s="95"/>
-      <c r="AI12" s="96"/>
+    <row r="12" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="16"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="96"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="99"/>
+      <c r="L12" s="99"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="100"/>
+      <c r="Q12" s="101"/>
+      <c r="R12" s="102"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="102"/>
+      <c r="U12" s="102"/>
+      <c r="V12" s="102"/>
+      <c r="W12" s="102"/>
+      <c r="X12" s="102"/>
+      <c r="Y12" s="102"/>
+      <c r="Z12" s="102"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="102"/>
+      <c r="AC12" s="102"/>
+      <c r="AD12" s="102"/>
+      <c r="AE12" s="103"/>
+      <c r="AF12" s="98"/>
+      <c r="AG12" s="99"/>
+      <c r="AH12" s="99"/>
+      <c r="AI12" s="100"/>
     </row>
-    <row r="13" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="19"/>
-      <c r="B13" s="86"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="91"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="93"/>
-      <c r="J13" s="94"/>
-      <c r="K13" s="95"/>
-      <c r="L13" s="95"/>
-      <c r="M13" s="95"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="95"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="97"/>
-      <c r="R13" s="98"/>
-      <c r="S13" s="98"/>
-      <c r="T13" s="98"/>
-      <c r="U13" s="98"/>
-      <c r="V13" s="98"/>
-      <c r="W13" s="98"/>
-      <c r="X13" s="98"/>
-      <c r="Y13" s="98"/>
-      <c r="Z13" s="98"/>
-      <c r="AA13" s="98"/>
-      <c r="AB13" s="98"/>
-      <c r="AC13" s="98"/>
-      <c r="AD13" s="98"/>
-      <c r="AE13" s="99"/>
-      <c r="AF13" s="94"/>
-      <c r="AG13" s="95"/>
-      <c r="AH13" s="95"/>
-      <c r="AI13" s="96"/>
+    <row r="13" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13"/>
+      <c r="B13" s="121"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="96"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="99"/>
+      <c r="L13" s="99"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="100"/>
+      <c r="Q13" s="124"/>
+      <c r="R13" s="102"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="102"/>
+      <c r="U13" s="102"/>
+      <c r="V13" s="102"/>
+      <c r="W13" s="102"/>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="102"/>
+      <c r="Z13" s="102"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="102"/>
+      <c r="AD13" s="102"/>
+      <c r="AE13" s="103"/>
+      <c r="AF13" s="123"/>
+      <c r="AG13" s="99"/>
+      <c r="AH13" s="99"/>
+      <c r="AI13" s="100"/>
     </row>
-    <row r="14" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="19"/>
-      <c r="B14" s="86"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="92"/>
-      <c r="I14" s="93"/>
-      <c r="J14" s="94"/>
-      <c r="K14" s="95"/>
-      <c r="L14" s="95"/>
-      <c r="M14" s="95"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="95"/>
-      <c r="P14" s="96"/>
-      <c r="Q14" s="97"/>
-      <c r="R14" s="98"/>
-      <c r="S14" s="98"/>
-      <c r="T14" s="98"/>
-      <c r="U14" s="98"/>
-      <c r="V14" s="98"/>
-      <c r="W14" s="98"/>
-      <c r="X14" s="98"/>
-      <c r="Y14" s="98"/>
-      <c r="Z14" s="98"/>
-      <c r="AA14" s="98"/>
-      <c r="AB14" s="98"/>
-      <c r="AC14" s="98"/>
-      <c r="AD14" s="98"/>
-      <c r="AE14" s="99"/>
-      <c r="AF14" s="94"/>
-      <c r="AG14" s="95"/>
-      <c r="AH14" s="95"/>
-      <c r="AI14" s="96"/>
+    <row r="14" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="13"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="96"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="99"/>
+      <c r="L14" s="99"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="99"/>
+      <c r="P14" s="100"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="102"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="102"/>
+      <c r="U14" s="102"/>
+      <c r="V14" s="102"/>
+      <c r="W14" s="102"/>
+      <c r="X14" s="102"/>
+      <c r="Y14" s="102"/>
+      <c r="Z14" s="102"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="102"/>
+      <c r="AC14" s="102"/>
+      <c r="AD14" s="102"/>
+      <c r="AE14" s="103"/>
+      <c r="AF14" s="123"/>
+      <c r="AG14" s="99"/>
+      <c r="AH14" s="99"/>
+      <c r="AI14" s="100"/>
     </row>
-    <row r="15" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="19"/>
-      <c r="B15" s="86"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="94"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95"/>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="97"/>
-      <c r="R15" s="98"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="98"/>
-      <c r="U15" s="98"/>
-      <c r="V15" s="98"/>
-      <c r="W15" s="98"/>
-      <c r="X15" s="98"/>
-      <c r="Y15" s="98"/>
-      <c r="Z15" s="98"/>
-      <c r="AA15" s="98"/>
-      <c r="AB15" s="98"/>
-      <c r="AC15" s="98"/>
-      <c r="AD15" s="98"/>
-      <c r="AE15" s="99"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="96"/>
+    <row r="15" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="96"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="123"/>
+      <c r="K15" s="99"/>
+      <c r="L15" s="99"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="100"/>
+      <c r="Q15" s="124"/>
+      <c r="R15" s="102"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="102"/>
+      <c r="U15" s="102"/>
+      <c r="V15" s="102"/>
+      <c r="W15" s="102"/>
+      <c r="X15" s="102"/>
+      <c r="Y15" s="102"/>
+      <c r="Z15" s="102"/>
+      <c r="AA15" s="102"/>
+      <c r="AB15" s="102"/>
+      <c r="AC15" s="102"/>
+      <c r="AD15" s="102"/>
+      <c r="AE15" s="103"/>
+      <c r="AF15" s="123"/>
+      <c r="AG15" s="99"/>
+      <c r="AH15" s="99"/>
+      <c r="AI15" s="100"/>
     </row>
-    <row r="16" spans="1:40" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="19"/>
-      <c r="B16" s="86"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="89"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="92"/>
-      <c r="I16" s="93"/>
-      <c r="J16" s="94"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="96"/>
-      <c r="Q16" s="97"/>
-      <c r="R16" s="98"/>
-      <c r="S16" s="98"/>
-      <c r="T16" s="98"/>
-      <c r="U16" s="98"/>
-      <c r="V16" s="98"/>
-      <c r="W16" s="98"/>
-      <c r="X16" s="98"/>
-      <c r="Y16" s="98"/>
-      <c r="Z16" s="98"/>
-      <c r="AA16" s="98"/>
-      <c r="AB16" s="98"/>
-      <c r="AC16" s="98"/>
-      <c r="AD16" s="98"/>
-      <c r="AE16" s="99"/>
-      <c r="AF16" s="94"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="96"/>
+    <row r="16" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="121"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="123"/>
+      <c r="K16" s="99"/>
+      <c r="L16" s="99"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="100"/>
+      <c r="Q16" s="124"/>
+      <c r="R16" s="102"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="102"/>
+      <c r="U16" s="102"/>
+      <c r="V16" s="102"/>
+      <c r="W16" s="102"/>
+      <c r="X16" s="102"/>
+      <c r="Y16" s="102"/>
+      <c r="Z16" s="102"/>
+      <c r="AA16" s="102"/>
+      <c r="AB16" s="102"/>
+      <c r="AC16" s="102"/>
+      <c r="AD16" s="102"/>
+      <c r="AE16" s="103"/>
+      <c r="AF16" s="123"/>
+      <c r="AG16" s="99"/>
+      <c r="AH16" s="99"/>
+      <c r="AI16" s="100"/>
     </row>
-    <row r="17" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="19"/>
-      <c r="B17" s="86"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="89"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="94"/>
-      <c r="K17" s="95"/>
-      <c r="L17" s="95"/>
-      <c r="M17" s="95"/>
-      <c r="N17" s="95"/>
-      <c r="O17" s="95"/>
-      <c r="P17" s="96"/>
-      <c r="Q17" s="97"/>
-      <c r="R17" s="98"/>
-      <c r="S17" s="98"/>
-      <c r="T17" s="98"/>
-      <c r="U17" s="98"/>
-      <c r="V17" s="98"/>
-      <c r="W17" s="98"/>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="98"/>
-      <c r="Z17" s="98"/>
-      <c r="AA17" s="98"/>
-      <c r="AB17" s="98"/>
-      <c r="AC17" s="98"/>
-      <c r="AD17" s="98"/>
-      <c r="AE17" s="99"/>
-      <c r="AF17" s="94"/>
-      <c r="AG17" s="95"/>
-      <c r="AH17" s="95"/>
-      <c r="AI17" s="96"/>
+    <row r="17" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="121"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="123"/>
+      <c r="K17" s="99"/>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="100"/>
+      <c r="Q17" s="124"/>
+      <c r="R17" s="102"/>
+      <c r="S17" s="102"/>
+      <c r="T17" s="102"/>
+      <c r="U17" s="102"/>
+      <c r="V17" s="102"/>
+      <c r="W17" s="102"/>
+      <c r="X17" s="102"/>
+      <c r="Y17" s="102"/>
+      <c r="Z17" s="102"/>
+      <c r="AA17" s="102"/>
+      <c r="AB17" s="102"/>
+      <c r="AC17" s="102"/>
+      <c r="AD17" s="102"/>
+      <c r="AE17" s="103"/>
+      <c r="AF17" s="123"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="99"/>
+      <c r="AI17" s="100"/>
     </row>
-    <row r="18" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="19"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="89"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="91"/>
-      <c r="H18" s="92"/>
-      <c r="I18" s="93"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="95"/>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
-      <c r="N18" s="95"/>
-      <c r="O18" s="95"/>
-      <c r="P18" s="96"/>
-      <c r="Q18" s="97"/>
-      <c r="R18" s="98"/>
-      <c r="S18" s="98"/>
-      <c r="T18" s="98"/>
-      <c r="U18" s="98"/>
-      <c r="V18" s="98"/>
-      <c r="W18" s="98"/>
-      <c r="X18" s="98"/>
-      <c r="Y18" s="98"/>
-      <c r="Z18" s="98"/>
-      <c r="AA18" s="98"/>
-      <c r="AB18" s="98"/>
-      <c r="AC18" s="98"/>
-      <c r="AD18" s="98"/>
-      <c r="AE18" s="99"/>
-      <c r="AF18" s="94"/>
-      <c r="AG18" s="95"/>
-      <c r="AH18" s="95"/>
-      <c r="AI18" s="96"/>
+    <row r="18" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="121"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="123"/>
+      <c r="K18" s="99"/>
+      <c r="L18" s="99"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="124"/>
+      <c r="R18" s="102"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="102"/>
+      <c r="U18" s="102"/>
+      <c r="V18" s="102"/>
+      <c r="W18" s="102"/>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="102"/>
+      <c r="Z18" s="102"/>
+      <c r="AA18" s="102"/>
+      <c r="AB18" s="102"/>
+      <c r="AC18" s="102"/>
+      <c r="AD18" s="102"/>
+      <c r="AE18" s="103"/>
+      <c r="AF18" s="123"/>
+      <c r="AG18" s="99"/>
+      <c r="AH18" s="99"/>
+      <c r="AI18" s="100"/>
     </row>
-    <row r="19" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="19"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="92"/>
-      <c r="I19" s="93"/>
-      <c r="J19" s="94"/>
-      <c r="K19" s="95"/>
-      <c r="L19" s="95"/>
-      <c r="M19" s="95"/>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="97"/>
-      <c r="R19" s="98"/>
-      <c r="S19" s="98"/>
-      <c r="T19" s="98"/>
-      <c r="U19" s="98"/>
-      <c r="V19" s="98"/>
-      <c r="W19" s="98"/>
-      <c r="X19" s="98"/>
-      <c r="Y19" s="98"/>
-      <c r="Z19" s="98"/>
-      <c r="AA19" s="98"/>
-      <c r="AB19" s="98"/>
-      <c r="AC19" s="98"/>
-      <c r="AD19" s="98"/>
-      <c r="AE19" s="99"/>
-      <c r="AF19" s="94"/>
-      <c r="AG19" s="95"/>
-      <c r="AH19" s="95"/>
-      <c r="AI19" s="96"/>
+    <row r="19" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="121"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="123"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="124"/>
+      <c r="R19" s="102"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="102"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="102"/>
+      <c r="W19" s="102"/>
+      <c r="X19" s="102"/>
+      <c r="Y19" s="102"/>
+      <c r="Z19" s="102"/>
+      <c r="AA19" s="102"/>
+      <c r="AB19" s="102"/>
+      <c r="AC19" s="102"/>
+      <c r="AD19" s="102"/>
+      <c r="AE19" s="103"/>
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="99"/>
+      <c r="AH19" s="99"/>
+      <c r="AI19" s="100"/>
     </row>
-    <row r="20" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="19"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="89"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="91"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="94"/>
-      <c r="K20" s="95"/>
-      <c r="L20" s="95"/>
-      <c r="M20" s="95"/>
-      <c r="N20" s="95"/>
-      <c r="O20" s="95"/>
-      <c r="P20" s="96"/>
-      <c r="Q20" s="97"/>
-      <c r="R20" s="98"/>
-      <c r="S20" s="98"/>
-      <c r="T20" s="98"/>
-      <c r="U20" s="98"/>
-      <c r="V20" s="98"/>
-      <c r="W20" s="98"/>
-      <c r="X20" s="98"/>
-      <c r="Y20" s="98"/>
-      <c r="Z20" s="98"/>
-      <c r="AA20" s="98"/>
-      <c r="AB20" s="98"/>
-      <c r="AC20" s="98"/>
-      <c r="AD20" s="98"/>
-      <c r="AE20" s="99"/>
-      <c r="AF20" s="94"/>
-      <c r="AG20" s="95"/>
-      <c r="AH20" s="95"/>
-      <c r="AI20" s="96"/>
+    <row r="20" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="121"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="123"/>
+      <c r="K20" s="99"/>
+      <c r="L20" s="99"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="124"/>
+      <c r="R20" s="102"/>
+      <c r="S20" s="102"/>
+      <c r="T20" s="102"/>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="102"/>
+      <c r="X20" s="102"/>
+      <c r="Y20" s="102"/>
+      <c r="Z20" s="102"/>
+      <c r="AA20" s="102"/>
+      <c r="AB20" s="102"/>
+      <c r="AC20" s="102"/>
+      <c r="AD20" s="102"/>
+      <c r="AE20" s="103"/>
+      <c r="AF20" s="123"/>
+      <c r="AG20" s="99"/>
+      <c r="AH20" s="99"/>
+      <c r="AI20" s="100"/>
     </row>
-    <row r="21" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="19"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="88"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="91"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
-      <c r="J21" s="94"/>
-      <c r="K21" s="95"/>
-      <c r="L21" s="95"/>
-      <c r="M21" s="95"/>
-      <c r="N21" s="95"/>
-      <c r="O21" s="95"/>
-      <c r="P21" s="96"/>
-      <c r="Q21" s="97"/>
-      <c r="R21" s="98"/>
-      <c r="S21" s="98"/>
-      <c r="T21" s="98"/>
-      <c r="U21" s="98"/>
-      <c r="V21" s="98"/>
-      <c r="W21" s="98"/>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="98"/>
-      <c r="Z21" s="98"/>
-      <c r="AA21" s="98"/>
-      <c r="AB21" s="98"/>
-      <c r="AC21" s="98"/>
-      <c r="AD21" s="98"/>
-      <c r="AE21" s="99"/>
-      <c r="AF21" s="94"/>
-      <c r="AG21" s="95"/>
-      <c r="AH21" s="95"/>
-      <c r="AI21" s="96"/>
+    <row r="21" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="94"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="123"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="99"/>
+      <c r="P21" s="100"/>
+      <c r="Q21" s="124"/>
+      <c r="R21" s="102"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102"/>
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102"/>
+      <c r="AE21" s="103"/>
+      <c r="AF21" s="123"/>
+      <c r="AG21" s="99"/>
+      <c r="AH21" s="99"/>
+      <c r="AI21" s="100"/>
     </row>
-    <row r="22" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="19"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="88"/>
-      <c r="E22" s="89"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="91"/>
-      <c r="H22" s="92"/>
-      <c r="I22" s="93"/>
-      <c r="J22" s="94"/>
-      <c r="K22" s="95"/>
-      <c r="L22" s="95"/>
-      <c r="M22" s="95"/>
-      <c r="N22" s="95"/>
-      <c r="O22" s="95"/>
-      <c r="P22" s="96"/>
-      <c r="Q22" s="97"/>
-      <c r="R22" s="98"/>
-      <c r="S22" s="98"/>
-      <c r="T22" s="98"/>
-      <c r="U22" s="98"/>
-      <c r="V22" s="98"/>
-      <c r="W22" s="98"/>
-      <c r="X22" s="98"/>
-      <c r="Y22" s="98"/>
-      <c r="Z22" s="98"/>
-      <c r="AA22" s="98"/>
-      <c r="AB22" s="98"/>
-      <c r="AC22" s="98"/>
-      <c r="AD22" s="98"/>
-      <c r="AE22" s="99"/>
-      <c r="AF22" s="94"/>
-      <c r="AG22" s="95"/>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="96"/>
+    <row r="22" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
+      <c r="G22" s="122"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="124"/>
+      <c r="R22" s="102"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="102"/>
+      <c r="AD22" s="102"/>
+      <c r="AE22" s="103"/>
+      <c r="AF22" s="123"/>
+      <c r="AG22" s="99"/>
+      <c r="AH22" s="99"/>
+      <c r="AI22" s="100"/>
     </row>
-    <row r="23" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="19"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="89"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="91"/>
-      <c r="H23" s="92"/>
-      <c r="I23" s="93"/>
-      <c r="J23" s="94"/>
-      <c r="K23" s="95"/>
-      <c r="L23" s="95"/>
-      <c r="M23" s="95"/>
-      <c r="N23" s="95"/>
-      <c r="O23" s="95"/>
-      <c r="P23" s="96"/>
-      <c r="Q23" s="97"/>
-      <c r="R23" s="98"/>
-      <c r="S23" s="98"/>
-      <c r="T23" s="98"/>
-      <c r="U23" s="98"/>
-      <c r="V23" s="98"/>
-      <c r="W23" s="98"/>
-      <c r="X23" s="98"/>
-      <c r="Y23" s="98"/>
-      <c r="Z23" s="98"/>
-      <c r="AA23" s="98"/>
-      <c r="AB23" s="98"/>
-      <c r="AC23" s="98"/>
-      <c r="AD23" s="98"/>
-      <c r="AE23" s="99"/>
-      <c r="AF23" s="94"/>
-      <c r="AG23" s="95"/>
-      <c r="AH23" s="95"/>
-      <c r="AI23" s="96"/>
+    <row r="23" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="96"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="123"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="124"/>
+      <c r="R23" s="102"/>
+      <c r="S23" s="102"/>
+      <c r="T23" s="102"/>
+      <c r="U23" s="102"/>
+      <c r="V23" s="102"/>
+      <c r="W23" s="102"/>
+      <c r="X23" s="102"/>
+      <c r="Y23" s="102"/>
+      <c r="Z23" s="102"/>
+      <c r="AA23" s="102"/>
+      <c r="AB23" s="102"/>
+      <c r="AC23" s="102"/>
+      <c r="AD23" s="102"/>
+      <c r="AE23" s="103"/>
+      <c r="AF23" s="123"/>
+      <c r="AG23" s="99"/>
+      <c r="AH23" s="99"/>
+      <c r="AI23" s="100"/>
     </row>
-    <row r="24" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="19"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="93"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="95"/>
-      <c r="P24" s="96"/>
-      <c r="Q24" s="97"/>
-      <c r="R24" s="98"/>
-      <c r="S24" s="98"/>
-      <c r="T24" s="98"/>
-      <c r="U24" s="98"/>
-      <c r="V24" s="98"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="98"/>
-      <c r="Z24" s="98"/>
-      <c r="AA24" s="98"/>
-      <c r="AB24" s="98"/>
-      <c r="AC24" s="98"/>
-      <c r="AD24" s="98"/>
-      <c r="AE24" s="99"/>
-      <c r="AF24" s="94"/>
-      <c r="AG24" s="95"/>
-      <c r="AH24" s="95"/>
-      <c r="AI24" s="96"/>
+    <row r="24" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="121"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="94"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="123"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="100"/>
+      <c r="Q24" s="124"/>
+      <c r="R24" s="102"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="102"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="102"/>
+      <c r="W24" s="102"/>
+      <c r="X24" s="102"/>
+      <c r="Y24" s="102"/>
+      <c r="Z24" s="102"/>
+      <c r="AA24" s="102"/>
+      <c r="AB24" s="102"/>
+      <c r="AC24" s="102"/>
+      <c r="AD24" s="102"/>
+      <c r="AE24" s="103"/>
+      <c r="AF24" s="123"/>
+      <c r="AG24" s="99"/>
+      <c r="AH24" s="99"/>
+      <c r="AI24" s="100"/>
     </row>
-    <row r="25" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="19"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="89"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="95"/>
-      <c r="L25" s="95"/>
-      <c r="M25" s="95"/>
-      <c r="N25" s="95"/>
-      <c r="O25" s="95"/>
-      <c r="P25" s="96"/>
-      <c r="Q25" s="97"/>
-      <c r="R25" s="98"/>
-      <c r="S25" s="98"/>
-      <c r="T25" s="98"/>
-      <c r="U25" s="98"/>
-      <c r="V25" s="98"/>
-      <c r="W25" s="98"/>
-      <c r="X25" s="98"/>
-      <c r="Y25" s="98"/>
-      <c r="Z25" s="98"/>
-      <c r="AA25" s="98"/>
-      <c r="AB25" s="98"/>
-      <c r="AC25" s="98"/>
-      <c r="AD25" s="98"/>
-      <c r="AE25" s="99"/>
-      <c r="AF25" s="94"/>
-      <c r="AG25" s="95"/>
-      <c r="AH25" s="95"/>
-      <c r="AI25" s="96"/>
+    <row r="25" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="94"/>
+      <c r="G25" s="122"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="123"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="100"/>
+      <c r="Q25" s="124"/>
+      <c r="R25" s="102"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="102"/>
+      <c r="U25" s="102"/>
+      <c r="V25" s="102"/>
+      <c r="W25" s="102"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="102"/>
+      <c r="Z25" s="102"/>
+      <c r="AA25" s="102"/>
+      <c r="AB25" s="102"/>
+      <c r="AC25" s="102"/>
+      <c r="AD25" s="102"/>
+      <c r="AE25" s="103"/>
+      <c r="AF25" s="123"/>
+      <c r="AG25" s="99"/>
+      <c r="AH25" s="99"/>
+      <c r="AI25" s="100"/>
     </row>
-    <row r="26" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="19"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="89"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="92"/>
-      <c r="I26" s="93"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="95"/>
-      <c r="L26" s="95"/>
-      <c r="M26" s="95"/>
-      <c r="N26" s="95"/>
-      <c r="O26" s="95"/>
-      <c r="P26" s="96"/>
-      <c r="Q26" s="97"/>
-      <c r="R26" s="98"/>
-      <c r="S26" s="98"/>
-      <c r="T26" s="98"/>
-      <c r="U26" s="98"/>
-      <c r="V26" s="98"/>
-      <c r="W26" s="98"/>
-      <c r="X26" s="98"/>
-      <c r="Y26" s="98"/>
-      <c r="Z26" s="98"/>
-      <c r="AA26" s="98"/>
-      <c r="AB26" s="98"/>
-      <c r="AC26" s="98"/>
-      <c r="AD26" s="98"/>
-      <c r="AE26" s="99"/>
-      <c r="AF26" s="94"/>
-      <c r="AG26" s="95"/>
-      <c r="AH26" s="95"/>
-      <c r="AI26" s="96"/>
+    <row r="26" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="13"/>
+      <c r="B26" s="121"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="94"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="123"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="100"/>
+      <c r="Q26" s="124"/>
+      <c r="R26" s="102"/>
+      <c r="S26" s="102"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="102"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="102"/>
+      <c r="AD26" s="102"/>
+      <c r="AE26" s="103"/>
+      <c r="AF26" s="123"/>
+      <c r="AG26" s="99"/>
+      <c r="AH26" s="99"/>
+      <c r="AI26" s="100"/>
     </row>
-    <row r="27" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="19"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="89"/>
-      <c r="F27" s="90"/>
-      <c r="G27" s="91"/>
-      <c r="H27" s="92"/>
-      <c r="I27" s="93"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="95"/>
-      <c r="L27" s="95"/>
-      <c r="M27" s="95"/>
-      <c r="N27" s="95"/>
-      <c r="O27" s="95"/>
-      <c r="P27" s="96"/>
-      <c r="Q27" s="97"/>
-      <c r="R27" s="98"/>
-      <c r="S27" s="98"/>
-      <c r="T27" s="98"/>
-      <c r="U27" s="98"/>
-      <c r="V27" s="98"/>
-      <c r="W27" s="98"/>
-      <c r="X27" s="98"/>
-      <c r="Y27" s="98"/>
-      <c r="Z27" s="98"/>
-      <c r="AA27" s="98"/>
-      <c r="AB27" s="98"/>
-      <c r="AC27" s="98"/>
-      <c r="AD27" s="98"/>
-      <c r="AE27" s="99"/>
-      <c r="AF27" s="94"/>
-      <c r="AG27" s="95"/>
-      <c r="AH27" s="95"/>
-      <c r="AI27" s="96"/>
+    <row r="27" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
+      <c r="B27" s="121"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="123"/>
+      <c r="K27" s="99"/>
+      <c r="L27" s="99"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="124"/>
+      <c r="R27" s="102"/>
+      <c r="S27" s="102"/>
+      <c r="T27" s="102"/>
+      <c r="U27" s="102"/>
+      <c r="V27" s="102"/>
+      <c r="W27" s="102"/>
+      <c r="X27" s="102"/>
+      <c r="Y27" s="102"/>
+      <c r="Z27" s="102"/>
+      <c r="AA27" s="102"/>
+      <c r="AB27" s="102"/>
+      <c r="AC27" s="102"/>
+      <c r="AD27" s="102"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="123"/>
+      <c r="AG27" s="99"/>
+      <c r="AH27" s="99"/>
+      <c r="AI27" s="100"/>
     </row>
-    <row r="28" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="19"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="92"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="95"/>
-      <c r="L28" s="95"/>
-      <c r="M28" s="95"/>
-      <c r="N28" s="95"/>
-      <c r="O28" s="95"/>
-      <c r="P28" s="96"/>
-      <c r="Q28" s="97"/>
-      <c r="R28" s="98"/>
-      <c r="S28" s="98"/>
-      <c r="T28" s="98"/>
-      <c r="U28" s="98"/>
-      <c r="V28" s="98"/>
-      <c r="W28" s="98"/>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="98"/>
-      <c r="Z28" s="98"/>
-      <c r="AA28" s="98"/>
-      <c r="AB28" s="98"/>
-      <c r="AC28" s="98"/>
-      <c r="AD28" s="98"/>
-      <c r="AE28" s="99"/>
-      <c r="AF28" s="94"/>
-      <c r="AG28" s="95"/>
-      <c r="AH28" s="95"/>
-      <c r="AI28" s="96"/>
+    <row r="28" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="13"/>
+      <c r="B28" s="121"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="94"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="123"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="124"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+      <c r="T28" s="102"/>
+      <c r="U28" s="102"/>
+      <c r="V28" s="102"/>
+      <c r="W28" s="102"/>
+      <c r="X28" s="102"/>
+      <c r="Y28" s="102"/>
+      <c r="Z28" s="102"/>
+      <c r="AA28" s="102"/>
+      <c r="AB28" s="102"/>
+      <c r="AC28" s="102"/>
+      <c r="AD28" s="102"/>
+      <c r="AE28" s="103"/>
+      <c r="AF28" s="123"/>
+      <c r="AG28" s="99"/>
+      <c r="AH28" s="99"/>
+      <c r="AI28" s="100"/>
     </row>
-    <row r="29" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="19"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="89"/>
-      <c r="F29" s="90"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="92"/>
-      <c r="I29" s="93"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="95"/>
-      <c r="L29" s="95"/>
-      <c r="M29" s="95"/>
-      <c r="N29" s="95"/>
-      <c r="O29" s="95"/>
-      <c r="P29" s="96"/>
-      <c r="Q29" s="97"/>
-      <c r="R29" s="98"/>
-      <c r="S29" s="98"/>
-      <c r="T29" s="98"/>
-      <c r="U29" s="98"/>
-      <c r="V29" s="98"/>
-      <c r="W29" s="98"/>
-      <c r="X29" s="98"/>
-      <c r="Y29" s="98"/>
-      <c r="Z29" s="98"/>
-      <c r="AA29" s="98"/>
-      <c r="AB29" s="98"/>
-      <c r="AC29" s="98"/>
-      <c r="AD29" s="98"/>
-      <c r="AE29" s="99"/>
-      <c r="AF29" s="94"/>
-      <c r="AG29" s="95"/>
-      <c r="AH29" s="95"/>
-      <c r="AI29" s="96"/>
+    <row r="29" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
+      <c r="B29" s="121"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="122"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="123"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="124"/>
+      <c r="R29" s="102"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="102"/>
+      <c r="U29" s="102"/>
+      <c r="V29" s="102"/>
+      <c r="W29" s="102"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="102"/>
+      <c r="Z29" s="102"/>
+      <c r="AA29" s="102"/>
+      <c r="AB29" s="102"/>
+      <c r="AC29" s="102"/>
+      <c r="AD29" s="102"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="123"/>
+      <c r="AG29" s="99"/>
+      <c r="AH29" s="99"/>
+      <c r="AI29" s="100"/>
     </row>
-    <row r="30" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="19"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="89"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="91"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="95"/>
-      <c r="L30" s="95"/>
-      <c r="M30" s="95"/>
-      <c r="N30" s="95"/>
-      <c r="O30" s="95"/>
-      <c r="P30" s="96"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="98"/>
-      <c r="T30" s="98"/>
-      <c r="U30" s="98"/>
-      <c r="V30" s="98"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="98"/>
-      <c r="Y30" s="98"/>
-      <c r="Z30" s="98"/>
-      <c r="AA30" s="98"/>
-      <c r="AB30" s="98"/>
-      <c r="AC30" s="98"/>
-      <c r="AD30" s="98"/>
-      <c r="AE30" s="99"/>
-      <c r="AF30" s="94"/>
-      <c r="AG30" s="95"/>
-      <c r="AH30" s="95"/>
-      <c r="AI30" s="96"/>
+    <row r="30" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="13"/>
+      <c r="B30" s="121"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="94"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="124"/>
+      <c r="R30" s="102"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="102"/>
+      <c r="U30" s="102"/>
+      <c r="V30" s="102"/>
+      <c r="W30" s="102"/>
+      <c r="X30" s="102"/>
+      <c r="Y30" s="102"/>
+      <c r="Z30" s="102"/>
+      <c r="AA30" s="102"/>
+      <c r="AB30" s="102"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="102"/>
+      <c r="AE30" s="103"/>
+      <c r="AF30" s="123"/>
+      <c r="AG30" s="99"/>
+      <c r="AH30" s="99"/>
+      <c r="AI30" s="100"/>
     </row>
-    <row r="31" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="19"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="90"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="92"/>
-      <c r="I31" s="93"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="95"/>
-      <c r="L31" s="95"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="95"/>
-      <c r="P31" s="96"/>
-      <c r="Q31" s="97"/>
-      <c r="R31" s="98"/>
-      <c r="S31" s="98"/>
-      <c r="T31" s="98"/>
-      <c r="U31" s="98"/>
-      <c r="V31" s="98"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="98"/>
-      <c r="Z31" s="98"/>
-      <c r="AA31" s="98"/>
-      <c r="AB31" s="98"/>
-      <c r="AC31" s="98"/>
-      <c r="AD31" s="98"/>
-      <c r="AE31" s="99"/>
-      <c r="AF31" s="94"/>
-      <c r="AG31" s="95"/>
-      <c r="AH31" s="95"/>
-      <c r="AI31" s="96"/>
+    <row r="31" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="94"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="124"/>
+      <c r="R31" s="102"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="102"/>
+      <c r="U31" s="102"/>
+      <c r="V31" s="102"/>
+      <c r="W31" s="102"/>
+      <c r="X31" s="102"/>
+      <c r="Y31" s="102"/>
+      <c r="Z31" s="102"/>
+      <c r="AA31" s="102"/>
+      <c r="AB31" s="102"/>
+      <c r="AC31" s="102"/>
+      <c r="AD31" s="102"/>
+      <c r="AE31" s="103"/>
+      <c r="AF31" s="123"/>
+      <c r="AG31" s="99"/>
+      <c r="AH31" s="99"/>
+      <c r="AI31" s="100"/>
     </row>
-    <row r="32" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="19"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="89"/>
-      <c r="F32" s="90"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="92"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="94"/>
-      <c r="K32" s="95"/>
-      <c r="L32" s="95"/>
-      <c r="M32" s="95"/>
-      <c r="N32" s="95"/>
-      <c r="O32" s="95"/>
-      <c r="P32" s="96"/>
-      <c r="Q32" s="97"/>
-      <c r="R32" s="98"/>
-      <c r="S32" s="98"/>
-      <c r="T32" s="98"/>
-      <c r="U32" s="98"/>
-      <c r="V32" s="98"/>
-      <c r="W32" s="98"/>
-      <c r="X32" s="98"/>
-      <c r="Y32" s="98"/>
-      <c r="Z32" s="98"/>
-      <c r="AA32" s="98"/>
-      <c r="AB32" s="98"/>
-      <c r="AC32" s="98"/>
-      <c r="AD32" s="98"/>
-      <c r="AE32" s="99"/>
-      <c r="AF32" s="94"/>
-      <c r="AG32" s="95"/>
-      <c r="AH32" s="95"/>
-      <c r="AI32" s="96"/>
+    <row r="32" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="13"/>
+      <c r="B32" s="121"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="94"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="123"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="124"/>
+      <c r="R32" s="102"/>
+      <c r="S32" s="102"/>
+      <c r="T32" s="102"/>
+      <c r="U32" s="102"/>
+      <c r="V32" s="102"/>
+      <c r="W32" s="102"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="102"/>
+      <c r="Z32" s="102"/>
+      <c r="AA32" s="102"/>
+      <c r="AB32" s="102"/>
+      <c r="AC32" s="102"/>
+      <c r="AD32" s="102"/>
+      <c r="AE32" s="103"/>
+      <c r="AF32" s="123"/>
+      <c r="AG32" s="99"/>
+      <c r="AH32" s="99"/>
+      <c r="AI32" s="100"/>
     </row>
-    <row r="33" spans="1:35" s="18" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="19"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="87"/>
-      <c r="D33" s="88"/>
-      <c r="E33" s="89"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="95"/>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="96"/>
-      <c r="Q33" s="97"/>
-      <c r="R33" s="98"/>
-      <c r="S33" s="98"/>
-      <c r="T33" s="98"/>
-      <c r="U33" s="98"/>
-      <c r="V33" s="98"/>
-      <c r="W33" s="98"/>
-      <c r="X33" s="98"/>
-      <c r="Y33" s="98"/>
-      <c r="Z33" s="98"/>
-      <c r="AA33" s="98"/>
-      <c r="AB33" s="98"/>
-      <c r="AC33" s="98"/>
-      <c r="AD33" s="98"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="94"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="96"/>
+    <row r="33" spans="1:35" s="12" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="13"/>
+      <c r="B33" s="121"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="94"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="97"/>
+      <c r="J33" s="123"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+      <c r="M33" s="99"/>
+      <c r="N33" s="99"/>
+      <c r="O33" s="99"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="124"/>
+      <c r="R33" s="102"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="102"/>
+      <c r="U33" s="102"/>
+      <c r="V33" s="102"/>
+      <c r="W33" s="102"/>
+      <c r="X33" s="102"/>
+      <c r="Y33" s="102"/>
+      <c r="Z33" s="102"/>
+      <c r="AA33" s="102"/>
+      <c r="AB33" s="102"/>
+      <c r="AC33" s="102"/>
+      <c r="AD33" s="102"/>
+      <c r="AE33" s="103"/>
+      <c r="AF33" s="123"/>
+      <c r="AG33" s="99"/>
+      <c r="AH33" s="99"/>
+      <c r="AI33" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
@@ -15417,162 +15515,6 @@
     <mergeCell ref="E3:N3"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -15587,7 +15529,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AL53"/>
+  <dimension ref="A1:AL50"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -15595,1806 +15537,1613 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16" width="4.83203125" style="43" customWidth="1"/>
-    <col min="17" max="17" width="4.83203125" style="54" customWidth="1"/>
-    <col min="18" max="33" width="4.83203125" style="43" customWidth="1"/>
-    <col min="34" max="34" width="4.83203125" style="54" customWidth="1"/>
-    <col min="35" max="256" width="4.83203125" style="43"/>
-    <col min="257" max="290" width="4.83203125" style="43" customWidth="1"/>
-    <col min="291" max="512" width="4.83203125" style="43"/>
-    <col min="513" max="546" width="4.83203125" style="43" customWidth="1"/>
-    <col min="547" max="768" width="4.83203125" style="43"/>
-    <col min="769" max="802" width="4.83203125" style="43" customWidth="1"/>
-    <col min="803" max="1024" width="4.83203125" style="43"/>
-    <col min="1025" max="1058" width="4.83203125" style="43" customWidth="1"/>
-    <col min="1059" max="1280" width="4.83203125" style="43"/>
-    <col min="1281" max="1314" width="4.83203125" style="43" customWidth="1"/>
-    <col min="1315" max="1536" width="4.83203125" style="43"/>
-    <col min="1537" max="1570" width="4.83203125" style="43" customWidth="1"/>
-    <col min="1571" max="1792" width="4.83203125" style="43"/>
-    <col min="1793" max="1826" width="4.83203125" style="43" customWidth="1"/>
-    <col min="1827" max="2048" width="4.83203125" style="43"/>
-    <col min="2049" max="2082" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2083" max="2304" width="4.83203125" style="43"/>
-    <col min="2305" max="2338" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2339" max="2560" width="4.83203125" style="43"/>
-    <col min="2561" max="2594" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2595" max="2816" width="4.83203125" style="43"/>
-    <col min="2817" max="2850" width="4.83203125" style="43" customWidth="1"/>
-    <col min="2851" max="3072" width="4.83203125" style="43"/>
-    <col min="3073" max="3106" width="4.83203125" style="43" customWidth="1"/>
-    <col min="3107" max="3328" width="4.83203125" style="43"/>
-    <col min="3329" max="3362" width="4.83203125" style="43" customWidth="1"/>
-    <col min="3363" max="3584" width="4.83203125" style="43"/>
-    <col min="3585" max="3618" width="4.83203125" style="43" customWidth="1"/>
-    <col min="3619" max="3840" width="4.83203125" style="43"/>
-    <col min="3841" max="3874" width="4.83203125" style="43" customWidth="1"/>
-    <col min="3875" max="4096" width="4.83203125" style="43"/>
-    <col min="4097" max="4130" width="4.83203125" style="43" customWidth="1"/>
-    <col min="4131" max="4352" width="4.83203125" style="43"/>
-    <col min="4353" max="4386" width="4.83203125" style="43" customWidth="1"/>
-    <col min="4387" max="4608" width="4.83203125" style="43"/>
-    <col min="4609" max="4642" width="4.83203125" style="43" customWidth="1"/>
-    <col min="4643" max="4864" width="4.83203125" style="43"/>
-    <col min="4865" max="4898" width="4.83203125" style="43" customWidth="1"/>
-    <col min="4899" max="5120" width="4.83203125" style="43"/>
-    <col min="5121" max="5154" width="4.83203125" style="43" customWidth="1"/>
-    <col min="5155" max="5376" width="4.83203125" style="43"/>
-    <col min="5377" max="5410" width="4.83203125" style="43" customWidth="1"/>
-    <col min="5411" max="5632" width="4.83203125" style="43"/>
-    <col min="5633" max="5666" width="4.83203125" style="43" customWidth="1"/>
-    <col min="5667" max="5888" width="4.83203125" style="43"/>
-    <col min="5889" max="5922" width="4.83203125" style="43" customWidth="1"/>
-    <col min="5923" max="6144" width="4.83203125" style="43"/>
-    <col min="6145" max="6178" width="4.83203125" style="43" customWidth="1"/>
-    <col min="6179" max="6400" width="4.83203125" style="43"/>
-    <col min="6401" max="6434" width="4.83203125" style="43" customWidth="1"/>
-    <col min="6435" max="6656" width="4.83203125" style="43"/>
-    <col min="6657" max="6690" width="4.83203125" style="43" customWidth="1"/>
-    <col min="6691" max="6912" width="4.83203125" style="43"/>
-    <col min="6913" max="6946" width="4.83203125" style="43" customWidth="1"/>
-    <col min="6947" max="7168" width="4.83203125" style="43"/>
-    <col min="7169" max="7202" width="4.83203125" style="43" customWidth="1"/>
-    <col min="7203" max="7424" width="4.83203125" style="43"/>
-    <col min="7425" max="7458" width="4.83203125" style="43" customWidth="1"/>
-    <col min="7459" max="7680" width="4.83203125" style="43"/>
-    <col min="7681" max="7714" width="4.83203125" style="43" customWidth="1"/>
-    <col min="7715" max="7936" width="4.83203125" style="43"/>
-    <col min="7937" max="7970" width="4.83203125" style="43" customWidth="1"/>
-    <col min="7971" max="8192" width="4.83203125" style="43"/>
-    <col min="8193" max="8226" width="4.83203125" style="43" customWidth="1"/>
-    <col min="8227" max="8448" width="4.83203125" style="43"/>
-    <col min="8449" max="8482" width="4.83203125" style="43" customWidth="1"/>
-    <col min="8483" max="8704" width="4.83203125" style="43"/>
-    <col min="8705" max="8738" width="4.83203125" style="43" customWidth="1"/>
-    <col min="8739" max="8960" width="4.83203125" style="43"/>
-    <col min="8961" max="8994" width="4.83203125" style="43" customWidth="1"/>
-    <col min="8995" max="9216" width="4.83203125" style="43"/>
-    <col min="9217" max="9250" width="4.83203125" style="43" customWidth="1"/>
-    <col min="9251" max="9472" width="4.83203125" style="43"/>
-    <col min="9473" max="9506" width="4.83203125" style="43" customWidth="1"/>
-    <col min="9507" max="9728" width="4.83203125" style="43"/>
-    <col min="9729" max="9762" width="4.83203125" style="43" customWidth="1"/>
-    <col min="9763" max="9984" width="4.83203125" style="43"/>
-    <col min="9985" max="10018" width="4.83203125" style="43" customWidth="1"/>
-    <col min="10019" max="10240" width="4.83203125" style="43"/>
-    <col min="10241" max="10274" width="4.83203125" style="43" customWidth="1"/>
-    <col min="10275" max="10496" width="4.83203125" style="43"/>
-    <col min="10497" max="10530" width="4.83203125" style="43" customWidth="1"/>
-    <col min="10531" max="10752" width="4.83203125" style="43"/>
-    <col min="10753" max="10786" width="4.83203125" style="43" customWidth="1"/>
-    <col min="10787" max="11008" width="4.83203125" style="43"/>
-    <col min="11009" max="11042" width="4.83203125" style="43" customWidth="1"/>
-    <col min="11043" max="11264" width="4.83203125" style="43"/>
-    <col min="11265" max="11298" width="4.83203125" style="43" customWidth="1"/>
-    <col min="11299" max="11520" width="4.83203125" style="43"/>
-    <col min="11521" max="11554" width="4.83203125" style="43" customWidth="1"/>
-    <col min="11555" max="11776" width="4.83203125" style="43"/>
-    <col min="11777" max="11810" width="4.83203125" style="43" customWidth="1"/>
-    <col min="11811" max="12032" width="4.83203125" style="43"/>
-    <col min="12033" max="12066" width="4.83203125" style="43" customWidth="1"/>
-    <col min="12067" max="12288" width="4.83203125" style="43"/>
-    <col min="12289" max="12322" width="4.83203125" style="43" customWidth="1"/>
-    <col min="12323" max="12544" width="4.83203125" style="43"/>
-    <col min="12545" max="12578" width="4.83203125" style="43" customWidth="1"/>
-    <col min="12579" max="12800" width="4.83203125" style="43"/>
-    <col min="12801" max="12834" width="4.83203125" style="43" customWidth="1"/>
-    <col min="12835" max="13056" width="4.83203125" style="43"/>
-    <col min="13057" max="13090" width="4.83203125" style="43" customWidth="1"/>
-    <col min="13091" max="13312" width="4.83203125" style="43"/>
-    <col min="13313" max="13346" width="4.83203125" style="43" customWidth="1"/>
-    <col min="13347" max="13568" width="4.83203125" style="43"/>
-    <col min="13569" max="13602" width="4.83203125" style="43" customWidth="1"/>
-    <col min="13603" max="13824" width="4.83203125" style="43"/>
-    <col min="13825" max="13858" width="4.83203125" style="43" customWidth="1"/>
-    <col min="13859" max="14080" width="4.83203125" style="43"/>
-    <col min="14081" max="14114" width="4.83203125" style="43" customWidth="1"/>
-    <col min="14115" max="14336" width="4.83203125" style="43"/>
-    <col min="14337" max="14370" width="4.83203125" style="43" customWidth="1"/>
-    <col min="14371" max="14592" width="4.83203125" style="43"/>
-    <col min="14593" max="14626" width="4.83203125" style="43" customWidth="1"/>
-    <col min="14627" max="14848" width="4.83203125" style="43"/>
-    <col min="14849" max="14882" width="4.83203125" style="43" customWidth="1"/>
-    <col min="14883" max="15104" width="4.83203125" style="43"/>
-    <col min="15105" max="15138" width="4.83203125" style="43" customWidth="1"/>
-    <col min="15139" max="15360" width="4.83203125" style="43"/>
-    <col min="15361" max="15394" width="4.83203125" style="43" customWidth="1"/>
-    <col min="15395" max="15616" width="4.83203125" style="43"/>
-    <col min="15617" max="15650" width="4.83203125" style="43" customWidth="1"/>
-    <col min="15651" max="15872" width="4.83203125" style="43"/>
-    <col min="15873" max="15906" width="4.83203125" style="43" customWidth="1"/>
-    <col min="15907" max="16128" width="4.83203125" style="43"/>
-    <col min="16129" max="16162" width="4.83203125" style="43" customWidth="1"/>
-    <col min="16163" max="16384" width="4.83203125" style="43"/>
+    <col min="1" max="16" width="4.83203125" style="35" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" style="40" customWidth="1"/>
+    <col min="18" max="33" width="4.83203125" style="35" customWidth="1"/>
+    <col min="34" max="34" width="4.83203125" style="40" customWidth="1"/>
+    <col min="35" max="256" width="4.83203125" style="35"/>
+    <col min="257" max="290" width="4.83203125" style="35" customWidth="1"/>
+    <col min="291" max="512" width="4.83203125" style="35"/>
+    <col min="513" max="546" width="4.83203125" style="35" customWidth="1"/>
+    <col min="547" max="768" width="4.83203125" style="35"/>
+    <col min="769" max="802" width="4.83203125" style="35" customWidth="1"/>
+    <col min="803" max="1024" width="4.83203125" style="35"/>
+    <col min="1025" max="1058" width="4.83203125" style="35" customWidth="1"/>
+    <col min="1059" max="1280" width="4.83203125" style="35"/>
+    <col min="1281" max="1314" width="4.83203125" style="35" customWidth="1"/>
+    <col min="1315" max="1536" width="4.83203125" style="35"/>
+    <col min="1537" max="1570" width="4.83203125" style="35" customWidth="1"/>
+    <col min="1571" max="1792" width="4.83203125" style="35"/>
+    <col min="1793" max="1826" width="4.83203125" style="35" customWidth="1"/>
+    <col min="1827" max="2048" width="4.83203125" style="35"/>
+    <col min="2049" max="2082" width="4.83203125" style="35" customWidth="1"/>
+    <col min="2083" max="2304" width="4.83203125" style="35"/>
+    <col min="2305" max="2338" width="4.83203125" style="35" customWidth="1"/>
+    <col min="2339" max="2560" width="4.83203125" style="35"/>
+    <col min="2561" max="2594" width="4.83203125" style="35" customWidth="1"/>
+    <col min="2595" max="2816" width="4.83203125" style="35"/>
+    <col min="2817" max="2850" width="4.83203125" style="35" customWidth="1"/>
+    <col min="2851" max="3072" width="4.83203125" style="35"/>
+    <col min="3073" max="3106" width="4.83203125" style="35" customWidth="1"/>
+    <col min="3107" max="3328" width="4.83203125" style="35"/>
+    <col min="3329" max="3362" width="4.83203125" style="35" customWidth="1"/>
+    <col min="3363" max="3584" width="4.83203125" style="35"/>
+    <col min="3585" max="3618" width="4.83203125" style="35" customWidth="1"/>
+    <col min="3619" max="3840" width="4.83203125" style="35"/>
+    <col min="3841" max="3874" width="4.83203125" style="35" customWidth="1"/>
+    <col min="3875" max="4096" width="4.83203125" style="35"/>
+    <col min="4097" max="4130" width="4.83203125" style="35" customWidth="1"/>
+    <col min="4131" max="4352" width="4.83203125" style="35"/>
+    <col min="4353" max="4386" width="4.83203125" style="35" customWidth="1"/>
+    <col min="4387" max="4608" width="4.83203125" style="35"/>
+    <col min="4609" max="4642" width="4.83203125" style="35" customWidth="1"/>
+    <col min="4643" max="4864" width="4.83203125" style="35"/>
+    <col min="4865" max="4898" width="4.83203125" style="35" customWidth="1"/>
+    <col min="4899" max="5120" width="4.83203125" style="35"/>
+    <col min="5121" max="5154" width="4.83203125" style="35" customWidth="1"/>
+    <col min="5155" max="5376" width="4.83203125" style="35"/>
+    <col min="5377" max="5410" width="4.83203125" style="35" customWidth="1"/>
+    <col min="5411" max="5632" width="4.83203125" style="35"/>
+    <col min="5633" max="5666" width="4.83203125" style="35" customWidth="1"/>
+    <col min="5667" max="5888" width="4.83203125" style="35"/>
+    <col min="5889" max="5922" width="4.83203125" style="35" customWidth="1"/>
+    <col min="5923" max="6144" width="4.83203125" style="35"/>
+    <col min="6145" max="6178" width="4.83203125" style="35" customWidth="1"/>
+    <col min="6179" max="6400" width="4.83203125" style="35"/>
+    <col min="6401" max="6434" width="4.83203125" style="35" customWidth="1"/>
+    <col min="6435" max="6656" width="4.83203125" style="35"/>
+    <col min="6657" max="6690" width="4.83203125" style="35" customWidth="1"/>
+    <col min="6691" max="6912" width="4.83203125" style="35"/>
+    <col min="6913" max="6946" width="4.83203125" style="35" customWidth="1"/>
+    <col min="6947" max="7168" width="4.83203125" style="35"/>
+    <col min="7169" max="7202" width="4.83203125" style="35" customWidth="1"/>
+    <col min="7203" max="7424" width="4.83203125" style="35"/>
+    <col min="7425" max="7458" width="4.83203125" style="35" customWidth="1"/>
+    <col min="7459" max="7680" width="4.83203125" style="35"/>
+    <col min="7681" max="7714" width="4.83203125" style="35" customWidth="1"/>
+    <col min="7715" max="7936" width="4.83203125" style="35"/>
+    <col min="7937" max="7970" width="4.83203125" style="35" customWidth="1"/>
+    <col min="7971" max="8192" width="4.83203125" style="35"/>
+    <col min="8193" max="8226" width="4.83203125" style="35" customWidth="1"/>
+    <col min="8227" max="8448" width="4.83203125" style="35"/>
+    <col min="8449" max="8482" width="4.83203125" style="35" customWidth="1"/>
+    <col min="8483" max="8704" width="4.83203125" style="35"/>
+    <col min="8705" max="8738" width="4.83203125" style="35" customWidth="1"/>
+    <col min="8739" max="8960" width="4.83203125" style="35"/>
+    <col min="8961" max="8994" width="4.83203125" style="35" customWidth="1"/>
+    <col min="8995" max="9216" width="4.83203125" style="35"/>
+    <col min="9217" max="9250" width="4.83203125" style="35" customWidth="1"/>
+    <col min="9251" max="9472" width="4.83203125" style="35"/>
+    <col min="9473" max="9506" width="4.83203125" style="35" customWidth="1"/>
+    <col min="9507" max="9728" width="4.83203125" style="35"/>
+    <col min="9729" max="9762" width="4.83203125" style="35" customWidth="1"/>
+    <col min="9763" max="9984" width="4.83203125" style="35"/>
+    <col min="9985" max="10018" width="4.83203125" style="35" customWidth="1"/>
+    <col min="10019" max="10240" width="4.83203125" style="35"/>
+    <col min="10241" max="10274" width="4.83203125" style="35" customWidth="1"/>
+    <col min="10275" max="10496" width="4.83203125" style="35"/>
+    <col min="10497" max="10530" width="4.83203125" style="35" customWidth="1"/>
+    <col min="10531" max="10752" width="4.83203125" style="35"/>
+    <col min="10753" max="10786" width="4.83203125" style="35" customWidth="1"/>
+    <col min="10787" max="11008" width="4.83203125" style="35"/>
+    <col min="11009" max="11042" width="4.83203125" style="35" customWidth="1"/>
+    <col min="11043" max="11264" width="4.83203125" style="35"/>
+    <col min="11265" max="11298" width="4.83203125" style="35" customWidth="1"/>
+    <col min="11299" max="11520" width="4.83203125" style="35"/>
+    <col min="11521" max="11554" width="4.83203125" style="35" customWidth="1"/>
+    <col min="11555" max="11776" width="4.83203125" style="35"/>
+    <col min="11777" max="11810" width="4.83203125" style="35" customWidth="1"/>
+    <col min="11811" max="12032" width="4.83203125" style="35"/>
+    <col min="12033" max="12066" width="4.83203125" style="35" customWidth="1"/>
+    <col min="12067" max="12288" width="4.83203125" style="35"/>
+    <col min="12289" max="12322" width="4.83203125" style="35" customWidth="1"/>
+    <col min="12323" max="12544" width="4.83203125" style="35"/>
+    <col min="12545" max="12578" width="4.83203125" style="35" customWidth="1"/>
+    <col min="12579" max="12800" width="4.83203125" style="35"/>
+    <col min="12801" max="12834" width="4.83203125" style="35" customWidth="1"/>
+    <col min="12835" max="13056" width="4.83203125" style="35"/>
+    <col min="13057" max="13090" width="4.83203125" style="35" customWidth="1"/>
+    <col min="13091" max="13312" width="4.83203125" style="35"/>
+    <col min="13313" max="13346" width="4.83203125" style="35" customWidth="1"/>
+    <col min="13347" max="13568" width="4.83203125" style="35"/>
+    <col min="13569" max="13602" width="4.83203125" style="35" customWidth="1"/>
+    <col min="13603" max="13824" width="4.83203125" style="35"/>
+    <col min="13825" max="13858" width="4.83203125" style="35" customWidth="1"/>
+    <col min="13859" max="14080" width="4.83203125" style="35"/>
+    <col min="14081" max="14114" width="4.83203125" style="35" customWidth="1"/>
+    <col min="14115" max="14336" width="4.83203125" style="35"/>
+    <col min="14337" max="14370" width="4.83203125" style="35" customWidth="1"/>
+    <col min="14371" max="14592" width="4.83203125" style="35"/>
+    <col min="14593" max="14626" width="4.83203125" style="35" customWidth="1"/>
+    <col min="14627" max="14848" width="4.83203125" style="35"/>
+    <col min="14849" max="14882" width="4.83203125" style="35" customWidth="1"/>
+    <col min="14883" max="15104" width="4.83203125" style="35"/>
+    <col min="15105" max="15138" width="4.83203125" style="35" customWidth="1"/>
+    <col min="15139" max="15360" width="4.83203125" style="35"/>
+    <col min="15361" max="15394" width="4.83203125" style="35" customWidth="1"/>
+    <col min="15395" max="15616" width="4.83203125" style="35"/>
+    <col min="15617" max="15650" width="4.83203125" style="35" customWidth="1"/>
+    <col min="15651" max="15872" width="4.83203125" style="35"/>
+    <col min="15873" max="15906" width="4.83203125" style="35" customWidth="1"/>
+    <col min="15907" max="16128" width="4.83203125" style="35"/>
+    <col min="16129" max="16162" width="4.83203125" style="35" customWidth="1"/>
+    <col min="16163" max="16384" width="4.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="136" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="138"/>
-      <c r="S1" s="145" t="str">
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="77" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="146"/>
-      <c r="U1" s="146"/>
-      <c r="V1" s="146"/>
-      <c r="W1" s="146"/>
-      <c r="X1" s="146"/>
-      <c r="Y1" s="146"/>
-      <c r="Z1" s="147"/>
-      <c r="AA1" s="158" t="s">
+      <c r="T1" s="78"/>
+      <c r="U1" s="78"/>
+      <c r="V1" s="78"/>
+      <c r="W1" s="78"/>
+      <c r="X1" s="78"/>
+      <c r="Y1" s="78"/>
+      <c r="Z1" s="79"/>
+      <c r="AA1" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="AB1" s="159"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="129"/>
+      <c r="AC1" s="86" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="125">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="127"/>
       <c r="AJ1" s="1"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="2"/>
     </row>
     <row r="2" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="139"/>
-      <c r="P2" s="140"/>
-      <c r="Q2" s="140"/>
-      <c r="R2" s="141"/>
-      <c r="S2" s="148"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="150"/>
-      <c r="AA2" s="158" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="73"/>
+      <c r="S2" s="80"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="81"/>
+      <c r="V2" s="81"/>
+      <c r="W2" s="81"/>
+      <c r="X2" s="81"/>
+      <c r="Y2" s="81"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="159"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="129"/>
+      <c r="AC2" s="86" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="125">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="127"/>
       <c r="AJ2" s="1"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="142"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="144"/>
-      <c r="S3" s="151"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="153"/>
-      <c r="AA3" s="158"/>
-      <c r="AB3" s="159"/>
-      <c r="AC3" s="154" t="str">
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="83"/>
+      <c r="T3" s="84"/>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="128"/>
+      <c r="AB3" s="129"/>
+      <c r="AC3" s="86" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="127"/>
       <c r="AJ3" s="1"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
     </row>
-    <row r="4" spans="1:38" s="40" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
-      <c r="AG4" s="13"/>
-      <c r="AH4" s="13"/>
-      <c r="AI4" s="13"/>
+    <row r="4" spans="1:38" s="33" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
     </row>
-    <row r="5" spans="1:38" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="41" t="s">
+    <row r="5" spans="1:38" s="33" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="13"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="6"/>
+      <c r="AF5" s="6"/>
+      <c r="AG5" s="6"/>
+      <c r="AH5" s="6"/>
+      <c r="AI5" s="6"/>
     </row>
-    <row r="6" spans="1:38" s="69" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="66"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="68"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
+    <row r="6" spans="1:38" s="45" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+      <c r="F6"/>
+      <c r="G6"/>
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6"/>
+      <c r="N6"/>
+      <c r="O6"/>
+      <c r="P6"/>
+      <c r="Q6"/>
+      <c r="R6"/>
+      <c r="S6"/>
+      <c r="T6"/>
+      <c r="U6"/>
+      <c r="V6"/>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6"/>
+      <c r="AE6"/>
+      <c r="AF6"/>
+      <c r="AG6"/>
+      <c r="AH6"/>
+      <c r="AI6"/>
     </row>
-    <row r="7" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="67"/>
-      <c r="B7" s="65" t="s">
+    <row r="7" spans="1:38" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7"/>
+      <c r="B7" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="71"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="42"/>
-      <c r="AI7" s="74"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" s="46"/>
+      <c r="O7"/>
+      <c r="P7" s="44"/>
+      <c r="Q7"/>
+      <c r="R7" s="44"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7"/>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7"/>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7"/>
+      <c r="AD7"/>
+      <c r="AE7"/>
+      <c r="AF7"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="34"/>
+      <c r="AI7"/>
     </row>
-    <row r="8" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="67"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="71"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="67"/>
-      <c r="V8" s="67"/>
-      <c r="W8" s="67"/>
-      <c r="X8" s="67"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="70"/>
-      <c r="AB8" s="70"/>
-      <c r="AC8" s="70"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="74"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="44"/>
-      <c r="AI8" s="74"/>
+    <row r="8" spans="1:38" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8"/>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" s="46"/>
+      <c r="O8"/>
+      <c r="P8" s="44"/>
+      <c r="Q8"/>
+      <c r="R8" s="44"/>
+      <c r="S8"/>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8"/>
+      <c r="X8"/>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8"/>
+      <c r="AD8"/>
+      <c r="AE8"/>
+      <c r="AF8" s="44"/>
+      <c r="AG8" s="44"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8"/>
     </row>
-    <row r="9" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67"/>
-      <c r="B9" s="65" t="s">
+    <row r="9" spans="1:38" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9"/>
+      <c r="B9" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="71"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="66"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="X9" s="67"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="74"/>
-      <c r="AF9" s="67"/>
-      <c r="AG9" s="67"/>
-      <c r="AH9" s="45"/>
-      <c r="AI9" s="67"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9" s="46"/>
+      <c r="O9"/>
+      <c r="P9" s="44"/>
+      <c r="Q9"/>
+      <c r="R9" s="44"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
+      <c r="AB9"/>
+      <c r="AC9"/>
+      <c r="AD9"/>
+      <c r="AE9"/>
+      <c r="AF9"/>
+      <c r="AG9"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9"/>
     </row>
-    <row r="10" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="67"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="71"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="70"/>
-      <c r="AA10" s="70"/>
-      <c r="AB10" s="70"/>
-      <c r="AC10" s="70"/>
-      <c r="AD10" s="70"/>
-      <c r="AE10" s="67"/>
-      <c r="AF10" s="70"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="74"/>
+    <row r="10" spans="1:38" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10"/>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10" s="46"/>
+      <c r="O10"/>
+      <c r="P10" s="44"/>
+      <c r="Q10"/>
+      <c r="R10" s="44"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
+      <c r="AE10"/>
+      <c r="AF10"/>
+      <c r="AG10" s="44"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10"/>
     </row>
-    <row r="11" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
-      <c r="B11" s="65" t="s">
+    <row r="11" spans="1:38" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11"/>
+      <c r="B11" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="70"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="66"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="67"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="67"/>
-      <c r="X11" s="67"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="70"/>
-      <c r="AB11" s="70"/>
-      <c r="AC11" s="70"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="70"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="42"/>
-      <c r="AI11" s="74"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11" s="46"/>
+      <c r="O11"/>
+      <c r="P11" s="44"/>
+      <c r="Q11"/>
+      <c r="R11" s="44"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11"/>
+      <c r="V11"/>
+      <c r="W11"/>
+      <c r="X11"/>
+      <c r="Y11"/>
+      <c r="Z11"/>
+      <c r="AA11"/>
+      <c r="AB11"/>
+      <c r="AC11"/>
+      <c r="AD11"/>
+      <c r="AE11"/>
+      <c r="AF11"/>
+      <c r="AG11" s="44"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11"/>
     </row>
-    <row r="12" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="67"/>
-      <c r="B12" s="70"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="70"/>
-      <c r="AA12" s="70"/>
-      <c r="AB12" s="70"/>
-      <c r="AC12" s="70"/>
-      <c r="AD12" s="70"/>
-      <c r="AE12" s="70"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="74"/>
+    <row r="12" spans="1:38" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12"/>
+      <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+      <c r="L12"/>
+      <c r="M12"/>
+      <c r="N12" s="46"/>
+      <c r="O12"/>
+      <c r="P12" s="44"/>
+      <c r="Q12"/>
+      <c r="R12" s="44"/>
+      <c r="S12"/>
+      <c r="T12"/>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+      <c r="AC12"/>
+      <c r="AD12"/>
+      <c r="AE12"/>
+      <c r="AF12"/>
+      <c r="AG12" s="44"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12"/>
     </row>
-    <row r="13" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="74"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="74"/>
-      <c r="K13" s="74"/>
-      <c r="L13" s="74"/>
-      <c r="M13" s="74"/>
-      <c r="N13" s="74"/>
-      <c r="O13" s="74"/>
-      <c r="P13" s="74"/>
-      <c r="Q13" s="77"/>
-      <c r="R13" s="67"/>
-      <c r="S13" s="67"/>
-      <c r="T13" s="67"/>
-      <c r="U13" s="67"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="67"/>
-      <c r="X13" s="67"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
-      <c r="AB13" s="70"/>
-      <c r="AC13" s="70"/>
-      <c r="AD13" s="70"/>
-      <c r="AE13" s="70"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="42"/>
-      <c r="AI13" s="74"/>
+    <row r="13" spans="1:38" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13"/>
+      <c r="B13" s="43"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13" s="48"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13"/>
     </row>
-    <row r="14" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="67"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="74"/>
-      <c r="K14" s="74"/>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
-      <c r="O14" s="74"/>
-      <c r="P14" s="74"/>
-      <c r="Q14" s="77"/>
-      <c r="R14" s="67"/>
-      <c r="S14" s="67"/>
-      <c r="T14" s="67"/>
-      <c r="U14" s="67"/>
-      <c r="V14" s="67"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="67"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="70"/>
-      <c r="AB14" s="70"/>
-      <c r="AC14" s="70"/>
-      <c r="AD14" s="70"/>
-      <c r="AE14" s="70"/>
-      <c r="AF14" s="70"/>
-      <c r="AG14" s="72"/>
-      <c r="AH14" s="42"/>
-      <c r="AI14" s="74"/>
+    <row r="14" spans="1:38" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14" s="48"/>
+      <c r="R14"/>
+      <c r="S14"/>
+      <c r="T14"/>
+      <c r="U14"/>
+      <c r="V14"/>
+      <c r="W14"/>
+      <c r="X14"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+      <c r="AC14"/>
+      <c r="AD14"/>
+      <c r="AE14"/>
+      <c r="AF14"/>
+      <c r="AG14" s="44"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14"/>
     </row>
-    <row r="15" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="67"/>
-      <c r="B15" s="65"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="67"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="67"/>
-      <c r="U15" s="74"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="74"/>
-      <c r="Y15" s="74"/>
-      <c r="Z15" s="74"/>
-      <c r="AA15" s="74"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="70"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="74"/>
+    <row r="15" spans="1:38" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15"/>
+      <c r="B15" s="43"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15" s="46"/>
+      <c r="O15"/>
+      <c r="P15" s="44"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+      <c r="AC15"/>
+      <c r="AD15"/>
+      <c r="AE15"/>
+      <c r="AF15"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15"/>
     </row>
-    <row r="16" spans="1:38" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="67"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="70"/>
-      <c r="AB16" s="70"/>
-      <c r="AC16" s="70"/>
-      <c r="AD16" s="70"/>
-      <c r="AE16" s="70"/>
-      <c r="AF16" s="70"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="74"/>
+    <row r="16" spans="1:38" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16" s="44"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+      <c r="AC16"/>
+      <c r="AD16"/>
+      <c r="AE16"/>
+      <c r="AF16"/>
+      <c r="AG16" s="44"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16"/>
     </row>
-    <row r="17" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
-      <c r="B17" s="65"/>
-      <c r="C17" s="67"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="70"/>
-      <c r="AA17" s="70"/>
-      <c r="AB17" s="70"/>
-      <c r="AC17" s="70"/>
-      <c r="AD17" s="70"/>
-      <c r="AE17" s="70"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="74"/>
+    <row r="17" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17"/>
+      <c r="B17" s="43"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17" s="44"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+      <c r="AC17"/>
+      <c r="AD17"/>
+      <c r="AE17"/>
+      <c r="AF17"/>
+      <c r="AG17" s="44"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17"/>
     </row>
-    <row r="18" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="70"/>
-      <c r="AA18" s="70"/>
-      <c r="AB18" s="70"/>
-      <c r="AC18" s="70"/>
-      <c r="AD18" s="70"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="70"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="74"/>
+    <row r="18" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18"/>
+      <c r="K18"/>
+      <c r="L18"/>
+      <c r="M18"/>
+      <c r="N18"/>
+      <c r="O18"/>
+      <c r="P18" s="44"/>
+      <c r="Q18"/>
+      <c r="R18"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="X18"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+      <c r="AC18"/>
+      <c r="AD18"/>
+      <c r="AE18"/>
+      <c r="AF18"/>
+      <c r="AG18" s="44"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18"/>
     </row>
-    <row r="19" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
-      <c r="B19" s="65"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="71"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="67"/>
-      <c r="T19" s="67"/>
-      <c r="U19" s="67"/>
-      <c r="V19" s="67"/>
-      <c r="W19" s="67"/>
-      <c r="X19" s="67"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="70"/>
-      <c r="AB19" s="70"/>
-      <c r="AC19" s="70"/>
-      <c r="AD19" s="70"/>
-      <c r="AE19" s="70"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="74"/>
+    <row r="19" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19"/>
+      <c r="B19" s="43"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19" s="46"/>
+      <c r="O19"/>
+      <c r="P19" s="44"/>
+      <c r="Q19"/>
+      <c r="R19" s="44"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="X19"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+      <c r="AC19"/>
+      <c r="AD19"/>
+      <c r="AE19"/>
+      <c r="AF19"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19"/>
     </row>
-    <row r="20" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67"/>
-      <c r="B20" s="65"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="70"/>
-      <c r="AA20" s="70"/>
-      <c r="AB20" s="70"/>
-      <c r="AC20" s="70"/>
-      <c r="AD20" s="70"/>
-      <c r="AE20" s="70"/>
-      <c r="AF20" s="70"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="74"/>
+    <row r="20" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20"/>
+      <c r="B20" s="43"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20" s="44"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+      <c r="U20"/>
+      <c r="V20"/>
+      <c r="W20"/>
+      <c r="X20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+      <c r="AC20"/>
+      <c r="AD20"/>
+      <c r="AE20"/>
+      <c r="AF20"/>
+      <c r="AG20" s="44"/>
+      <c r="AH20" s="34"/>
+      <c r="AI20"/>
     </row>
-    <row r="21" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
-      <c r="B21" s="66"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="70"/>
-      <c r="AA21" s="70"/>
-      <c r="AB21" s="70"/>
-      <c r="AC21" s="70"/>
-      <c r="AD21" s="70"/>
-      <c r="AE21" s="70"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="72"/>
-      <c r="AH21" s="42"/>
-      <c r="AI21" s="74"/>
+    <row r="21" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21" s="44"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="34"/>
+      <c r="AI21"/>
     </row>
-    <row r="22" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="67"/>
-      <c r="B22" s="66"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-      <c r="I22" s="66"/>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="70"/>
-      <c r="AB22" s="70"/>
-      <c r="AC22" s="70"/>
-      <c r="AD22" s="70"/>
-      <c r="AE22" s="70"/>
-      <c r="AF22" s="70"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="74"/>
+    <row r="22" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22" s="44"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="34"/>
+      <c r="AI22"/>
     </row>
-    <row r="23" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="67"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="70"/>
-      <c r="AA23" s="70"/>
-      <c r="AB23" s="70"/>
-      <c r="AC23" s="70"/>
-      <c r="AD23" s="70"/>
-      <c r="AE23" s="70"/>
-      <c r="AF23" s="70"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="74"/>
+    <row r="23" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23"/>
+      <c r="F23"/>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23" s="44"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+      <c r="U23"/>
+      <c r="V23"/>
+      <c r="W23"/>
+      <c r="X23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+      <c r="AF23"/>
+      <c r="AG23" s="44"/>
+      <c r="AH23" s="34"/>
+      <c r="AI23"/>
     </row>
-    <row r="24" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="67"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="71"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
-      <c r="Z24" s="70"/>
-      <c r="AA24" s="70"/>
-      <c r="AB24" s="70"/>
-      <c r="AC24" s="70"/>
-      <c r="AD24" s="70"/>
-      <c r="AE24" s="70"/>
-      <c r="AF24" s="70"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="42"/>
-      <c r="AI24" s="74"/>
+    <row r="24" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24"/>
+      <c r="B24" s="48"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24" s="46"/>
+      <c r="O24"/>
+      <c r="P24" s="44"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+      <c r="U24"/>
+      <c r="V24"/>
+      <c r="W24"/>
+      <c r="X24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+      <c r="AC24"/>
+      <c r="AD24"/>
+      <c r="AE24"/>
+      <c r="AF24"/>
+      <c r="AG24" s="44"/>
+      <c r="AH24" s="34"/>
+      <c r="AI24"/>
     </row>
-    <row r="25" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67"/>
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="70"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="70"/>
-      <c r="AB25" s="70"/>
-      <c r="AC25" s="70"/>
-      <c r="AD25" s="70"/>
-      <c r="AE25" s="70"/>
-      <c r="AF25" s="70"/>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="42"/>
-      <c r="AI25" s="74"/>
+    <row r="25" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25" s="44"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+      <c r="U25"/>
+      <c r="V25"/>
+      <c r="W25"/>
+      <c r="X25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+      <c r="AC25"/>
+      <c r="AD25"/>
+      <c r="AE25"/>
+      <c r="AF25"/>
+      <c r="AG25" s="44"/>
+      <c r="AH25" s="34"/>
+      <c r="AI25"/>
     </row>
-    <row r="26" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="67"/>
-      <c r="B26" s="66"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="67"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="66"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="66"/>
-      <c r="N26" s="66"/>
-      <c r="O26" s="66"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="66"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="70"/>
-      <c r="Y26" s="70"/>
-      <c r="Z26" s="70"/>
-      <c r="AA26" s="70"/>
-      <c r="AB26" s="70"/>
-      <c r="AC26" s="70"/>
-      <c r="AD26" s="70"/>
-      <c r="AE26" s="70"/>
-      <c r="AF26" s="70"/>
-      <c r="AG26" s="72"/>
-      <c r="AH26" s="42"/>
-      <c r="AI26" s="74"/>
+    <row r="26" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+      <c r="L26"/>
+      <c r="M26"/>
+      <c r="N26"/>
+      <c r="O26"/>
+      <c r="P26" s="44"/>
+      <c r="Q26"/>
+      <c r="R26"/>
+      <c r="S26"/>
+      <c r="T26"/>
+      <c r="U26"/>
+      <c r="V26"/>
+      <c r="W26"/>
+      <c r="X26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+      <c r="AC26"/>
+      <c r="AD26"/>
+      <c r="AE26"/>
+      <c r="AF26"/>
+      <c r="AG26" s="44"/>
+      <c r="AH26" s="34"/>
+      <c r="AI26"/>
     </row>
-    <row r="27" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
-      <c r="B27" s="66"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="67"/>
-      <c r="S27" s="67"/>
-      <c r="T27" s="67"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="70"/>
-      <c r="Y27" s="70"/>
-      <c r="Z27" s="70"/>
-      <c r="AA27" s="70"/>
-      <c r="AB27" s="70"/>
-      <c r="AC27" s="70"/>
-      <c r="AD27" s="70"/>
-      <c r="AE27" s="70"/>
-      <c r="AF27" s="70"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="74"/>
+    <row r="27" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27" s="44"/>
+      <c r="Q27"/>
+      <c r="R27"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+      <c r="X27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+      <c r="AC27"/>
+      <c r="AD27"/>
+      <c r="AE27"/>
+      <c r="AF27"/>
+      <c r="AG27" s="44"/>
+      <c r="AH27" s="34"/>
+      <c r="AI27"/>
     </row>
-    <row r="28" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="67"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="66"/>
-      <c r="J28" s="66"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="66"/>
-      <c r="R28" s="67"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="70"/>
-      <c r="V28" s="70"/>
-      <c r="W28" s="70"/>
-      <c r="X28" s="70"/>
-      <c r="Y28" s="70"/>
-      <c r="Z28" s="70"/>
-      <c r="AA28" s="70"/>
-      <c r="AB28" s="70"/>
-      <c r="AC28" s="70"/>
-      <c r="AD28" s="70"/>
-      <c r="AE28" s="70"/>
-      <c r="AF28" s="70"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="74"/>
+    <row r="28" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28" s="44"/>
+      <c r="Q28"/>
+      <c r="R28"/>
+      <c r="S28"/>
+      <c r="T28"/>
+      <c r="U28"/>
+      <c r="V28"/>
+      <c r="W28"/>
+      <c r="X28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+      <c r="AC28"/>
+      <c r="AD28"/>
+      <c r="AE28"/>
+      <c r="AF28"/>
+      <c r="AG28" s="44"/>
+      <c r="AH28" s="34"/>
+      <c r="AI28"/>
     </row>
-    <row r="29" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="67"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="67"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="66"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="66"/>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="71"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="67"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="67"/>
-      <c r="U29" s="70"/>
-      <c r="V29" s="70"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="70"/>
-      <c r="Y29" s="70"/>
-      <c r="Z29" s="70"/>
-      <c r="AA29" s="70"/>
-      <c r="AB29" s="70"/>
-      <c r="AC29" s="70"/>
-      <c r="AD29" s="70"/>
-      <c r="AE29" s="70"/>
-      <c r="AF29" s="70"/>
-      <c r="AG29" s="72"/>
-      <c r="AH29" s="42"/>
-      <c r="AI29" s="74"/>
+    <row r="29" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29" s="46"/>
+      <c r="O29"/>
+      <c r="P29" s="44"/>
+      <c r="Q29"/>
+      <c r="R29"/>
+      <c r="S29"/>
+      <c r="T29"/>
+      <c r="U29"/>
+      <c r="V29"/>
+      <c r="W29"/>
+      <c r="X29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+      <c r="AC29"/>
+      <c r="AD29"/>
+      <c r="AE29"/>
+      <c r="AF29"/>
+      <c r="AG29" s="44"/>
+      <c r="AH29" s="34"/>
+      <c r="AI29"/>
     </row>
-    <row r="30" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="67"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="66"/>
-      <c r="H30" s="67"/>
-      <c r="I30" s="66"/>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="67"/>
-      <c r="T30" s="67"/>
-      <c r="U30" s="70"/>
-      <c r="V30" s="70"/>
-      <c r="W30" s="70"/>
-      <c r="X30" s="70"/>
-      <c r="Y30" s="70"/>
-      <c r="Z30" s="70"/>
-      <c r="AA30" s="70"/>
-      <c r="AB30" s="70"/>
-      <c r="AC30" s="70"/>
-      <c r="AD30" s="70"/>
-      <c r="AE30" s="70"/>
-      <c r="AF30" s="70"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="42"/>
-      <c r="AI30" s="74"/>
+    <row r="30" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+      <c r="L30"/>
+      <c r="M30"/>
+      <c r="N30"/>
+      <c r="O30"/>
+      <c r="P30" s="44"/>
+      <c r="Q30"/>
+      <c r="R30"/>
+      <c r="S30"/>
+      <c r="T30"/>
+      <c r="U30"/>
+      <c r="V30"/>
+      <c r="W30"/>
+      <c r="X30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+      <c r="AC30"/>
+      <c r="AD30"/>
+      <c r="AE30"/>
+      <c r="AF30"/>
+      <c r="AG30" s="44"/>
+      <c r="AH30" s="34"/>
+      <c r="AI30"/>
     </row>
-    <row r="31" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="78"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="66"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="66"/>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="68"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="67"/>
-      <c r="S31" s="67"/>
-      <c r="T31" s="67"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="80"/>
-      <c r="AH31" s="46"/>
-      <c r="AI31" s="81"/>
+    <row r="31" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="49"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31" s="44"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31"/>
+      <c r="T31"/>
+      <c r="U31" s="49"/>
+      <c r="V31" s="49"/>
+      <c r="W31" s="49"/>
+      <c r="X31" s="49"/>
+      <c r="Y31" s="49"/>
+      <c r="Z31" s="49"/>
+      <c r="AA31" s="49"/>
+      <c r="AB31" s="49"/>
+      <c r="AC31" s="49"/>
+      <c r="AD31" s="49"/>
+      <c r="AE31" s="49"/>
+      <c r="AF31" s="49"/>
+      <c r="AG31" s="50"/>
+      <c r="AH31" s="36"/>
+      <c r="AI31" s="49"/>
     </row>
-    <row r="32" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="78"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="66"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="70"/>
-      <c r="U32" s="79"/>
-      <c r="V32" s="79"/>
-      <c r="W32" s="79"/>
-      <c r="X32" s="79"/>
-      <c r="Y32" s="79"/>
-      <c r="Z32" s="79"/>
-      <c r="AA32" s="79"/>
-      <c r="AB32" s="79"/>
-      <c r="AC32" s="79"/>
-      <c r="AD32" s="79"/>
-      <c r="AE32" s="79"/>
-      <c r="AF32" s="79"/>
-      <c r="AG32" s="80"/>
-      <c r="AH32" s="46"/>
-      <c r="AI32" s="81"/>
+    <row r="32" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="49"/>
+      <c r="B32"/>
+      <c r="C32" s="44"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="34"/>
+      <c r="R32"/>
+      <c r="S32" s="10"/>
+      <c r="T32"/>
+      <c r="U32" s="49"/>
+      <c r="V32" s="49"/>
+      <c r="W32" s="49"/>
+      <c r="X32" s="49"/>
+      <c r="Y32" s="49"/>
+      <c r="Z32" s="49"/>
+      <c r="AA32" s="49"/>
+      <c r="AB32" s="49"/>
+      <c r="AC32" s="49"/>
+      <c r="AD32" s="49"/>
+      <c r="AE32" s="49"/>
+      <c r="AF32" s="49"/>
+      <c r="AG32" s="50"/>
+      <c r="AH32" s="36"/>
+      <c r="AI32" s="49"/>
     </row>
-    <row r="33" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="78"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="82"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="79"/>
-      <c r="U33" s="79"/>
-      <c r="V33" s="79"/>
-      <c r="W33" s="79"/>
-      <c r="X33" s="79"/>
-      <c r="Y33" s="79"/>
-      <c r="Z33" s="79"/>
-      <c r="AA33" s="79"/>
-      <c r="AB33" s="79"/>
-      <c r="AC33" s="79"/>
-      <c r="AD33" s="79"/>
-      <c r="AE33" s="79"/>
-      <c r="AF33" s="79"/>
-      <c r="AG33" s="80"/>
-      <c r="AH33" s="46"/>
-      <c r="AI33" s="81"/>
+    <row r="33" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="49"/>
+      <c r="B33" s="49"/>
+      <c r="C33"/>
+      <c r="D33" s="49"/>
+      <c r="E33" s="49"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
+      <c r="K33" s="49"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="49"/>
+      <c r="N33" s="49"/>
+      <c r="O33" s="49"/>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="34"/>
+      <c r="R33" s="49"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="49"/>
+      <c r="V33" s="49"/>
+      <c r="W33" s="49"/>
+      <c r="X33" s="49"/>
+      <c r="Y33" s="49"/>
+      <c r="Z33" s="49"/>
+      <c r="AA33" s="49"/>
+      <c r="AB33" s="49"/>
+      <c r="AC33" s="49"/>
+      <c r="AD33" s="49"/>
+      <c r="AE33" s="49"/>
+      <c r="AF33" s="49"/>
+      <c r="AG33" s="50"/>
+      <c r="AH33" s="36"/>
+      <c r="AI33" s="49"/>
     </row>
-    <row r="34" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="78"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="82"/>
-      <c r="J34" s="82"/>
-      <c r="K34" s="82"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="82"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="82"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
-      <c r="U34" s="78"/>
-      <c r="V34" s="78"/>
-      <c r="W34" s="78"/>
-      <c r="X34" s="78"/>
-      <c r="Y34" s="78"/>
-      <c r="Z34" s="78"/>
-      <c r="AA34" s="78"/>
-      <c r="AB34" s="78"/>
-      <c r="AC34" s="78"/>
-      <c r="AD34" s="78"/>
-      <c r="AE34" s="79"/>
-      <c r="AF34" s="79"/>
-      <c r="AG34" s="80"/>
-      <c r="AH34" s="46"/>
-      <c r="AI34" s="81"/>
+    <row r="34" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
+      <c r="C34"/>
+      <c r="D34" s="49"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
+      <c r="K34" s="49"/>
+      <c r="L34" s="49"/>
+      <c r="M34" s="49"/>
+      <c r="N34" s="49"/>
+      <c r="O34" s="49"/>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="34"/>
+      <c r="R34" s="49"/>
+      <c r="S34" s="49"/>
+      <c r="T34" s="49"/>
+      <c r="U34" s="49"/>
+      <c r="V34" s="49"/>
+      <c r="W34" s="49"/>
+      <c r="X34" s="49"/>
+      <c r="Y34" s="49"/>
+      <c r="Z34" s="49"/>
+      <c r="AA34" s="49"/>
+      <c r="AB34" s="49"/>
+      <c r="AC34" s="49"/>
+      <c r="AD34" s="49"/>
+      <c r="AE34" s="49"/>
+      <c r="AF34" s="49"/>
+      <c r="AG34" s="50"/>
+      <c r="AH34" s="36"/>
+      <c r="AI34" s="49"/>
     </row>
-    <row r="35" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="78"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="67"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="82"/>
-      <c r="J35" s="82"/>
-      <c r="K35" s="82"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="82"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="82"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="47"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="79"/>
-      <c r="U35" s="79"/>
-      <c r="V35" s="79"/>
-      <c r="W35" s="79"/>
-      <c r="X35" s="79"/>
-      <c r="Y35" s="79"/>
-      <c r="Z35" s="79"/>
-      <c r="AA35" s="79"/>
-      <c r="AB35" s="79"/>
-      <c r="AC35" s="79"/>
-      <c r="AD35" s="79"/>
-      <c r="AE35" s="79"/>
-      <c r="AF35" s="79"/>
-      <c r="AG35" s="80"/>
-      <c r="AH35" s="46"/>
-      <c r="AI35" s="81"/>
+    <row r="35" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="49"/>
+      <c r="B35" s="49"/>
+      <c r="C35"/>
+      <c r="D35" s="49"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="49"/>
+      <c r="G35" s="49"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="49"/>
+      <c r="K35" s="49"/>
+      <c r="L35" s="49"/>
+      <c r="M35" s="49"/>
+      <c r="N35" s="49"/>
+      <c r="O35" s="49"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="34"/>
+      <c r="R35" s="49"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="49"/>
+      <c r="U35" s="49"/>
+      <c r="V35" s="49"/>
+      <c r="W35" s="49"/>
+      <c r="X35" s="49"/>
+      <c r="Y35" s="49"/>
+      <c r="Z35" s="49"/>
+      <c r="AA35" s="49"/>
+      <c r="AB35" s="49"/>
+      <c r="AC35" s="49"/>
+      <c r="AD35" s="49"/>
+      <c r="AE35" s="49"/>
+      <c r="AF35" s="49"/>
+      <c r="AG35" s="50"/>
+      <c r="AH35" s="36"/>
+      <c r="AI35" s="49"/>
     </row>
-    <row r="36" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="78"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="67"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="82"/>
-      <c r="K36" s="82"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="82"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="82"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="81"/>
-      <c r="T36" s="81"/>
-      <c r="U36" s="83"/>
-      <c r="V36" s="81"/>
-      <c r="W36" s="81"/>
-      <c r="X36" s="81"/>
-      <c r="Y36" s="81"/>
-      <c r="Z36" s="81"/>
-      <c r="AA36" s="81"/>
-      <c r="AB36" s="81"/>
-      <c r="AC36" s="81"/>
-      <c r="AD36" s="81"/>
-      <c r="AE36" s="79"/>
-      <c r="AF36" s="79"/>
-      <c r="AG36" s="80"/>
-      <c r="AH36" s="46"/>
-      <c r="AI36" s="81"/>
+    <row r="36" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="49"/>
+      <c r="B36" s="49"/>
+      <c r="C36"/>
+      <c r="D36" s="49"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="49"/>
+      <c r="G36" s="49"/>
+      <c r="H36" s="49"/>
+      <c r="I36" s="49"/>
+      <c r="J36" s="49"/>
+      <c r="K36" s="49"/>
+      <c r="L36" s="49"/>
+      <c r="M36" s="49"/>
+      <c r="N36" s="49"/>
+      <c r="O36" s="49"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="34"/>
+      <c r="R36" s="49"/>
+      <c r="S36" s="49"/>
+      <c r="T36" s="49"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="49"/>
+      <c r="W36" s="49"/>
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49"/>
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49"/>
+      <c r="AB36" s="49"/>
+      <c r="AC36" s="49"/>
+      <c r="AD36" s="49"/>
+      <c r="AE36" s="49"/>
+      <c r="AF36" s="49"/>
+      <c r="AG36" s="50"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="49"/>
     </row>
-    <row r="37" spans="1:35" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="78"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
-      <c r="J37" s="78"/>
-      <c r="K37" s="78"/>
-      <c r="L37" s="78"/>
-      <c r="M37" s="78"/>
-      <c r="N37" s="78"/>
-      <c r="O37" s="82"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="51"/>
-      <c r="R37" s="78"/>
-      <c r="S37" s="81"/>
-      <c r="T37" s="81"/>
-      <c r="U37" s="81"/>
-      <c r="V37" s="81"/>
-      <c r="W37" s="81"/>
-      <c r="X37" s="81"/>
-      <c r="Y37" s="81"/>
-      <c r="Z37" s="81"/>
-      <c r="AA37" s="81"/>
-      <c r="AB37" s="81"/>
-      <c r="AC37" s="81"/>
-      <c r="AD37" s="81"/>
-      <c r="AE37" s="78"/>
-      <c r="AF37" s="78"/>
-      <c r="AG37" s="78"/>
-      <c r="AH37" s="51"/>
-      <c r="AI37" s="78"/>
+    <row r="37" spans="1:35" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="49"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
+      <c r="I37" s="49"/>
+      <c r="J37" s="49"/>
+      <c r="K37" s="49"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="49"/>
+      <c r="N37" s="49"/>
+      <c r="O37" s="49"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="49"/>
+      <c r="S37" s="49"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="49"/>
+      <c r="V37" s="49"/>
+      <c r="W37" s="49"/>
+      <c r="X37" s="49"/>
+      <c r="Y37" s="49"/>
+      <c r="Z37" s="49"/>
+      <c r="AA37" s="49"/>
+      <c r="AB37" s="49"/>
+      <c r="AC37" s="49"/>
+      <c r="AD37" s="49"/>
+      <c r="AE37" s="49"/>
+      <c r="AF37" s="49"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="36"/>
+      <c r="AI37" s="49"/>
     </row>
     <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="53"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="56"/>
-      <c r="V38" s="55"/>
-      <c r="W38" s="55"/>
-      <c r="X38" s="55"/>
-      <c r="Y38" s="55"/>
-      <c r="Z38" s="55"/>
-      <c r="AA38" s="55"/>
-      <c r="AB38" s="55"/>
-      <c r="AC38" s="55"/>
-      <c r="AD38" s="55"/>
-      <c r="AE38" s="57"/>
-      <c r="AF38" s="57"/>
-      <c r="AG38" s="58"/>
-      <c r="AH38" s="59"/>
-      <c r="AI38" s="55"/>
+      <c r="P38" s="39"/>
+      <c r="U38" s="41"/>
+      <c r="AG38" s="42"/>
     </row>
     <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S39" s="55"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="56"/>
-      <c r="V39" s="55"/>
-      <c r="W39" s="55"/>
-      <c r="X39" s="55"/>
-      <c r="Y39" s="55"/>
-      <c r="Z39" s="55"/>
-      <c r="AA39" s="55"/>
-      <c r="AB39" s="55"/>
-      <c r="AC39" s="55"/>
-      <c r="AD39" s="55"/>
-      <c r="AE39" s="55"/>
-      <c r="AF39" s="60"/>
-      <c r="AG39" s="61"/>
-      <c r="AH39" s="62"/>
-      <c r="AI39" s="55"/>
+      <c r="U39" s="41"/>
+      <c r="AF39" s="42"/>
+      <c r="AG39" s="39"/>
     </row>
     <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="Q40" s="63"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="56"/>
-      <c r="U40" s="55"/>
-      <c r="V40" s="55"/>
-      <c r="W40" s="55"/>
-      <c r="X40" s="55"/>
-      <c r="Y40" s="55"/>
-      <c r="Z40" s="55"/>
-      <c r="AA40" s="55"/>
-      <c r="AB40" s="55"/>
-      <c r="AC40" s="55"/>
-      <c r="AD40" s="55"/>
-      <c r="AE40" s="55"/>
-      <c r="AF40" s="60"/>
-      <c r="AG40" s="60"/>
-      <c r="AH40" s="62"/>
-      <c r="AI40" s="55"/>
+      <c r="T40" s="41"/>
+      <c r="AF40" s="42"/>
+      <c r="AG40" s="42"/>
     </row>
     <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
-      <c r="V41" s="55"/>
-      <c r="W41" s="55"/>
-      <c r="X41" s="55"/>
-      <c r="Y41" s="55"/>
-      <c r="Z41" s="55"/>
-      <c r="AA41" s="55"/>
-      <c r="AB41" s="55"/>
-      <c r="AC41" s="55"/>
-      <c r="AD41" s="55"/>
-      <c r="AE41" s="55"/>
-      <c r="AF41" s="55"/>
-      <c r="AG41" s="61"/>
-      <c r="AH41" s="62"/>
-      <c r="AI41" s="55"/>
+      <c r="AG41" s="39"/>
     </row>
     <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J42" s="52"/>
-      <c r="K42" s="52"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="52"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="52"/>
-      <c r="AE42" s="55"/>
-      <c r="AF42" s="55"/>
-      <c r="AG42" s="61"/>
-      <c r="AH42" s="62"/>
-      <c r="AI42" s="55"/>
+      <c r="AG42" s="39"/>
     </row>
     <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE43" s="55"/>
-      <c r="AF43" s="60"/>
-      <c r="AG43" s="61"/>
-      <c r="AH43" s="62"/>
-      <c r="AI43" s="55"/>
+      <c r="AF43" s="42"/>
+      <c r="AG43" s="39"/>
     </row>
     <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AE44" s="55"/>
-      <c r="AF44" s="60"/>
-      <c r="AG44" s="60"/>
-      <c r="AH44" s="62"/>
-      <c r="AI44" s="55"/>
+      <c r="AF44" s="42"/>
+      <c r="AG44" s="42"/>
     </row>
     <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="52"/>
-      <c r="AF45" s="64"/>
-      <c r="AG45" s="64"/>
+      <c r="AF45" s="42"/>
+      <c r="AG45" s="42"/>
     </row>
     <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="52"/>
-      <c r="AG46" s="64"/>
+      <c r="AG46" s="42"/>
     </row>
     <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AF47" s="64"/>
-      <c r="AG47" s="64"/>
+      <c r="AF47" s="42"/>
+      <c r="AG47" s="42"/>
     </row>
     <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="AG48" s="64"/>
+      <c r="AG48" s="42"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="S49" s="52"/>
-      <c r="T49" s="52"/>
-      <c r="V49" s="52"/>
-      <c r="W49" s="52"/>
-      <c r="X49" s="52"/>
-      <c r="Y49" s="52"/>
-      <c r="Z49" s="52"/>
-      <c r="AA49" s="52"/>
-      <c r="AB49" s="52"/>
-      <c r="AC49" s="52"/>
-      <c r="AD49" s="52"/>
-    </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R50" s="52"/>
-      <c r="S50" s="52"/>
-      <c r="T50" s="52"/>
-      <c r="V50" s="52"/>
-      <c r="W50" s="52"/>
-      <c r="X50" s="52"/>
-      <c r="Y50" s="52"/>
-      <c r="Z50" s="52"/>
-      <c r="AA50" s="52"/>
-      <c r="AB50" s="52"/>
-      <c r="AC50" s="52"/>
-      <c r="AD50" s="52"/>
-      <c r="AG50" s="64"/>
-    </row>
-    <row r="51" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R51" s="52"/>
-    </row>
-    <row r="52" spans="1:34" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="43"/>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="43"/>
-      <c r="F52" s="43"/>
-      <c r="G52" s="43"/>
-      <c r="H52" s="43"/>
-      <c r="I52" s="43"/>
-      <c r="J52" s="43"/>
-      <c r="K52" s="43"/>
-      <c r="L52" s="43"/>
-      <c r="M52" s="43"/>
-      <c r="N52" s="43"/>
-      <c r="O52" s="43"/>
-      <c r="P52" s="43"/>
-      <c r="Q52" s="54"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
-      <c r="W52" s="43"/>
-      <c r="X52" s="43"/>
-      <c r="Y52" s="43"/>
-      <c r="Z52" s="43"/>
-      <c r="AA52" s="43"/>
-      <c r="AB52" s="43"/>
-      <c r="AC52" s="43"/>
-      <c r="AD52" s="43"/>
-      <c r="AH52" s="63"/>
-    </row>
-    <row r="53" spans="1:34" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="43"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="43"/>
-      <c r="J53" s="43"/>
-      <c r="K53" s="43"/>
-      <c r="L53" s="43"/>
-      <c r="M53" s="43"/>
-      <c r="N53" s="43"/>
-      <c r="O53" s="43"/>
-      <c r="P53" s="43"/>
-      <c r="Q53" s="54"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
-      <c r="W53" s="43"/>
-      <c r="X53" s="43"/>
-      <c r="Y53" s="43"/>
-      <c r="Z53" s="43"/>
-      <c r="AA53" s="43"/>
-      <c r="AB53" s="43"/>
-      <c r="AC53" s="43"/>
-      <c r="AD53" s="43"/>
-      <c r="AH53" s="63"/>
+    <row r="50" spans="33:33" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AG50" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -17404,6 +17153,14 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -17418,7 +17175,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AX35"/>
+  <dimension ref="A1:AW35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:D1"/>
@@ -17426,603 +17183,714 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="4.83203125" style="7" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="14" customWidth="1"/>
-    <col min="8" max="11" width="4.83203125" style="7" customWidth="1"/>
-    <col min="12" max="13" width="4.83203125" style="14" customWidth="1"/>
-    <col min="14" max="15" width="4.83203125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="14" customWidth="1"/>
-    <col min="17" max="21" width="4.83203125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" style="14" customWidth="1"/>
-    <col min="23" max="29" width="4.83203125" style="7" customWidth="1"/>
-    <col min="30" max="31" width="4.83203125" style="14" customWidth="1"/>
-    <col min="32" max="16384" width="4.83203125" style="7"/>
+    <col min="1" max="31" width="4.83203125" style="6" customWidth="1"/>
+    <col min="32" max="16384" width="4.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
+    <row r="1" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="163" t="s">
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="130" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="172" t="str">
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="139" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>画面遷移図</v>
       </c>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="141"/>
+      <c r="AA1" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="86" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="125">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43595</v>
       </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
-      <c r="AJ1" s="15"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="6"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
     </row>
-    <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+    <row r="2" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="176"/>
-      <c r="X2" s="176"/>
-      <c r="Y2" s="176"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="86" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="125">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v>44796</v>
       </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
-      <c r="AJ2" s="15"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="6"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
     </row>
-    <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
+    <row r="3" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>プロジェクト管理システム</v>
       </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="179"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="86" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="125" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="127"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
     </row>
-    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-    </row>
-    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="65" t="s">
+    <row r="4" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="7"/>
-      <c r="I6" s="14"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
+    <row r="18" spans="13:26" x14ac:dyDescent="0.15">
+      <c r="M18" s="10"/>
+      <c r="Z18" s="10"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="7"/>
-      <c r="I7" s="14"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
+    <row r="35" spans="13:26" x14ac:dyDescent="0.15">
+      <c r="M35" s="10"/>
+      <c r="Z35" s="10"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="7"/>
-      <c r="I8" s="14"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C- &amp;P -</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AW32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="31" width="4.83203125" style="6" customWidth="1"/>
+    <col min="32" max="16384" width="4.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
+        <v>サンプルプロジェクト</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="130" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="139" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
+        <v>画面遷移図</v>
+      </c>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="141"/>
+      <c r="AA1" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="86" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="125">
+        <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
+        <v>43595</v>
+      </c>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="6"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="7"/>
-      <c r="I9" s="14"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
+    <row r="2" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
+        <v>サンプルシステム</v>
+      </c>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="86" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="125">
+        <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="6"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
     </row>
-    <row r="10" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="7"/>
-      <c r="I12" s="14"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
+    <row r="3" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
+        <v>プロジェクト管理システム</v>
+      </c>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="86" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
+        <v/>
+      </c>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="125" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
+        <v/>
+      </c>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="127"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="7"/>
-      <c r="I13" s="14"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
+    <row r="4" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="43" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="7"/>
-      <c r="I15" s="14"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
+    <row r="18" spans="13:26" x14ac:dyDescent="0.15">
+      <c r="M18" s="10"/>
+      <c r="Z18" s="10"/>
     </row>
-    <row r="16" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="7"/>
-      <c r="I17" s="14"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
+    <row r="32" spans="13:26" x14ac:dyDescent="0.15">
+      <c r="M32" s="10"/>
+      <c r="Z32" s="10"/>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="7"/>
-      <c r="I18" s="14"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="16"/>
-      <c r="P18" s="7"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="Z18" s="16"/>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+  </mergeCells>
+  <phoneticPr fontId="8"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C- &amp;P -</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413FFD40-CA99-43A3-B8B2-919180F643BE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:AW35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="31" width="4.83203125" style="6" customWidth="1"/>
+    <col min="32" max="16384" width="4.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
+        <v>サンプルプロジェクト</v>
+      </c>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="130" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="132"/>
+      <c r="S1" s="139" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
+        <v>画面遷移図</v>
+      </c>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="141"/>
+      <c r="AA1" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="61"/>
+      <c r="AC1" s="86" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="125">
+        <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
+        <v>43595</v>
+      </c>
+      <c r="AH1" s="126"/>
+      <c r="AI1" s="127"/>
+      <c r="AJ1" s="6"/>
+      <c r="AN1" s="7"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="8"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="7"/>
-      <c r="I19" s="14"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
+    <row r="2" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
+        <v>サンプルシステム</v>
+      </c>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="133"/>
+      <c r="P2" s="134"/>
+      <c r="Q2" s="134"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="143"/>
+      <c r="U2" s="143"/>
+      <c r="V2" s="143"/>
+      <c r="W2" s="143"/>
+      <c r="X2" s="143"/>
+      <c r="Y2" s="143"/>
+      <c r="Z2" s="144"/>
+      <c r="AA2" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB2" s="61"/>
+      <c r="AC2" s="86" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="87"/>
+      <c r="AE2" s="87"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="125">
+        <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
+        <v>44796</v>
+      </c>
+      <c r="AH2" s="126"/>
+      <c r="AI2" s="127"/>
+      <c r="AJ2" s="6"/>
+      <c r="AN2" s="7"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
     </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="7"/>
-      <c r="I20" s="14"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
+    <row r="3" spans="1:49" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
+        <v>プロジェクト管理システム</v>
+      </c>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="138"/>
+      <c r="S3" s="145"/>
+      <c r="T3" s="146"/>
+      <c r="U3" s="146"/>
+      <c r="V3" s="146"/>
+      <c r="W3" s="146"/>
+      <c r="X3" s="146"/>
+      <c r="Y3" s="146"/>
+      <c r="Z3" s="147"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="86" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
+        <v/>
+      </c>
+      <c r="AD3" s="87"/>
+      <c r="AE3" s="87"/>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="125" t="str">
+        <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
+        <v/>
+      </c>
+      <c r="AH3" s="126"/>
+      <c r="AI3" s="127"/>
+      <c r="AJ3" s="9"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="7"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="AW3" s="8"/>
     </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="7"/>
-      <c r="I21" s="14"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
+    <row r="4" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:49" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="43" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="22" spans="3:31" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
+    <row r="18" spans="13:26" x14ac:dyDescent="0.15">
+      <c r="M18" s="10"/>
+      <c r="Z18" s="10"/>
     </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="7"/>
-      <c r="I23" s="14"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="7"/>
-      <c r="I24" s="14"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="7"/>
-      <c r="I25" s="14"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="7"/>
-      <c r="I26" s="14"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-    </row>
-    <row r="27" spans="3:31" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="F28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-    </row>
-    <row r="29" spans="3:31" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="7"/>
-      <c r="I30" s="14"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="F31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="7"/>
-      <c r="I32" s="14"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-    </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="F33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-    </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="7"/>
-      <c r="I34" s="14"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-    </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="7"/>
-      <c r="I35" s="14"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="16"/>
-      <c r="P35" s="7"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="Z35" s="16"/>
+    <row r="35" spans="13:26" x14ac:dyDescent="0.15">
+      <c r="M35" s="10"/>
+      <c r="Z35" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -18051,1199 +17919,8 @@
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C- &amp;P -</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AX33"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AO29" sqref="AO29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="4.83203125" style="7" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="14" customWidth="1"/>
-    <col min="8" max="11" width="4.83203125" style="7" customWidth="1"/>
-    <col min="12" max="13" width="4.83203125" style="14" customWidth="1"/>
-    <col min="14" max="15" width="4.83203125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="14" customWidth="1"/>
-    <col min="17" max="21" width="4.83203125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" style="14" customWidth="1"/>
-    <col min="23" max="29" width="4.83203125" style="7" customWidth="1"/>
-    <col min="30" max="31" width="4.83203125" style="14" customWidth="1"/>
-    <col min="32" max="16384" width="4.83203125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
-        <v>サンプルプロジェクト</v>
-      </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="163" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="172" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
-        <v>画面遷移図</v>
-      </c>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
-        <v>TIS</v>
-      </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
-        <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
-        <v>43595</v>
-      </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
-      <c r="AJ1" s="15"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-    </row>
-    <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
-        <v>サンプルシステム</v>
-      </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="176"/>
-      <c r="X2" s="176"/>
-      <c r="Y2" s="176"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v>TIS</v>
-      </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
-        <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44796</v>
-      </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
-      <c r="AJ2" s="15"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-    </row>
-    <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
-        <v>プロジェクト管理システム</v>
-      </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="179"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
-        <v/>
-      </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
-        <v/>
-      </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-    </row>
-    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-    </row>
-    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="65" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="7"/>
-      <c r="I6" s="14"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="7"/>
-      <c r="I7" s="14"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="7"/>
-      <c r="I8" s="14"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="7"/>
-      <c r="I9" s="14"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-    </row>
-    <row r="10" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="7"/>
-      <c r="I12" s="14"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="7"/>
-      <c r="I13" s="14"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-    </row>
-    <row r="14" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="7"/>
-      <c r="I15" s="14"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-    </row>
-    <row r="16" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="7"/>
-      <c r="I17" s="14"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="7"/>
-      <c r="I18" s="14"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="16"/>
-      <c r="P18" s="7"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="Z18" s="16"/>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="7"/>
-      <c r="I19" s="14"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="7"/>
-      <c r="I20" s="14"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="7"/>
-      <c r="I21" s="14"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="P21" s="7"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="7"/>
-      <c r="I22" s="14"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="R22" s="14"/>
-      <c r="S22" s="14"/>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="7"/>
-      <c r="I23" s="14"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-    </row>
-    <row r="24" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="25" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="7"/>
-      <c r="I26" s="14"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="7"/>
-      <c r="I27" s="14"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-    </row>
-    <row r="28" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="7"/>
-      <c r="I29" s="14"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="R29" s="14"/>
-      <c r="S29" s="14"/>
-    </row>
-    <row r="30" spans="3:26" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="7"/>
-      <c r="I31" s="14"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.15">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="7"/>
-      <c r="I32" s="14"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="16"/>
-      <c r="P32" s="7"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="Z32" s="16"/>
-    </row>
-    <row r="33" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="7"/>
-      <c r="I33" s="14"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-  </mergeCells>
-  <phoneticPr fontId="8"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
-  </headerFooter>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{413FFD40-CA99-43A3-B8B2-919180F643BE}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:AX35"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="4.83203125" style="7" customWidth="1"/>
-    <col min="3" max="5" width="4.83203125" style="14" customWidth="1"/>
-    <col min="6" max="6" width="4.83203125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="14" customWidth="1"/>
-    <col min="8" max="11" width="4.83203125" style="7" customWidth="1"/>
-    <col min="12" max="13" width="4.83203125" style="14" customWidth="1"/>
-    <col min="14" max="15" width="4.83203125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="4.83203125" style="14" customWidth="1"/>
-    <col min="17" max="21" width="4.83203125" style="7" customWidth="1"/>
-    <col min="22" max="22" width="4.83203125" style="14" customWidth="1"/>
-    <col min="23" max="29" width="4.83203125" style="7" customWidth="1"/>
-    <col min="30" max="31" width="4.83203125" style="14" customWidth="1"/>
-    <col min="32" max="16384" width="4.83203125" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="128"/>
-      <c r="C1" s="128"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="130" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
-        <v>サンプルプロジェクト</v>
-      </c>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
-      <c r="N1" s="132"/>
-      <c r="O1" s="163" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="164"/>
-      <c r="Q1" s="164"/>
-      <c r="R1" s="165"/>
-      <c r="S1" s="172" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
-        <v>画面遷移図</v>
-      </c>
-      <c r="T1" s="173"/>
-      <c r="U1" s="173"/>
-      <c r="V1" s="173"/>
-      <c r="W1" s="173"/>
-      <c r="X1" s="173"/>
-      <c r="Y1" s="173"/>
-      <c r="Z1" s="174"/>
-      <c r="AA1" s="127" t="s">
-        <v>3</v>
-      </c>
-      <c r="AB1" s="129"/>
-      <c r="AC1" s="154" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
-        <v>TIS</v>
-      </c>
-      <c r="AD1" s="155"/>
-      <c r="AE1" s="155"/>
-      <c r="AF1" s="156"/>
-      <c r="AG1" s="160">
-        <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
-        <v>43595</v>
-      </c>
-      <c r="AH1" s="161"/>
-      <c r="AI1" s="162"/>
-      <c r="AJ1" s="15"/>
-      <c r="AN1" s="9"/>
-      <c r="AO1" s="15"/>
-      <c r="AP1" s="15"/>
-      <c r="AQ1" s="15"/>
-      <c r="AR1" s="15"/>
-      <c r="AS1" s="10"/>
-      <c r="AT1" s="15"/>
-      <c r="AU1" s="15"/>
-      <c r="AV1" s="15"/>
-      <c r="AW1" s="15"/>
-    </row>
-    <row r="2" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="130" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
-        <v>サンプルシステム</v>
-      </c>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="131"/>
-      <c r="M2" s="131"/>
-      <c r="N2" s="132"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="167"/>
-      <c r="Q2" s="167"/>
-      <c r="R2" s="168"/>
-      <c r="S2" s="175"/>
-      <c r="T2" s="176"/>
-      <c r="U2" s="176"/>
-      <c r="V2" s="176"/>
-      <c r="W2" s="176"/>
-      <c r="X2" s="176"/>
-      <c r="Y2" s="176"/>
-      <c r="Z2" s="177"/>
-      <c r="AA2" s="127" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB2" s="129"/>
-      <c r="AC2" s="154" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v>TIS</v>
-      </c>
-      <c r="AD2" s="155"/>
-      <c r="AE2" s="155"/>
-      <c r="AF2" s="156"/>
-      <c r="AG2" s="160">
-        <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v>44796</v>
-      </c>
-      <c r="AH2" s="161"/>
-      <c r="AI2" s="162"/>
-      <c r="AJ2" s="15"/>
-      <c r="AN2" s="9"/>
-      <c r="AO2" s="15"/>
-      <c r="AP2" s="15"/>
-      <c r="AQ2" s="15"/>
-      <c r="AR2" s="15"/>
-      <c r="AS2" s="10"/>
-      <c r="AT2" s="15"/>
-      <c r="AU2" s="15"/>
-      <c r="AV2" s="15"/>
-      <c r="AW2" s="15"/>
-    </row>
-    <row r="3" spans="1:50" s="3" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="127" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="128"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="130" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
-        <v>プロジェクト管理システム</v>
-      </c>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
-      <c r="K3" s="131"/>
-      <c r="L3" s="131"/>
-      <c r="M3" s="131"/>
-      <c r="N3" s="132"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="178"/>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="179"/>
-      <c r="Z3" s="180"/>
-      <c r="AA3" s="127"/>
-      <c r="AB3" s="129"/>
-      <c r="AC3" s="154" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
-        <v/>
-      </c>
-      <c r="AD3" s="155"/>
-      <c r="AE3" s="155"/>
-      <c r="AF3" s="156"/>
-      <c r="AG3" s="160" t="str">
-        <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
-        <v/>
-      </c>
-      <c r="AH3" s="161"/>
-      <c r="AI3" s="162"/>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
-      <c r="AN3" s="9"/>
-      <c r="AO3" s="9"/>
-      <c r="AP3" s="9"/>
-      <c r="AQ3" s="9"/>
-      <c r="AR3" s="9"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-    </row>
-    <row r="4" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-    </row>
-    <row r="5" spans="1:50" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="65" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="7"/>
-      <c r="I6" s="14"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="7"/>
-      <c r="I7" s="14"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-    </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="7"/>
-      <c r="I8" s="14"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-    </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="7"/>
-      <c r="I9" s="14"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-    </row>
-    <row r="10" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="7"/>
-      <c r="I12" s="14"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-    </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="7"/>
-      <c r="I13" s="14"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-    </row>
-    <row r="14" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.15">
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="7"/>
-      <c r="I15" s="14"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-    </row>
-    <row r="16" spans="1:50" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="7"/>
-      <c r="I17" s="14"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="7"/>
-      <c r="I18" s="14"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="16"/>
-      <c r="P18" s="7"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="Z18" s="16"/>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="7"/>
-      <c r="I19" s="14"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="7"/>
-      <c r="I20" s="14"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="7"/>
-      <c r="I21" s="14"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="3:31" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7"/>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="7"/>
-      <c r="I23" s="14"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="7"/>
-      <c r="I24" s="14"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="7"/>
-      <c r="I25" s="14"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="7"/>
-      <c r="I26" s="14"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-    </row>
-    <row r="27" spans="3:31" s="14" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="F28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-    </row>
-    <row r="29" spans="3:31" s="14" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="P29" s="7"/>
-      <c r="Q29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="7"/>
-      <c r="I30" s="14"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="R30" s="14"/>
-      <c r="S30" s="14"/>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="F31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
-      <c r="S31" s="14"/>
-      <c r="T31" s="14"/>
-      <c r="U31" s="14"/>
-      <c r="W31" s="14"/>
-      <c r="X31" s="14"/>
-      <c r="Y31" s="14"/>
-      <c r="Z31" s="14"/>
-      <c r="AA31" s="14"/>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.15">
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="7"/>
-      <c r="I32" s="14"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="R32" s="14"/>
-      <c r="S32" s="14"/>
-      <c r="AC32" s="14"/>
-      <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-    </row>
-    <row r="33" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="F33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-      <c r="N33" s="14"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
-      <c r="S33" s="14"/>
-      <c r="T33" s="14"/>
-      <c r="U33" s="14"/>
-      <c r="W33" s="14"/>
-      <c r="X33" s="14"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
-      <c r="AA33" s="14"/>
-      <c r="AC33" s="14"/>
-      <c r="AD33" s="7"/>
-      <c r="AE33" s="7"/>
-    </row>
-    <row r="34" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="7"/>
-      <c r="I34" s="14"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="7"/>
-      <c r="P34" s="7"/>
-      <c r="R34" s="14"/>
-      <c r="S34" s="14"/>
-      <c r="AB34" s="14"/>
-      <c r="AC34" s="14"/>
-      <c r="AF34" s="14"/>
-      <c r="AG34" s="14"/>
-    </row>
-    <row r="35" spans="3:33" x14ac:dyDescent="0.15">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="7"/>
-      <c r="I35" s="14"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="16"/>
-      <c r="P35" s="7"/>
-      <c r="R35" s="14"/>
-      <c r="S35" s="14"/>
-      <c r="Z35" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-  </mergeCells>
-  <phoneticPr fontId="8"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" useFirstPageNumber="1" r:id="rId1"/>
-  <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
-  </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="52" max="34" man="1"/>
+    <brk id="51" max="34" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
